--- a/assesmentData/STRD Dwelling StructurE_HIED HouseholdEquivalisedIncome_FMCFFamily Composition_VIC_20061116_IMAPconventionV2.xlsx
+++ b/assesmentData/STRD Dwelling StructurE_HIED HouseholdEquivalisedIncome_FMCFFamily Composition_VIC_20061116_IMAPconventionV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\gr4sp\experiments\assesmentData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B1803D-0EDC-4482-8DF4-278656D9635C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006EFD07-7624-4831-A8A5-0EC093F7C39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="38700" windowHeight="15435" xr2:uid="{9CA7CC69-ACCA-4866-9B50-D6BF25A9B8C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{9CA7CC69-ACCA-4866-9B50-D6BF25A9B8C4}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="2" r:id="rId1"/>
@@ -645,8 +645,8 @@
   <dimension ref="A1:Z543"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F414" sqref="F414"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD66" sqref="AD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assesmentData/STRD Dwelling StructurE_HIED HouseholdEquivalisedIncome_FMCFFamily Composition_VIC_20061116_IMAPconventionV2.xlsx
+++ b/assesmentData/STRD Dwelling StructurE_HIED HouseholdEquivalisedIncome_FMCFFamily Composition_VIC_20061116_IMAPconventionV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\gr4sp\experiments\assesmentData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006EFD07-7624-4831-A8A5-0EC093F7C39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613DE3D3-F8DB-40B8-9C27-0096E3BDA29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{9CA7CC69-ACCA-4866-9B50-D6BF25A9B8C4}"/>
   </bookViews>
@@ -319,13 +319,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -645,8 +645,8 @@
   <dimension ref="A1:Z543"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD66" sqref="AD66"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,6 +657,7 @@
     <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -722,7 +723,7 @@
       <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>42</v>
       </c>
       <c r="H2">
@@ -777,7 +778,7 @@
       <c r="F3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="9"/>
       <c r="H3">
         <v>1130</v>
       </c>
@@ -830,7 +831,7 @@
       <c r="F4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="9"/>
       <c r="H4">
         <v>67704</v>
       </c>
@@ -883,7 +884,7 @@
       <c r="F5" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="9"/>
       <c r="H5">
         <v>78395</v>
       </c>
@@ -936,7 +937,7 @@
       <c r="F6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="9"/>
       <c r="H6">
         <v>45125</v>
       </c>
@@ -978,7 +979,7 @@
       <c r="F7" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="9"/>
       <c r="H7">
         <v>53463</v>
       </c>
@@ -1020,7 +1021,7 @@
       <c r="F8" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="9"/>
       <c r="H8">
         <v>57043</v>
       </c>
@@ -1062,7 +1063,7 @@
       <c r="F9" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="9"/>
       <c r="H9">
         <v>20771</v>
       </c>
@@ -1104,7 +1105,7 @@
       <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="9"/>
       <c r="H10">
         <v>16891</v>
       </c>
@@ -1157,7 +1158,7 @@
       <c r="F11" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="7">
@@ -1212,7 +1213,7 @@
       <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="7">
         <v>1130</v>
       </c>
@@ -1265,7 +1266,7 @@
       <c r="F13" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="7">
         <v>67704</v>
       </c>
@@ -1318,7 +1319,7 @@
       <c r="F14" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="7">
         <v>78395</v>
       </c>
@@ -1371,7 +1372,7 @@
       <c r="F15" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="7">
         <v>45125</v>
       </c>
@@ -1424,7 +1425,7 @@
       <c r="F16" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="7">
         <v>53463</v>
       </c>
@@ -1477,7 +1478,7 @@
       <c r="F17" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="7">
         <v>57043</v>
       </c>
@@ -1530,7 +1531,7 @@
       <c r="F18" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="7">
         <v>20771</v>
       </c>
@@ -1583,7 +1584,7 @@
       <c r="F19" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="7">
         <v>16891</v>
       </c>
@@ -1636,7 +1637,7 @@
       <c r="F20" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H20" s="7">
@@ -1691,7 +1692,7 @@
       <c r="F21" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="11"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="7">
         <v>1130</v>
       </c>
@@ -1744,7 +1745,7 @@
       <c r="F22" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="7">
         <v>67704</v>
       </c>
@@ -1797,7 +1798,7 @@
       <c r="F23" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="7">
         <v>78395</v>
       </c>
@@ -1850,7 +1851,7 @@
       <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="7">
         <v>45125</v>
       </c>
@@ -1903,7 +1904,7 @@
       <c r="F25" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="11"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="7">
         <v>53463</v>
       </c>
@@ -1956,7 +1957,7 @@
       <c r="F26" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="11"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="7">
         <v>57043</v>
       </c>
@@ -2009,7 +2010,7 @@
       <c r="F27" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="11"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="7">
         <v>20771</v>
       </c>
@@ -2062,7 +2063,7 @@
       <c r="F28" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="11"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="7">
         <v>16891</v>
       </c>
@@ -2115,7 +2116,7 @@
       <c r="F29" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="9" t="s">
         <v>45</v>
       </c>
       <c r="H29" s="7">
@@ -2170,7 +2171,7 @@
       <c r="F30" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="11"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="7">
         <v>1130</v>
       </c>
@@ -2223,7 +2224,7 @@
       <c r="F31" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="11"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="7">
         <v>67704</v>
       </c>
@@ -2276,7 +2277,7 @@
       <c r="F32" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="11"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="7">
         <v>78395</v>
       </c>
@@ -2329,7 +2330,7 @@
       <c r="F33" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="11"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="7">
         <v>45125</v>
       </c>
@@ -2382,7 +2383,7 @@
       <c r="F34" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="11"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="7">
         <v>53463</v>
       </c>
@@ -2435,7 +2436,7 @@
       <c r="F35" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="11"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="7">
         <v>57043</v>
       </c>
@@ -2488,7 +2489,7 @@
       <c r="F36" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="11"/>
+      <c r="G36" s="9"/>
       <c r="H36" s="7">
         <v>20771</v>
       </c>
@@ -2541,7 +2542,7 @@
       <c r="F37" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="11"/>
+      <c r="G37" s="9"/>
       <c r="H37" s="7">
         <v>16891</v>
       </c>
@@ -2594,7 +2595,7 @@
       <c r="F38" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H38" s="7">
@@ -2649,7 +2650,7 @@
       <c r="F39" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="11"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="7">
         <v>1130</v>
       </c>
@@ -2702,7 +2703,7 @@
       <c r="F40" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="11"/>
+      <c r="G40" s="9"/>
       <c r="H40" s="7">
         <v>67704</v>
       </c>
@@ -2755,7 +2756,7 @@
       <c r="F41" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="11"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="7">
         <v>78395</v>
       </c>
@@ -2808,7 +2809,7 @@
       <c r="F42" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="11"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="7">
         <v>45125</v>
       </c>
@@ -2861,7 +2862,7 @@
       <c r="F43" t="s">
         <v>67</v>
       </c>
-      <c r="G43" s="11"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="7">
         <v>53463</v>
       </c>
@@ -2914,7 +2915,7 @@
       <c r="F44" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="11"/>
+      <c r="G44" s="9"/>
       <c r="H44" s="7">
         <v>57043</v>
       </c>
@@ -2967,7 +2968,7 @@
       <c r="F45" t="s">
         <v>62</v>
       </c>
-      <c r="G45" s="11"/>
+      <c r="G45" s="9"/>
       <c r="H45" s="7">
         <v>20771</v>
       </c>
@@ -3020,7 +3021,7 @@
       <c r="F46" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="11"/>
+      <c r="G46" s="9"/>
       <c r="H46" s="7">
         <v>16891</v>
       </c>
@@ -3073,7 +3074,7 @@
       <c r="F47" t="s">
         <v>53</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H47" s="7">
@@ -3128,7 +3129,7 @@
       <c r="F48" t="s">
         <v>54</v>
       </c>
-      <c r="G48" s="11"/>
+      <c r="G48" s="9"/>
       <c r="H48" s="7">
         <v>1130</v>
       </c>
@@ -3180,7 +3181,7 @@
       <c r="F49" t="s">
         <v>64</v>
       </c>
-      <c r="G49" s="11"/>
+      <c r="G49" s="9"/>
       <c r="H49" s="7">
         <v>67704</v>
       </c>
@@ -3232,7 +3233,7 @@
       <c r="F50" t="s">
         <v>65</v>
       </c>
-      <c r="G50" s="11"/>
+      <c r="G50" s="9"/>
       <c r="H50" s="7">
         <v>78395</v>
       </c>
@@ -3284,7 +3285,7 @@
       <c r="F51" t="s">
         <v>66</v>
       </c>
-      <c r="G51" s="11"/>
+      <c r="G51" s="9"/>
       <c r="H51" s="7">
         <v>45125</v>
       </c>
@@ -3336,7 +3337,7 @@
       <c r="F52" t="s">
         <v>67</v>
       </c>
-      <c r="G52" s="11"/>
+      <c r="G52" s="9"/>
       <c r="H52" s="7">
         <v>53463</v>
       </c>
@@ -3389,7 +3390,7 @@
       <c r="F53" t="s">
         <v>68</v>
       </c>
-      <c r="G53" s="11"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="7">
         <v>57043</v>
       </c>
@@ -3442,7 +3443,7 @@
       <c r="F54" t="s">
         <v>62</v>
       </c>
-      <c r="G54" s="11"/>
+      <c r="G54" s="9"/>
       <c r="H54" s="7">
         <v>20771</v>
       </c>
@@ -3495,7 +3496,7 @@
       <c r="F55" t="s">
         <v>63</v>
       </c>
-      <c r="G55" s="11"/>
+      <c r="G55" s="9"/>
       <c r="H55" s="7">
         <v>16891</v>
       </c>
@@ -3548,7 +3549,7 @@
       <c r="F56" t="s">
         <v>53</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H56" s="7">
@@ -3603,7 +3604,7 @@
       <c r="F57" t="s">
         <v>54</v>
       </c>
-      <c r="G57" s="11"/>
+      <c r="G57" s="9"/>
       <c r="H57" s="7">
         <v>1130</v>
       </c>
@@ -3656,7 +3657,7 @@
       <c r="F58" t="s">
         <v>64</v>
       </c>
-      <c r="G58" s="11"/>
+      <c r="G58" s="9"/>
       <c r="H58" s="7">
         <v>67704</v>
       </c>
@@ -3709,7 +3710,7 @@
       <c r="F59" t="s">
         <v>65</v>
       </c>
-      <c r="G59" s="11"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="7">
         <v>78395</v>
       </c>
@@ -3762,7 +3763,7 @@
       <c r="F60" t="s">
         <v>66</v>
       </c>
-      <c r="G60" s="11"/>
+      <c r="G60" s="9"/>
       <c r="H60" s="7">
         <v>45125</v>
       </c>
@@ -3815,7 +3816,7 @@
       <c r="F61" t="s">
         <v>67</v>
       </c>
-      <c r="G61" s="11"/>
+      <c r="G61" s="9"/>
       <c r="H61" s="7">
         <v>53463</v>
       </c>
@@ -3868,7 +3869,7 @@
       <c r="F62" t="s">
         <v>68</v>
       </c>
-      <c r="G62" s="11"/>
+      <c r="G62" s="9"/>
       <c r="H62" s="7">
         <v>57043</v>
       </c>
@@ -3921,7 +3922,7 @@
       <c r="F63" t="s">
         <v>62</v>
       </c>
-      <c r="G63" s="11"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="7">
         <v>20771</v>
       </c>
@@ -3974,7 +3975,7 @@
       <c r="F64" t="s">
         <v>63</v>
       </c>
-      <c r="G64" s="11"/>
+      <c r="G64" s="9"/>
       <c r="H64" s="7">
         <v>16891</v>
       </c>
@@ -4027,7 +4028,7 @@
       <c r="F65" t="s">
         <v>53</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H65" s="7">
@@ -4082,7 +4083,7 @@
       <c r="F66" t="s">
         <v>54</v>
       </c>
-      <c r="G66" s="11"/>
+      <c r="G66" s="9"/>
       <c r="H66" s="7">
         <v>1130</v>
       </c>
@@ -4135,7 +4136,7 @@
       <c r="F67" t="s">
         <v>64</v>
       </c>
-      <c r="G67" s="11"/>
+      <c r="G67" s="9"/>
       <c r="H67" s="7">
         <v>67704</v>
       </c>
@@ -4188,7 +4189,7 @@
       <c r="F68" t="s">
         <v>65</v>
       </c>
-      <c r="G68" s="11"/>
+      <c r="G68" s="9"/>
       <c r="H68" s="7">
         <v>78395</v>
       </c>
@@ -4241,7 +4242,7 @@
       <c r="F69" t="s">
         <v>66</v>
       </c>
-      <c r="G69" s="11"/>
+      <c r="G69" s="9"/>
       <c r="H69" s="7">
         <v>45125</v>
       </c>
@@ -4294,7 +4295,7 @@
       <c r="F70" t="s">
         <v>67</v>
       </c>
-      <c r="G70" s="11"/>
+      <c r="G70" s="9"/>
       <c r="H70" s="7">
         <v>53463</v>
       </c>
@@ -4347,7 +4348,7 @@
       <c r="F71" t="s">
         <v>68</v>
       </c>
-      <c r="G71" s="11"/>
+      <c r="G71" s="9"/>
       <c r="H71" s="7">
         <v>57043</v>
       </c>
@@ -4400,7 +4401,7 @@
       <c r="F72" t="s">
         <v>62</v>
       </c>
-      <c r="G72" s="11"/>
+      <c r="G72" s="9"/>
       <c r="H72" s="7">
         <v>20771</v>
       </c>
@@ -4453,7 +4454,7 @@
       <c r="F73" t="s">
         <v>63</v>
       </c>
-      <c r="G73" s="11"/>
+      <c r="G73" s="9"/>
       <c r="H73" s="7">
         <v>16891</v>
       </c>
@@ -4490,7 +4491,7 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
+      <c r="A74" s="11">
         <v>2001</v>
       </c>
       <c r="B74">
@@ -4508,7 +4509,7 @@
       <c r="F74" t="s">
         <v>53</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G74" s="11" t="s">
         <v>42</v>
       </c>
       <c r="H74">
@@ -4535,7 +4536,7 @@
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
+      <c r="A75" s="11"/>
       <c r="B75">
         <v>5200</v>
       </c>
@@ -4551,7 +4552,7 @@
       <c r="F75" t="s">
         <v>72</v>
       </c>
-      <c r="G75" s="9"/>
+      <c r="G75" s="11"/>
       <c r="H75">
         <v>2726</v>
       </c>
@@ -4576,7 +4577,7 @@
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
+      <c r="A76" s="11"/>
       <c r="B76">
         <v>13000</v>
       </c>
@@ -4592,7 +4593,7 @@
       <c r="F76" t="s">
         <v>55</v>
       </c>
-      <c r="G76" s="9"/>
+      <c r="G76" s="11"/>
       <c r="H76">
         <v>4341</v>
       </c>
@@ -4617,7 +4618,7 @@
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
+      <c r="A77" s="11"/>
       <c r="B77">
         <v>18200</v>
       </c>
@@ -4633,7 +4634,7 @@
       <c r="F77" t="s">
         <v>56</v>
       </c>
-      <c r="G77" s="9"/>
+      <c r="G77" s="11"/>
       <c r="H77">
         <v>70361</v>
       </c>
@@ -4658,7 +4659,7 @@
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
+      <c r="A78" s="11"/>
       <c r="B78">
         <v>26000</v>
       </c>
@@ -4674,7 +4675,7 @@
       <c r="F78" t="s">
         <v>71</v>
       </c>
-      <c r="G78" s="9"/>
+      <c r="G78" s="11"/>
       <c r="H78">
         <v>40833</v>
       </c>
@@ -4699,7 +4700,7 @@
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
+      <c r="A79" s="11"/>
       <c r="B79">
         <v>28600</v>
       </c>
@@ -4715,7 +4716,7 @@
       <c r="F79" t="s">
         <v>57</v>
       </c>
-      <c r="G79" s="9"/>
+      <c r="G79" s="11"/>
       <c r="H79">
         <v>18894</v>
       </c>
@@ -4740,7 +4741,7 @@
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
+      <c r="A80" s="11"/>
       <c r="B80">
         <v>33800</v>
       </c>
@@ -4756,7 +4757,7 @@
       <c r="F80" t="s">
         <v>58</v>
       </c>
-      <c r="G80" s="9"/>
+      <c r="G80" s="11"/>
       <c r="H80">
         <v>31994</v>
       </c>
@@ -4781,7 +4782,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
+      <c r="A81" s="11"/>
       <c r="B81">
         <v>39000</v>
       </c>
@@ -4797,7 +4798,7 @@
       <c r="F81" t="s">
         <v>59</v>
       </c>
-      <c r="G81" s="9"/>
+      <c r="G81" s="11"/>
       <c r="H81">
         <v>16287</v>
       </c>
@@ -4822,7 +4823,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
+      <c r="A82" s="11"/>
       <c r="B82">
         <v>46800</v>
       </c>
@@ -4838,7 +4839,7 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" s="9"/>
+      <c r="G82" s="11"/>
       <c r="H82">
         <v>35970</v>
       </c>
@@ -4863,7 +4864,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
+      <c r="A83" s="11"/>
       <c r="B83">
         <v>57200</v>
       </c>
@@ -4879,7 +4880,7 @@
       <c r="F83" t="s">
         <v>60</v>
       </c>
-      <c r="G83" s="9"/>
+      <c r="G83" s="11"/>
       <c r="H83">
         <v>30754</v>
       </c>
@@ -4904,7 +4905,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
+      <c r="A84" s="11"/>
       <c r="B84">
         <v>70200</v>
       </c>
@@ -4920,7 +4921,7 @@
       <c r="F84" t="s">
         <v>61</v>
       </c>
-      <c r="G84" s="9"/>
+      <c r="G84" s="11"/>
       <c r="H84">
         <v>38196</v>
       </c>
@@ -4945,7 +4946,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
+      <c r="A85" s="11"/>
       <c r="B85">
         <v>91000</v>
       </c>
@@ -4961,7 +4962,7 @@
       <c r="F85" t="s">
         <v>62</v>
       </c>
-      <c r="G85" s="9"/>
+      <c r="G85" s="11"/>
       <c r="H85">
         <v>48228</v>
       </c>
@@ -4986,7 +4987,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
+      <c r="A86" s="11"/>
       <c r="B86">
         <f>C86*52</f>
         <v>156000</v>
@@ -5004,7 +5005,7 @@
       <c r="F86" t="s">
         <v>63</v>
       </c>
-      <c r="G86" s="9"/>
+      <c r="G86" s="11"/>
       <c r="H86">
         <v>41200</v>
       </c>
@@ -5029,7 +5030,7 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
+      <c r="A87" s="11"/>
       <c r="B87">
         <v>-52</v>
       </c>
@@ -5045,7 +5046,7 @@
       <c r="F87" t="s">
         <v>53</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="11" t="s">
         <v>43</v>
       </c>
       <c r="H87" s="7">
@@ -5072,7 +5073,7 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
+      <c r="A88" s="11"/>
       <c r="B88">
         <v>5200</v>
       </c>
@@ -5088,7 +5089,7 @@
       <c r="F88" t="s">
         <v>72</v>
       </c>
-      <c r="G88" s="9"/>
+      <c r="G88" s="11"/>
       <c r="H88" s="7">
         <v>2726</v>
       </c>
@@ -5113,7 +5114,7 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
+      <c r="A89" s="11"/>
       <c r="B89">
         <v>13000</v>
       </c>
@@ -5129,7 +5130,7 @@
       <c r="F89" t="s">
         <v>55</v>
       </c>
-      <c r="G89" s="9"/>
+      <c r="G89" s="11"/>
       <c r="H89" s="7">
         <v>4341</v>
       </c>
@@ -5154,7 +5155,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
+      <c r="A90" s="11"/>
       <c r="B90">
         <v>18200</v>
       </c>
@@ -5170,7 +5171,7 @@
       <c r="F90" t="s">
         <v>56</v>
       </c>
-      <c r="G90" s="9"/>
+      <c r="G90" s="11"/>
       <c r="H90" s="7">
         <v>70361</v>
       </c>
@@ -5195,7 +5196,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
+      <c r="A91" s="11"/>
       <c r="B91">
         <v>26000</v>
       </c>
@@ -5211,7 +5212,7 @@
       <c r="F91" t="s">
         <v>71</v>
       </c>
-      <c r="G91" s="9"/>
+      <c r="G91" s="11"/>
       <c r="H91" s="7">
         <v>40833</v>
       </c>
@@ -5236,7 +5237,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
+      <c r="A92" s="11"/>
       <c r="B92">
         <v>28600</v>
       </c>
@@ -5252,7 +5253,7 @@
       <c r="F92" t="s">
         <v>57</v>
       </c>
-      <c r="G92" s="9"/>
+      <c r="G92" s="11"/>
       <c r="H92" s="7">
         <v>18894</v>
       </c>
@@ -5277,7 +5278,7 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
+      <c r="A93" s="11"/>
       <c r="B93">
         <v>33800</v>
       </c>
@@ -5293,7 +5294,7 @@
       <c r="F93" t="s">
         <v>58</v>
       </c>
-      <c r="G93" s="9"/>
+      <c r="G93" s="11"/>
       <c r="H93" s="7">
         <v>31994</v>
       </c>
@@ -5318,7 +5319,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
+      <c r="A94" s="11"/>
       <c r="B94">
         <v>39000</v>
       </c>
@@ -5334,7 +5335,7 @@
       <c r="F94" t="s">
         <v>59</v>
       </c>
-      <c r="G94" s="9"/>
+      <c r="G94" s="11"/>
       <c r="H94" s="7">
         <v>16287</v>
       </c>
@@ -5359,7 +5360,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
+      <c r="A95" s="11"/>
       <c r="B95">
         <v>46800</v>
       </c>
@@ -5375,7 +5376,7 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="9"/>
+      <c r="G95" s="11"/>
       <c r="H95" s="7">
         <v>35970</v>
       </c>
@@ -5400,7 +5401,7 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
+      <c r="A96" s="11"/>
       <c r="B96">
         <v>57200</v>
       </c>
@@ -5416,7 +5417,7 @@
       <c r="F96" t="s">
         <v>60</v>
       </c>
-      <c r="G96" s="9"/>
+      <c r="G96" s="11"/>
       <c r="H96" s="7">
         <v>30754</v>
       </c>
@@ -5441,7 +5442,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
+      <c r="A97" s="11"/>
       <c r="B97">
         <v>70200</v>
       </c>
@@ -5457,7 +5458,7 @@
       <c r="F97" t="s">
         <v>61</v>
       </c>
-      <c r="G97" s="9"/>
+      <c r="G97" s="11"/>
       <c r="H97" s="7">
         <v>38196</v>
       </c>
@@ -5482,7 +5483,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
+      <c r="A98" s="11"/>
       <c r="B98">
         <v>91000</v>
       </c>
@@ -5498,7 +5499,7 @@
       <c r="F98" t="s">
         <v>62</v>
       </c>
-      <c r="G98" s="9"/>
+      <c r="G98" s="11"/>
       <c r="H98" s="7">
         <v>48228</v>
       </c>
@@ -5523,7 +5524,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
+      <c r="A99" s="11"/>
       <c r="B99">
         <f>C99*52</f>
         <v>156000</v>
@@ -5541,7 +5542,7 @@
       <c r="F99" t="s">
         <v>63</v>
       </c>
-      <c r="G99" s="9"/>
+      <c r="G99" s="11"/>
       <c r="H99" s="7">
         <v>41200</v>
       </c>
@@ -5566,7 +5567,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
+      <c r="A100" s="11"/>
       <c r="B100">
         <v>-52</v>
       </c>
@@ -5582,7 +5583,7 @@
       <c r="F100" t="s">
         <v>53</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="G100" s="11" t="s">
         <v>44</v>
       </c>
       <c r="H100" s="7">
@@ -5609,7 +5610,7 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="9"/>
+      <c r="A101" s="11"/>
       <c r="B101">
         <v>5200</v>
       </c>
@@ -5625,7 +5626,7 @@
       <c r="F101" t="s">
         <v>72</v>
       </c>
-      <c r="G101" s="9"/>
+      <c r="G101" s="11"/>
       <c r="H101" s="7">
         <v>2726</v>
       </c>
@@ -5650,7 +5651,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
+      <c r="A102" s="11"/>
       <c r="B102">
         <v>13000</v>
       </c>
@@ -5666,7 +5667,7 @@
       <c r="F102" t="s">
         <v>55</v>
       </c>
-      <c r="G102" s="9"/>
+      <c r="G102" s="11"/>
       <c r="H102" s="7">
         <v>4341</v>
       </c>
@@ -5691,7 +5692,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
+      <c r="A103" s="11"/>
       <c r="B103">
         <v>18200</v>
       </c>
@@ -5707,7 +5708,7 @@
       <c r="F103" t="s">
         <v>56</v>
       </c>
-      <c r="G103" s="9"/>
+      <c r="G103" s="11"/>
       <c r="H103" s="7">
         <v>70361</v>
       </c>
@@ -5732,7 +5733,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
+      <c r="A104" s="11"/>
       <c r="B104">
         <v>26000</v>
       </c>
@@ -5748,7 +5749,7 @@
       <c r="F104" t="s">
         <v>71</v>
       </c>
-      <c r="G104" s="9"/>
+      <c r="G104" s="11"/>
       <c r="H104" s="7">
         <v>40833</v>
       </c>
@@ -5773,7 +5774,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="9"/>
+      <c r="A105" s="11"/>
       <c r="B105">
         <v>28600</v>
       </c>
@@ -5789,7 +5790,7 @@
       <c r="F105" t="s">
         <v>57</v>
       </c>
-      <c r="G105" s="9"/>
+      <c r="G105" s="11"/>
       <c r="H105" s="7">
         <v>18894</v>
       </c>
@@ -5814,7 +5815,7 @@
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
+      <c r="A106" s="11"/>
       <c r="B106">
         <v>33800</v>
       </c>
@@ -5830,7 +5831,7 @@
       <c r="F106" t="s">
         <v>58</v>
       </c>
-      <c r="G106" s="9"/>
+      <c r="G106" s="11"/>
       <c r="H106" s="7">
         <v>31994</v>
       </c>
@@ -5855,7 +5856,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
+      <c r="A107" s="11"/>
       <c r="B107">
         <v>39000</v>
       </c>
@@ -5871,7 +5872,7 @@
       <c r="F107" t="s">
         <v>59</v>
       </c>
-      <c r="G107" s="9"/>
+      <c r="G107" s="11"/>
       <c r="H107" s="7">
         <v>16287</v>
       </c>
@@ -5896,7 +5897,7 @@
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
+      <c r="A108" s="11"/>
       <c r="B108">
         <v>46800</v>
       </c>
@@ -5912,7 +5913,7 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" s="9"/>
+      <c r="G108" s="11"/>
       <c r="H108" s="7">
         <v>35970</v>
       </c>
@@ -5937,7 +5938,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
+      <c r="A109" s="11"/>
       <c r="B109">
         <v>57200</v>
       </c>
@@ -5953,7 +5954,7 @@
       <c r="F109" t="s">
         <v>60</v>
       </c>
-      <c r="G109" s="9"/>
+      <c r="G109" s="11"/>
       <c r="H109" s="7">
         <v>30754</v>
       </c>
@@ -5978,7 +5979,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
+      <c r="A110" s="11"/>
       <c r="B110">
         <v>70200</v>
       </c>
@@ -5994,7 +5995,7 @@
       <c r="F110" t="s">
         <v>61</v>
       </c>
-      <c r="G110" s="9"/>
+      <c r="G110" s="11"/>
       <c r="H110" s="7">
         <v>38196</v>
       </c>
@@ -6019,7 +6020,7 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="9"/>
+      <c r="A111" s="11"/>
       <c r="B111">
         <v>91000</v>
       </c>
@@ -6035,7 +6036,7 @@
       <c r="F111" t="s">
         <v>62</v>
       </c>
-      <c r="G111" s="9"/>
+      <c r="G111" s="11"/>
       <c r="H111" s="7">
         <v>48228</v>
       </c>
@@ -6060,7 +6061,7 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
+      <c r="A112" s="11"/>
       <c r="B112">
         <f>C112*52</f>
         <v>156000</v>
@@ -6078,7 +6079,7 @@
       <c r="F112" t="s">
         <v>63</v>
       </c>
-      <c r="G112" s="9"/>
+      <c r="G112" s="11"/>
       <c r="H112" s="7">
         <v>41200</v>
       </c>
@@ -6103,7 +6104,7 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="9"/>
+      <c r="A113" s="11"/>
       <c r="B113">
         <v>-52</v>
       </c>
@@ -6119,7 +6120,7 @@
       <c r="F113" t="s">
         <v>53</v>
       </c>
-      <c r="G113" s="9" t="s">
+      <c r="G113" s="11" t="s">
         <v>45</v>
       </c>
       <c r="H113" s="7">
@@ -6146,7 +6147,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="9"/>
+      <c r="A114" s="11"/>
       <c r="B114">
         <v>5200</v>
       </c>
@@ -6162,7 +6163,7 @@
       <c r="F114" t="s">
         <v>72</v>
       </c>
-      <c r="G114" s="9"/>
+      <c r="G114" s="11"/>
       <c r="H114" s="7">
         <v>2726</v>
       </c>
@@ -6187,7 +6188,7 @@
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
+      <c r="A115" s="11"/>
       <c r="B115">
         <v>13000</v>
       </c>
@@ -6203,7 +6204,7 @@
       <c r="F115" t="s">
         <v>55</v>
       </c>
-      <c r="G115" s="9"/>
+      <c r="G115" s="11"/>
       <c r="H115" s="7">
         <v>4341</v>
       </c>
@@ -6228,7 +6229,7 @@
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
+      <c r="A116" s="11"/>
       <c r="B116">
         <v>18200</v>
       </c>
@@ -6244,7 +6245,7 @@
       <c r="F116" t="s">
         <v>56</v>
       </c>
-      <c r="G116" s="9"/>
+      <c r="G116" s="11"/>
       <c r="H116" s="7">
         <v>70361</v>
       </c>
@@ -6269,7 +6270,7 @@
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
+      <c r="A117" s="11"/>
       <c r="B117">
         <v>26000</v>
       </c>
@@ -6285,7 +6286,7 @@
       <c r="F117" t="s">
         <v>71</v>
       </c>
-      <c r="G117" s="9"/>
+      <c r="G117" s="11"/>
       <c r="H117" s="7">
         <v>40833</v>
       </c>
@@ -6310,7 +6311,7 @@
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
+      <c r="A118" s="11"/>
       <c r="B118">
         <v>28600</v>
       </c>
@@ -6326,7 +6327,7 @@
       <c r="F118" t="s">
         <v>57</v>
       </c>
-      <c r="G118" s="9"/>
+      <c r="G118" s="11"/>
       <c r="H118" s="7">
         <v>18894</v>
       </c>
@@ -6351,7 +6352,7 @@
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
+      <c r="A119" s="11"/>
       <c r="B119">
         <v>33800</v>
       </c>
@@ -6367,7 +6368,7 @@
       <c r="F119" t="s">
         <v>58</v>
       </c>
-      <c r="G119" s="9"/>
+      <c r="G119" s="11"/>
       <c r="H119" s="7">
         <v>31994</v>
       </c>
@@ -6392,7 +6393,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
+      <c r="A120" s="11"/>
       <c r="B120">
         <v>39000</v>
       </c>
@@ -6408,7 +6409,7 @@
       <c r="F120" t="s">
         <v>59</v>
       </c>
-      <c r="G120" s="9"/>
+      <c r="G120" s="11"/>
       <c r="H120" s="7">
         <v>16287</v>
       </c>
@@ -6433,7 +6434,7 @@
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="9"/>
+      <c r="A121" s="11"/>
       <c r="B121">
         <v>46800</v>
       </c>
@@ -6449,7 +6450,7 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" s="9"/>
+      <c r="G121" s="11"/>
       <c r="H121" s="7">
         <v>35970</v>
       </c>
@@ -6474,7 +6475,7 @@
       </c>
     </row>
     <row r="122" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="9"/>
+      <c r="A122" s="11"/>
       <c r="B122">
         <v>57200</v>
       </c>
@@ -6490,7 +6491,7 @@
       <c r="F122" t="s">
         <v>60</v>
       </c>
-      <c r="G122" s="9"/>
+      <c r="G122" s="11"/>
       <c r="H122" s="7">
         <v>30754</v>
       </c>
@@ -6515,7 +6516,7 @@
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="9"/>
+      <c r="A123" s="11"/>
       <c r="B123">
         <v>70200</v>
       </c>
@@ -6531,7 +6532,7 @@
       <c r="F123" t="s">
         <v>61</v>
       </c>
-      <c r="G123" s="9"/>
+      <c r="G123" s="11"/>
       <c r="H123" s="7">
         <v>38196</v>
       </c>
@@ -6556,7 +6557,7 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="9"/>
+      <c r="A124" s="11"/>
       <c r="B124">
         <v>91000</v>
       </c>
@@ -6572,7 +6573,7 @@
       <c r="F124" t="s">
         <v>62</v>
       </c>
-      <c r="G124" s="9"/>
+      <c r="G124" s="11"/>
       <c r="H124" s="7">
         <v>48228</v>
       </c>
@@ -6597,7 +6598,7 @@
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="9"/>
+      <c r="A125" s="11"/>
       <c r="B125">
         <f>C125*52</f>
         <v>156000</v>
@@ -6615,7 +6616,7 @@
       <c r="F125" t="s">
         <v>63</v>
       </c>
-      <c r="G125" s="9"/>
+      <c r="G125" s="11"/>
       <c r="H125" s="7">
         <v>41200</v>
       </c>
@@ -6640,7 +6641,7 @@
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
+      <c r="A126" s="11"/>
       <c r="B126">
         <v>-52</v>
       </c>
@@ -6656,7 +6657,7 @@
       <c r="F126" t="s">
         <v>53</v>
       </c>
-      <c r="G126" s="9" t="s">
+      <c r="G126" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H126" s="7">
@@ -6683,7 +6684,7 @@
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
+      <c r="A127" s="11"/>
       <c r="B127">
         <v>5200</v>
       </c>
@@ -6699,7 +6700,7 @@
       <c r="F127" t="s">
         <v>72</v>
       </c>
-      <c r="G127" s="9"/>
+      <c r="G127" s="11"/>
       <c r="H127" s="7">
         <v>2726</v>
       </c>
@@ -6724,7 +6725,7 @@
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="9"/>
+      <c r="A128" s="11"/>
       <c r="B128">
         <v>13000</v>
       </c>
@@ -6740,7 +6741,7 @@
       <c r="F128" t="s">
         <v>55</v>
       </c>
-      <c r="G128" s="9"/>
+      <c r="G128" s="11"/>
       <c r="H128" s="7">
         <v>4341</v>
       </c>
@@ -6765,7 +6766,7 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="9"/>
+      <c r="A129" s="11"/>
       <c r="B129">
         <v>18200</v>
       </c>
@@ -6781,7 +6782,7 @@
       <c r="F129" t="s">
         <v>56</v>
       </c>
-      <c r="G129" s="9"/>
+      <c r="G129" s="11"/>
       <c r="H129" s="7">
         <v>70361</v>
       </c>
@@ -6806,7 +6807,7 @@
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="9"/>
+      <c r="A130" s="11"/>
       <c r="B130">
         <v>26000</v>
       </c>
@@ -6822,7 +6823,7 @@
       <c r="F130" t="s">
         <v>71</v>
       </c>
-      <c r="G130" s="9"/>
+      <c r="G130" s="11"/>
       <c r="H130" s="7">
         <v>40833</v>
       </c>
@@ -6847,7 +6848,7 @@
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="9"/>
+      <c r="A131" s="11"/>
       <c r="B131">
         <v>28600</v>
       </c>
@@ -6863,7 +6864,7 @@
       <c r="F131" t="s">
         <v>57</v>
       </c>
-      <c r="G131" s="9"/>
+      <c r="G131" s="11"/>
       <c r="H131" s="7">
         <v>18894</v>
       </c>
@@ -6888,7 +6889,7 @@
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="9"/>
+      <c r="A132" s="11"/>
       <c r="B132">
         <v>33800</v>
       </c>
@@ -6904,7 +6905,7 @@
       <c r="F132" t="s">
         <v>58</v>
       </c>
-      <c r="G132" s="9"/>
+      <c r="G132" s="11"/>
       <c r="H132" s="7">
         <v>31994</v>
       </c>
@@ -6929,7 +6930,7 @@
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="9"/>
+      <c r="A133" s="11"/>
       <c r="B133">
         <v>39000</v>
       </c>
@@ -6945,7 +6946,7 @@
       <c r="F133" t="s">
         <v>59</v>
       </c>
-      <c r="G133" s="9"/>
+      <c r="G133" s="11"/>
       <c r="H133" s="7">
         <v>16287</v>
       </c>
@@ -6970,7 +6971,7 @@
       </c>
     </row>
     <row r="134" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="9"/>
+      <c r="A134" s="11"/>
       <c r="B134">
         <v>46800</v>
       </c>
@@ -6986,7 +6987,7 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" s="9"/>
+      <c r="G134" s="11"/>
       <c r="H134" s="7">
         <v>35970</v>
       </c>
@@ -7011,7 +7012,7 @@
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="9"/>
+      <c r="A135" s="11"/>
       <c r="B135">
         <v>57200</v>
       </c>
@@ -7027,7 +7028,7 @@
       <c r="F135" t="s">
         <v>60</v>
       </c>
-      <c r="G135" s="9"/>
+      <c r="G135" s="11"/>
       <c r="H135" s="7">
         <v>30754</v>
       </c>
@@ -7052,7 +7053,7 @@
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="9"/>
+      <c r="A136" s="11"/>
       <c r="B136">
         <v>70200</v>
       </c>
@@ -7068,7 +7069,7 @@
       <c r="F136" t="s">
         <v>61</v>
       </c>
-      <c r="G136" s="9"/>
+      <c r="G136" s="11"/>
       <c r="H136" s="7">
         <v>38196</v>
       </c>
@@ -7093,7 +7094,7 @@
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="9"/>
+      <c r="A137" s="11"/>
       <c r="B137">
         <v>91000</v>
       </c>
@@ -7109,7 +7110,7 @@
       <c r="F137" t="s">
         <v>62</v>
       </c>
-      <c r="G137" s="9"/>
+      <c r="G137" s="11"/>
       <c r="H137" s="7">
         <v>48228</v>
       </c>
@@ -7134,7 +7135,7 @@
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
+      <c r="A138" s="11"/>
       <c r="B138">
         <f>C138*52</f>
         <v>156000</v>
@@ -7152,7 +7153,7 @@
       <c r="F138" t="s">
         <v>63</v>
       </c>
-      <c r="G138" s="9"/>
+      <c r="G138" s="11"/>
       <c r="H138" s="7">
         <v>41200</v>
       </c>
@@ -7177,7 +7178,7 @@
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="9"/>
+      <c r="A139" s="11"/>
       <c r="B139">
         <v>-52</v>
       </c>
@@ -7193,7 +7194,7 @@
       <c r="F139" t="s">
         <v>53</v>
       </c>
-      <c r="G139" s="9" t="s">
+      <c r="G139" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H139" s="7">
@@ -7220,7 +7221,7 @@
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
+      <c r="A140" s="11"/>
       <c r="B140">
         <v>5200</v>
       </c>
@@ -7236,7 +7237,7 @@
       <c r="F140" t="s">
         <v>72</v>
       </c>
-      <c r="G140" s="9"/>
+      <c r="G140" s="11"/>
       <c r="H140" s="7">
         <v>2726</v>
       </c>
@@ -7261,7 +7262,7 @@
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="9"/>
+      <c r="A141" s="11"/>
       <c r="B141">
         <v>13000</v>
       </c>
@@ -7277,7 +7278,7 @@
       <c r="F141" t="s">
         <v>55</v>
       </c>
-      <c r="G141" s="9"/>
+      <c r="G141" s="11"/>
       <c r="H141" s="7">
         <v>4341</v>
       </c>
@@ -7302,7 +7303,7 @@
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="9"/>
+      <c r="A142" s="11"/>
       <c r="B142">
         <v>18200</v>
       </c>
@@ -7318,7 +7319,7 @@
       <c r="F142" t="s">
         <v>56</v>
       </c>
-      <c r="G142" s="9"/>
+      <c r="G142" s="11"/>
       <c r="H142" s="7">
         <v>70361</v>
       </c>
@@ -7343,7 +7344,7 @@
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="9"/>
+      <c r="A143" s="11"/>
       <c r="B143">
         <v>26000</v>
       </c>
@@ -7359,7 +7360,7 @@
       <c r="F143" t="s">
         <v>71</v>
       </c>
-      <c r="G143" s="9"/>
+      <c r="G143" s="11"/>
       <c r="H143" s="7">
         <v>40833</v>
       </c>
@@ -7384,7 +7385,7 @@
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
+      <c r="A144" s="11"/>
       <c r="B144">
         <v>28600</v>
       </c>
@@ -7400,7 +7401,7 @@
       <c r="F144" t="s">
         <v>57</v>
       </c>
-      <c r="G144" s="9"/>
+      <c r="G144" s="11"/>
       <c r="H144" s="7">
         <v>18894</v>
       </c>
@@ -7425,7 +7426,7 @@
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="9"/>
+      <c r="A145" s="11"/>
       <c r="B145">
         <v>33800</v>
       </c>
@@ -7441,7 +7442,7 @@
       <c r="F145" t="s">
         <v>58</v>
       </c>
-      <c r="G145" s="9"/>
+      <c r="G145" s="11"/>
       <c r="H145" s="7">
         <v>31994</v>
       </c>
@@ -7466,7 +7467,7 @@
       </c>
     </row>
     <row r="146" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="9"/>
+      <c r="A146" s="11"/>
       <c r="B146">
         <v>39000</v>
       </c>
@@ -7482,7 +7483,7 @@
       <c r="F146" t="s">
         <v>59</v>
       </c>
-      <c r="G146" s="9"/>
+      <c r="G146" s="11"/>
       <c r="H146" s="7">
         <v>16287</v>
       </c>
@@ -7507,7 +7508,7 @@
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="9"/>
+      <c r="A147" s="11"/>
       <c r="B147">
         <v>46800</v>
       </c>
@@ -7523,7 +7524,7 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" s="9"/>
+      <c r="G147" s="11"/>
       <c r="H147" s="7">
         <v>35970</v>
       </c>
@@ -7548,7 +7549,7 @@
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="9"/>
+      <c r="A148" s="11"/>
       <c r="B148">
         <v>57200</v>
       </c>
@@ -7564,7 +7565,7 @@
       <c r="F148" t="s">
         <v>60</v>
       </c>
-      <c r="G148" s="9"/>
+      <c r="G148" s="11"/>
       <c r="H148" s="7">
         <v>30754</v>
       </c>
@@ -7589,7 +7590,7 @@
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="9"/>
+      <c r="A149" s="11"/>
       <c r="B149">
         <v>70200</v>
       </c>
@@ -7605,7 +7606,7 @@
       <c r="F149" t="s">
         <v>61</v>
       </c>
-      <c r="G149" s="9"/>
+      <c r="G149" s="11"/>
       <c r="H149" s="7">
         <v>38196</v>
       </c>
@@ -7630,7 +7631,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
+      <c r="A150" s="11"/>
       <c r="B150">
         <v>91000</v>
       </c>
@@ -7646,7 +7647,7 @@
       <c r="F150" t="s">
         <v>62</v>
       </c>
-      <c r="G150" s="9"/>
+      <c r="G150" s="11"/>
       <c r="H150" s="7">
         <v>48228</v>
       </c>
@@ -7671,7 +7672,7 @@
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="9"/>
+      <c r="A151" s="11"/>
       <c r="B151">
         <f>C151*52</f>
         <v>156000</v>
@@ -7689,7 +7690,7 @@
       <c r="F151" t="s">
         <v>63</v>
       </c>
-      <c r="G151" s="9"/>
+      <c r="G151" s="11"/>
       <c r="H151" s="7">
         <v>41200</v>
       </c>
@@ -7714,7 +7715,7 @@
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="9"/>
+      <c r="A152" s="11"/>
       <c r="B152">
         <v>-52</v>
       </c>
@@ -7730,7 +7731,7 @@
       <c r="F152" t="s">
         <v>53</v>
       </c>
-      <c r="G152" s="9" t="s">
+      <c r="G152" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H152" s="7">
@@ -7757,7 +7758,7 @@
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="9"/>
+      <c r="A153" s="11"/>
       <c r="B153">
         <v>5200</v>
       </c>
@@ -7773,7 +7774,7 @@
       <c r="F153" t="s">
         <v>72</v>
       </c>
-      <c r="G153" s="9"/>
+      <c r="G153" s="11"/>
       <c r="H153" s="7">
         <v>2726</v>
       </c>
@@ -7798,7 +7799,7 @@
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="9"/>
+      <c r="A154" s="11"/>
       <c r="B154">
         <v>13000</v>
       </c>
@@ -7814,7 +7815,7 @@
       <c r="F154" t="s">
         <v>55</v>
       </c>
-      <c r="G154" s="9"/>
+      <c r="G154" s="11"/>
       <c r="H154" s="7">
         <v>4341</v>
       </c>
@@ -7839,7 +7840,7 @@
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="9"/>
+      <c r="A155" s="11"/>
       <c r="B155">
         <v>18200</v>
       </c>
@@ -7855,7 +7856,7 @@
       <c r="F155" t="s">
         <v>56</v>
       </c>
-      <c r="G155" s="9"/>
+      <c r="G155" s="11"/>
       <c r="H155" s="7">
         <v>70361</v>
       </c>
@@ -7880,7 +7881,7 @@
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="9"/>
+      <c r="A156" s="11"/>
       <c r="B156">
         <v>26000</v>
       </c>
@@ -7896,7 +7897,7 @@
       <c r="F156" t="s">
         <v>71</v>
       </c>
-      <c r="G156" s="9"/>
+      <c r="G156" s="11"/>
       <c r="H156" s="7">
         <v>40833</v>
       </c>
@@ -7921,7 +7922,7 @@
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="9"/>
+      <c r="A157" s="11"/>
       <c r="B157">
         <v>28600</v>
       </c>
@@ -7937,7 +7938,7 @@
       <c r="F157" t="s">
         <v>57</v>
       </c>
-      <c r="G157" s="9"/>
+      <c r="G157" s="11"/>
       <c r="H157" s="7">
         <v>18894</v>
       </c>
@@ -7962,7 +7963,7 @@
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
+      <c r="A158" s="11"/>
       <c r="B158">
         <v>33800</v>
       </c>
@@ -7978,7 +7979,7 @@
       <c r="F158" t="s">
         <v>58</v>
       </c>
-      <c r="G158" s="9"/>
+      <c r="G158" s="11"/>
       <c r="H158" s="7">
         <v>31994</v>
       </c>
@@ -8003,7 +8004,7 @@
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="9"/>
+      <c r="A159" s="11"/>
       <c r="B159">
         <v>39000</v>
       </c>
@@ -8019,7 +8020,7 @@
       <c r="F159" t="s">
         <v>59</v>
       </c>
-      <c r="G159" s="9"/>
+      <c r="G159" s="11"/>
       <c r="H159" s="7">
         <v>16287</v>
       </c>
@@ -8044,7 +8045,7 @@
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="9"/>
+      <c r="A160" s="11"/>
       <c r="B160">
         <v>46800</v>
       </c>
@@ -8060,7 +8061,7 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" s="9"/>
+      <c r="G160" s="11"/>
       <c r="H160" s="7">
         <v>35970</v>
       </c>
@@ -8085,7 +8086,7 @@
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="9"/>
+      <c r="A161" s="11"/>
       <c r="B161">
         <v>57200</v>
       </c>
@@ -8101,7 +8102,7 @@
       <c r="F161" t="s">
         <v>60</v>
       </c>
-      <c r="G161" s="9"/>
+      <c r="G161" s="11"/>
       <c r="H161" s="7">
         <v>30754</v>
       </c>
@@ -8126,7 +8127,7 @@
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="9"/>
+      <c r="A162" s="11"/>
       <c r="B162">
         <v>70200</v>
       </c>
@@ -8142,7 +8143,7 @@
       <c r="F162" t="s">
         <v>61</v>
       </c>
-      <c r="G162" s="9"/>
+      <c r="G162" s="11"/>
       <c r="H162" s="7">
         <v>38196</v>
       </c>
@@ -8167,7 +8168,7 @@
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="9"/>
+      <c r="A163" s="11"/>
       <c r="B163">
         <v>91000</v>
       </c>
@@ -8183,7 +8184,7 @@
       <c r="F163" t="s">
         <v>62</v>
       </c>
-      <c r="G163" s="9"/>
+      <c r="G163" s="11"/>
       <c r="H163" s="7">
         <v>48228</v>
       </c>
@@ -8208,7 +8209,7 @@
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="9"/>
+      <c r="A164" s="11"/>
       <c r="B164">
         <f>C164*52</f>
         <v>156000</v>
@@ -8226,7 +8227,7 @@
       <c r="F164" t="s">
         <v>63</v>
       </c>
-      <c r="G164" s="9"/>
+      <c r="G164" s="11"/>
       <c r="H164" s="7">
         <v>41200</v>
       </c>
@@ -8251,7 +8252,7 @@
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="9"/>
+      <c r="A165" s="11"/>
       <c r="B165">
         <v>-52</v>
       </c>
@@ -8267,7 +8268,7 @@
       <c r="F165" t="s">
         <v>53</v>
       </c>
-      <c r="G165" s="9" t="s">
+      <c r="G165" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H165" s="7">
@@ -8294,7 +8295,7 @@
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" s="9"/>
+      <c r="A166" s="11"/>
       <c r="B166">
         <v>5200</v>
       </c>
@@ -8310,7 +8311,7 @@
       <c r="F166" t="s">
         <v>72</v>
       </c>
-      <c r="G166" s="9"/>
+      <c r="G166" s="11"/>
       <c r="H166" s="7">
         <v>2726</v>
       </c>
@@ -8335,7 +8336,7 @@
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167" s="9"/>
+      <c r="A167" s="11"/>
       <c r="B167">
         <v>13000</v>
       </c>
@@ -8351,7 +8352,7 @@
       <c r="F167" t="s">
         <v>55</v>
       </c>
-      <c r="G167" s="9"/>
+      <c r="G167" s="11"/>
       <c r="H167" s="7">
         <v>4341</v>
       </c>
@@ -8376,7 +8377,7 @@
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168" s="9"/>
+      <c r="A168" s="11"/>
       <c r="B168">
         <v>18200</v>
       </c>
@@ -8392,7 +8393,7 @@
       <c r="F168" t="s">
         <v>56</v>
       </c>
-      <c r="G168" s="9"/>
+      <c r="G168" s="11"/>
       <c r="H168" s="7">
         <v>70361</v>
       </c>
@@ -8417,7 +8418,7 @@
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169" s="9"/>
+      <c r="A169" s="11"/>
       <c r="B169">
         <v>26000</v>
       </c>
@@ -8433,7 +8434,7 @@
       <c r="F169" t="s">
         <v>71</v>
       </c>
-      <c r="G169" s="9"/>
+      <c r="G169" s="11"/>
       <c r="H169" s="7">
         <v>40833</v>
       </c>
@@ -8458,7 +8459,7 @@
       </c>
     </row>
     <row r="170" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="9"/>
+      <c r="A170" s="11"/>
       <c r="B170">
         <v>28600</v>
       </c>
@@ -8474,7 +8475,7 @@
       <c r="F170" t="s">
         <v>57</v>
       </c>
-      <c r="G170" s="9"/>
+      <c r="G170" s="11"/>
       <c r="H170" s="7">
         <v>18894</v>
       </c>
@@ -8499,7 +8500,7 @@
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="9"/>
+      <c r="A171" s="11"/>
       <c r="B171">
         <v>33800</v>
       </c>
@@ -8515,7 +8516,7 @@
       <c r="F171" t="s">
         <v>58</v>
       </c>
-      <c r="G171" s="9"/>
+      <c r="G171" s="11"/>
       <c r="H171" s="7">
         <v>31994</v>
       </c>
@@ -8540,7 +8541,7 @@
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" s="9"/>
+      <c r="A172" s="11"/>
       <c r="B172">
         <v>39000</v>
       </c>
@@ -8556,7 +8557,7 @@
       <c r="F172" t="s">
         <v>59</v>
       </c>
-      <c r="G172" s="9"/>
+      <c r="G172" s="11"/>
       <c r="H172" s="7">
         <v>16287</v>
       </c>
@@ -8581,7 +8582,7 @@
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173" s="9"/>
+      <c r="A173" s="11"/>
       <c r="B173">
         <v>46800</v>
       </c>
@@ -8597,7 +8598,7 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" s="9"/>
+      <c r="G173" s="11"/>
       <c r="H173" s="7">
         <v>35970</v>
       </c>
@@ -8622,7 +8623,7 @@
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174" s="9"/>
+      <c r="A174" s="11"/>
       <c r="B174">
         <v>57200</v>
       </c>
@@ -8638,7 +8639,7 @@
       <c r="F174" t="s">
         <v>60</v>
       </c>
-      <c r="G174" s="9"/>
+      <c r="G174" s="11"/>
       <c r="H174" s="7">
         <v>30754</v>
       </c>
@@ -8663,7 +8664,7 @@
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="9"/>
+      <c r="A175" s="11"/>
       <c r="B175">
         <v>70200</v>
       </c>
@@ -8679,7 +8680,7 @@
       <c r="F175" t="s">
         <v>61</v>
       </c>
-      <c r="G175" s="9"/>
+      <c r="G175" s="11"/>
       <c r="H175" s="7">
         <v>38196</v>
       </c>
@@ -8704,7 +8705,7 @@
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" s="9"/>
+      <c r="A176" s="11"/>
       <c r="B176">
         <v>91000</v>
       </c>
@@ -8720,7 +8721,7 @@
       <c r="F176" t="s">
         <v>62</v>
       </c>
-      <c r="G176" s="9"/>
+      <c r="G176" s="11"/>
       <c r="H176" s="7">
         <v>48228</v>
       </c>
@@ -8745,7 +8746,7 @@
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177" s="9"/>
+      <c r="A177" s="11"/>
       <c r="B177">
         <f>C177*52</f>
         <v>156000</v>
@@ -8763,7 +8764,7 @@
       <c r="F177" t="s">
         <v>63</v>
       </c>
-      <c r="G177" s="9"/>
+      <c r="G177" s="11"/>
       <c r="H177" s="7">
         <v>41200</v>
       </c>
@@ -8788,7 +8789,7 @@
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178" s="9">
+      <c r="A178" s="11">
         <v>2006</v>
       </c>
       <c r="B178" s="2">
@@ -8808,7 +8809,7 @@
       <c r="F178">
         <v>-100</v>
       </c>
-      <c r="G178" s="9" t="s">
+      <c r="G178" s="11" t="s">
         <v>42</v>
       </c>
       <c r="H178">
@@ -8835,7 +8836,7 @@
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A179" s="9"/>
+      <c r="A179" s="11"/>
       <c r="B179" s="2">
         <f t="shared" ref="B179:B230" si="11">C179*52</f>
         <v>0</v>
@@ -8853,7 +8854,7 @@
       <c r="F179">
         <v>0</v>
       </c>
-      <c r="G179" s="9"/>
+      <c r="G179" s="11"/>
       <c r="H179">
         <v>2554</v>
       </c>
@@ -8878,7 +8879,7 @@
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A180" s="9"/>
+      <c r="A180" s="11"/>
       <c r="B180" s="2">
         <f t="shared" si="11"/>
         <v>3900</v>
@@ -8896,7 +8897,7 @@
       <c r="F180" t="s">
         <v>6</v>
       </c>
-      <c r="G180" s="9"/>
+      <c r="G180" s="11"/>
       <c r="H180">
         <v>7741</v>
       </c>
@@ -8921,7 +8922,7 @@
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A181" s="9"/>
+      <c r="A181" s="11"/>
       <c r="B181" s="2">
         <f t="shared" si="11"/>
         <v>10374</v>
@@ -8939,7 +8940,7 @@
       <c r="F181" t="s">
         <v>7</v>
       </c>
-      <c r="G181" s="9"/>
+      <c r="G181" s="11"/>
       <c r="H181">
         <v>3829</v>
       </c>
@@ -8964,7 +8965,7 @@
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A182" s="9"/>
+      <c r="A182" s="11"/>
       <c r="B182" s="2">
         <f t="shared" si="11"/>
         <v>16874</v>
@@ -8982,7 +8983,7 @@
       <c r="F182" t="s">
         <v>8</v>
       </c>
-      <c r="G182" s="9"/>
+      <c r="G182" s="11"/>
       <c r="H182">
         <v>77740</v>
       </c>
@@ -9007,7 +9008,7 @@
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A183" s="9"/>
+      <c r="A183" s="11"/>
       <c r="B183" s="2">
         <f t="shared" si="11"/>
         <v>25974</v>
@@ -9025,7 +9026,7 @@
       <c r="F183" t="s">
         <v>9</v>
       </c>
-      <c r="G183" s="9"/>
+      <c r="G183" s="11"/>
       <c r="H183">
         <v>62030</v>
       </c>
@@ -9050,7 +9051,7 @@
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A184" s="9"/>
+      <c r="A184" s="11"/>
       <c r="B184" s="2">
         <f t="shared" si="11"/>
         <v>36374</v>
@@ -9068,7 +9069,7 @@
       <c r="F184" t="s">
         <v>10</v>
       </c>
-      <c r="G184" s="9"/>
+      <c r="G184" s="11"/>
       <c r="H184">
         <v>54008</v>
       </c>
@@ -9093,7 +9094,7 @@
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A185" s="9"/>
+      <c r="A185" s="11"/>
       <c r="B185" s="2">
         <f t="shared" si="11"/>
         <v>46774</v>
@@ -9111,7 +9112,7 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" s="9"/>
+      <c r="G185" s="11"/>
       <c r="H185">
         <v>34193</v>
       </c>
@@ -9136,7 +9137,7 @@
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A186" s="9"/>
+      <c r="A186" s="11"/>
       <c r="B186" s="2">
         <f t="shared" si="11"/>
         <v>59774</v>
@@ -9154,7 +9155,7 @@
       <c r="F186" t="s">
         <v>12</v>
       </c>
-      <c r="G186" s="9"/>
+      <c r="G186" s="11"/>
       <c r="H186">
         <v>40023</v>
       </c>
@@ -9179,7 +9180,7 @@
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A187" s="9"/>
+      <c r="A187" s="11"/>
       <c r="B187" s="2">
         <f t="shared" si="11"/>
         <v>75374</v>
@@ -9197,7 +9198,7 @@
       <c r="F187" t="s">
         <v>13</v>
       </c>
-      <c r="G187" s="9"/>
+      <c r="G187" s="11"/>
       <c r="H187">
         <v>25038</v>
       </c>
@@ -9222,7 +9223,7 @@
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A188" s="9"/>
+      <c r="A188" s="11"/>
       <c r="B188" s="2">
         <f t="shared" si="11"/>
         <v>93574</v>
@@ -9240,7 +9241,7 @@
       <c r="F188" t="s">
         <v>14</v>
       </c>
-      <c r="G188" s="9"/>
+      <c r="G188" s="11"/>
       <c r="H188">
         <v>16846</v>
       </c>
@@ -9265,7 +9266,7 @@
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A189" s="9"/>
+      <c r="A189" s="11"/>
       <c r="B189" s="2">
         <f t="shared" si="11"/>
         <v>156000</v>
@@ -9283,7 +9284,7 @@
       <c r="F189" t="s">
         <v>15</v>
       </c>
-      <c r="G189" s="9"/>
+      <c r="G189" s="11"/>
       <c r="H189">
         <v>15985</v>
       </c>
@@ -9308,7 +9309,7 @@
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A190" s="9"/>
+      <c r="A190" s="11"/>
       <c r="B190" s="2">
         <f t="shared" si="11"/>
         <v>-5200</v>
@@ -9326,7 +9327,7 @@
       <c r="F190">
         <v>-100</v>
       </c>
-      <c r="G190" s="9" t="s">
+      <c r="G190" s="11" t="s">
         <v>43</v>
       </c>
       <c r="H190">
@@ -9355,7 +9356,7 @@
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A191" s="9"/>
+      <c r="A191" s="11"/>
       <c r="B191" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -9373,7 +9374,7 @@
       <c r="F191">
         <v>0</v>
       </c>
-      <c r="G191" s="9"/>
+      <c r="G191" s="11"/>
       <c r="H191">
         <v>404</v>
       </c>
@@ -9400,7 +9401,7 @@
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A192" s="9"/>
+      <c r="A192" s="11"/>
       <c r="B192" s="2">
         <f t="shared" si="11"/>
         <v>3900</v>
@@ -9418,7 +9419,7 @@
       <c r="F192" t="s">
         <v>6</v>
       </c>
-      <c r="G192" s="9"/>
+      <c r="G192" s="11"/>
       <c r="H192">
         <v>399</v>
       </c>
@@ -9445,7 +9446,7 @@
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A193" s="9"/>
+      <c r="A193" s="11"/>
       <c r="B193" s="2">
         <f t="shared" si="11"/>
         <v>10374</v>
@@ -9463,7 +9464,7 @@
       <c r="F193" t="s">
         <v>7</v>
       </c>
-      <c r="G193" s="9"/>
+      <c r="G193" s="11"/>
       <c r="H193">
         <v>315</v>
       </c>
@@ -9490,7 +9491,7 @@
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A194" s="9"/>
+      <c r="A194" s="11"/>
       <c r="B194" s="2">
         <f t="shared" si="11"/>
         <v>16874</v>
@@ -9508,7 +9509,7 @@
       <c r="F194" t="s">
         <v>8</v>
       </c>
-      <c r="G194" s="9"/>
+      <c r="G194" s="11"/>
       <c r="H194">
         <v>5700</v>
       </c>
@@ -9535,7 +9536,7 @@
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A195" s="9"/>
+      <c r="A195" s="11"/>
       <c r="B195" s="2">
         <f t="shared" si="11"/>
         <v>25974</v>
@@ -9553,7 +9554,7 @@
       <c r="F195" t="s">
         <v>9</v>
       </c>
-      <c r="G195" s="9"/>
+      <c r="G195" s="11"/>
       <c r="H195">
         <v>5030</v>
       </c>
@@ -9580,7 +9581,7 @@
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A196" s="9"/>
+      <c r="A196" s="11"/>
       <c r="B196" s="2">
         <f t="shared" si="11"/>
         <v>36374</v>
@@ -9598,7 +9599,7 @@
       <c r="F196" t="s">
         <v>10</v>
       </c>
-      <c r="G196" s="9"/>
+      <c r="G196" s="11"/>
       <c r="H196">
         <v>4887</v>
       </c>
@@ -9625,7 +9626,7 @@
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A197" s="9"/>
+      <c r="A197" s="11"/>
       <c r="B197" s="2">
         <f t="shared" si="11"/>
         <v>46774</v>
@@ -9643,7 +9644,7 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" s="9"/>
+      <c r="G197" s="11"/>
       <c r="H197">
         <v>3577</v>
       </c>
@@ -9670,7 +9671,7 @@
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A198" s="9"/>
+      <c r="A198" s="11"/>
       <c r="B198" s="2">
         <f t="shared" si="11"/>
         <v>59774</v>
@@ -9688,7 +9689,7 @@
       <c r="F198" t="s">
         <v>12</v>
       </c>
-      <c r="G198" s="9"/>
+      <c r="G198" s="11"/>
       <c r="H198">
         <v>4932</v>
       </c>
@@ -9715,7 +9716,7 @@
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A199" s="9"/>
+      <c r="A199" s="11"/>
       <c r="B199" s="2">
         <f t="shared" si="11"/>
         <v>75374</v>
@@ -9733,7 +9734,7 @@
       <c r="F199" t="s">
         <v>13</v>
       </c>
-      <c r="G199" s="9"/>
+      <c r="G199" s="11"/>
       <c r="H199">
         <v>4139</v>
       </c>
@@ -9760,7 +9761,7 @@
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A200" s="9"/>
+      <c r="A200" s="11"/>
       <c r="B200" s="2">
         <f t="shared" si="11"/>
         <v>93574</v>
@@ -9778,7 +9779,7 @@
       <c r="F200" t="s">
         <v>14</v>
       </c>
-      <c r="G200" s="9"/>
+      <c r="G200" s="11"/>
       <c r="H200">
         <v>3538</v>
       </c>
@@ -9805,7 +9806,7 @@
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A201" s="9"/>
+      <c r="A201" s="11"/>
       <c r="B201" s="2">
         <f t="shared" si="11"/>
         <v>156000</v>
@@ -9823,7 +9824,7 @@
       <c r="F201" t="s">
         <v>15</v>
       </c>
-      <c r="G201" s="9"/>
+      <c r="G201" s="11"/>
       <c r="H201">
         <v>4555</v>
       </c>
@@ -9850,7 +9851,7 @@
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A202" s="9"/>
+      <c r="A202" s="11"/>
       <c r="B202" s="2">
         <f t="shared" si="11"/>
         <v>-5200</v>
@@ -9868,7 +9869,7 @@
       <c r="F202">
         <v>-100</v>
       </c>
-      <c r="G202" s="9" t="s">
+      <c r="G202" s="11" t="s">
         <v>44</v>
       </c>
       <c r="H202">
@@ -9897,7 +9898,7 @@
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A203" s="9"/>
+      <c r="A203" s="11"/>
       <c r="B203" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -9915,7 +9916,7 @@
       <c r="F203">
         <v>0</v>
       </c>
-      <c r="G203" s="9"/>
+      <c r="G203" s="11"/>
       <c r="H203">
         <v>443</v>
       </c>
@@ -9942,7 +9943,7 @@
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A204" s="9"/>
+      <c r="A204" s="11"/>
       <c r="B204" s="2">
         <f t="shared" si="11"/>
         <v>3900</v>
@@ -9960,7 +9961,7 @@
       <c r="F204" t="s">
         <v>6</v>
       </c>
-      <c r="G204" s="9"/>
+      <c r="G204" s="11"/>
       <c r="H204">
         <v>821</v>
       </c>
@@ -9987,7 +9988,7 @@
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A205" s="9"/>
+      <c r="A205" s="11"/>
       <c r="B205" s="2">
         <f t="shared" si="11"/>
         <v>10374</v>
@@ -10005,7 +10006,7 @@
       <c r="F205" t="s">
         <v>7</v>
       </c>
-      <c r="G205" s="9"/>
+      <c r="G205" s="11"/>
       <c r="H205">
         <v>452</v>
       </c>
@@ -10032,7 +10033,7 @@
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A206" s="9"/>
+      <c r="A206" s="11"/>
       <c r="B206" s="2">
         <f t="shared" si="11"/>
         <v>16874</v>
@@ -10050,7 +10051,7 @@
       <c r="F206" t="s">
         <v>8</v>
       </c>
-      <c r="G206" s="9"/>
+      <c r="G206" s="11"/>
       <c r="H206">
         <v>5990</v>
       </c>
@@ -10077,7 +10078,7 @@
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A207" s="9"/>
+      <c r="A207" s="11"/>
       <c r="B207" s="2">
         <f t="shared" si="11"/>
         <v>25974</v>
@@ -10095,7 +10096,7 @@
       <c r="F207" t="s">
         <v>9</v>
       </c>
-      <c r="G207" s="9"/>
+      <c r="G207" s="11"/>
       <c r="H207">
         <v>5115</v>
       </c>
@@ -10122,7 +10123,7 @@
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A208" s="9"/>
+      <c r="A208" s="11"/>
       <c r="B208" s="2">
         <f t="shared" si="11"/>
         <v>36374</v>
@@ -10140,7 +10141,7 @@
       <c r="F208" t="s">
         <v>10</v>
       </c>
-      <c r="G208" s="9"/>
+      <c r="G208" s="11"/>
       <c r="H208">
         <v>4889</v>
       </c>
@@ -10167,7 +10168,7 @@
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A209" s="9"/>
+      <c r="A209" s="11"/>
       <c r="B209" s="2">
         <f t="shared" si="11"/>
         <v>46774</v>
@@ -10185,7 +10186,7 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" s="9"/>
+      <c r="G209" s="11"/>
       <c r="H209">
         <v>3317</v>
       </c>
@@ -10212,7 +10213,7 @@
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A210" s="9"/>
+      <c r="A210" s="11"/>
       <c r="B210" s="2">
         <f t="shared" si="11"/>
         <v>59774</v>
@@ -10230,7 +10231,7 @@
       <c r="F210" t="s">
         <v>12</v>
       </c>
-      <c r="G210" s="9"/>
+      <c r="G210" s="11"/>
       <c r="H210">
         <v>4708</v>
       </c>
@@ -10257,7 +10258,7 @@
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A211" s="9"/>
+      <c r="A211" s="11"/>
       <c r="B211" s="2">
         <f t="shared" si="11"/>
         <v>75374</v>
@@ -10275,7 +10276,7 @@
       <c r="F211" t="s">
         <v>13</v>
       </c>
-      <c r="G211" s="9"/>
+      <c r="G211" s="11"/>
       <c r="H211">
         <v>3390</v>
       </c>
@@ -10302,7 +10303,7 @@
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A212" s="9"/>
+      <c r="A212" s="11"/>
       <c r="B212" s="2">
         <f t="shared" si="11"/>
         <v>93574</v>
@@ -10320,7 +10321,7 @@
       <c r="F212" t="s">
         <v>14</v>
       </c>
-      <c r="G212" s="9"/>
+      <c r="G212" s="11"/>
       <c r="H212">
         <v>2233</v>
       </c>
@@ -10347,7 +10348,7 @@
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A213" s="9"/>
+      <c r="A213" s="11"/>
       <c r="B213" s="2">
         <f t="shared" si="11"/>
         <v>156000</v>
@@ -10365,7 +10366,7 @@
       <c r="F213" t="s">
         <v>15</v>
       </c>
-      <c r="G213" s="9"/>
+      <c r="G213" s="11"/>
       <c r="H213">
         <v>2170</v>
       </c>
@@ -10392,7 +10393,7 @@
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A214" s="9"/>
+      <c r="A214" s="11"/>
       <c r="B214" s="2">
         <f t="shared" si="11"/>
         <v>-5200</v>
@@ -10410,7 +10411,7 @@
       <c r="F214">
         <v>-100</v>
       </c>
-      <c r="G214" s="9" t="s">
+      <c r="G214" s="11" t="s">
         <v>45</v>
       </c>
       <c r="H214">
@@ -10437,7 +10438,7 @@
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A215" s="9"/>
+      <c r="A215" s="11"/>
       <c r="B215" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -10455,7 +10456,7 @@
       <c r="F215">
         <v>0</v>
       </c>
-      <c r="G215" s="9"/>
+      <c r="G215" s="11"/>
       <c r="H215">
         <v>198</v>
       </c>
@@ -10480,7 +10481,7 @@
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A216" s="9"/>
+      <c r="A216" s="11"/>
       <c r="B216" s="2">
         <f t="shared" si="11"/>
         <v>3900</v>
@@ -10498,7 +10499,7 @@
       <c r="F216" t="s">
         <v>6</v>
       </c>
-      <c r="G216" s="9"/>
+      <c r="G216" s="11"/>
       <c r="H216">
         <v>176</v>
       </c>
@@ -10523,7 +10524,7 @@
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A217" s="9"/>
+      <c r="A217" s="11"/>
       <c r="B217" s="2">
         <f t="shared" si="11"/>
         <v>10374</v>
@@ -10541,7 +10542,7 @@
       <c r="F217" t="s">
         <v>7</v>
       </c>
-      <c r="G217" s="9"/>
+      <c r="G217" s="11"/>
       <c r="H217">
         <v>100</v>
       </c>
@@ -10566,7 +10567,7 @@
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A218" s="9"/>
+      <c r="A218" s="11"/>
       <c r="B218" s="2">
         <f t="shared" si="11"/>
         <v>16874</v>
@@ -10584,7 +10585,7 @@
       <c r="F218" t="s">
         <v>8</v>
       </c>
-      <c r="G218" s="9"/>
+      <c r="G218" s="11"/>
       <c r="H218">
         <v>652</v>
       </c>
@@ -10609,7 +10610,7 @@
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A219" s="9"/>
+      <c r="A219" s="11"/>
       <c r="B219" s="2">
         <f t="shared" si="11"/>
         <v>25974</v>
@@ -10627,7 +10628,7 @@
       <c r="F219" t="s">
         <v>9</v>
       </c>
-      <c r="G219" s="9"/>
+      <c r="G219" s="11"/>
       <c r="H219">
         <v>574</v>
       </c>
@@ -10652,7 +10653,7 @@
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A220" s="9"/>
+      <c r="A220" s="11"/>
       <c r="B220" s="2">
         <f t="shared" si="11"/>
         <v>36374</v>
@@ -10670,7 +10671,7 @@
       <c r="F220" t="s">
         <v>10</v>
       </c>
-      <c r="G220" s="9"/>
+      <c r="G220" s="11"/>
       <c r="H220">
         <v>693</v>
       </c>
@@ -10695,7 +10696,7 @@
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A221" s="9"/>
+      <c r="A221" s="11"/>
       <c r="B221" s="2">
         <f t="shared" si="11"/>
         <v>46774</v>
@@ -10713,7 +10714,7 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" s="9"/>
+      <c r="G221" s="11"/>
       <c r="H221">
         <v>667</v>
       </c>
@@ -10738,7 +10739,7 @@
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A222" s="9"/>
+      <c r="A222" s="11"/>
       <c r="B222" s="2">
         <f t="shared" si="11"/>
         <v>59774</v>
@@ -10756,7 +10757,7 @@
       <c r="F222" t="s">
         <v>12</v>
       </c>
-      <c r="G222" s="9"/>
+      <c r="G222" s="11"/>
       <c r="H222">
         <v>1054</v>
       </c>
@@ -10781,7 +10782,7 @@
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A223" s="9"/>
+      <c r="A223" s="11"/>
       <c r="B223" s="2">
         <f t="shared" si="11"/>
         <v>75374</v>
@@ -10799,7 +10800,7 @@
       <c r="F223" t="s">
         <v>13</v>
       </c>
-      <c r="G223" s="9"/>
+      <c r="G223" s="11"/>
       <c r="H223">
         <v>1060</v>
       </c>
@@ -10824,7 +10825,7 @@
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A224" s="9"/>
+      <c r="A224" s="11"/>
       <c r="B224" s="2">
         <f t="shared" si="11"/>
         <v>93574</v>
@@ -10842,7 +10843,7 @@
       <c r="F224" t="s">
         <v>14</v>
       </c>
-      <c r="G224" s="9"/>
+      <c r="G224" s="11"/>
       <c r="H224">
         <v>1099</v>
       </c>
@@ -10867,7 +10868,7 @@
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A225" s="9"/>
+      <c r="A225" s="11"/>
       <c r="B225" s="2">
         <f t="shared" si="11"/>
         <v>156000</v>
@@ -10885,7 +10886,7 @@
       <c r="F225" t="s">
         <v>15</v>
       </c>
-      <c r="G225" s="9"/>
+      <c r="G225" s="11"/>
       <c r="H225">
         <v>1679</v>
       </c>
@@ -10910,7 +10911,7 @@
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A226" s="9"/>
+      <c r="A226" s="11"/>
       <c r="B226" s="2">
         <f t="shared" si="11"/>
         <v>-5200</v>
@@ -10928,7 +10929,7 @@
       <c r="F226">
         <v>-100</v>
       </c>
-      <c r="G226" s="9" t="s">
+      <c r="G226" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H226">
@@ -10955,7 +10956,7 @@
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A227" s="9"/>
+      <c r="A227" s="11"/>
       <c r="B227" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -10973,7 +10974,7 @@
       <c r="F227">
         <v>0</v>
       </c>
-      <c r="G227" s="9"/>
+      <c r="G227" s="11"/>
       <c r="H227">
         <v>10</v>
       </c>
@@ -10998,7 +10999,7 @@
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A228" s="9"/>
+      <c r="A228" s="11"/>
       <c r="B228" s="2">
         <f t="shared" si="11"/>
         <v>3900</v>
@@ -11016,7 +11017,7 @@
       <c r="F228" t="s">
         <v>6</v>
       </c>
-      <c r="G228" s="9"/>
+      <c r="G228" s="11"/>
       <c r="H228">
         <v>51</v>
       </c>
@@ -11041,7 +11042,7 @@
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A229" s="9"/>
+      <c r="A229" s="11"/>
       <c r="B229" s="2">
         <f t="shared" si="11"/>
         <v>10374</v>
@@ -11059,7 +11060,7 @@
       <c r="F229" t="s">
         <v>7</v>
       </c>
-      <c r="G229" s="9"/>
+      <c r="G229" s="11"/>
       <c r="H229">
         <v>31</v>
       </c>
@@ -11084,7 +11085,7 @@
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A230" s="9"/>
+      <c r="A230" s="11"/>
       <c r="B230" s="2">
         <f t="shared" si="11"/>
         <v>16874</v>
@@ -11102,7 +11103,7 @@
       <c r="F230" t="s">
         <v>8</v>
       </c>
-      <c r="G230" s="9"/>
+      <c r="G230" s="11"/>
       <c r="H230">
         <v>484</v>
       </c>
@@ -11127,7 +11128,7 @@
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A231" s="9"/>
+      <c r="A231" s="11"/>
       <c r="B231" s="2">
         <f t="shared" ref="B231:B282" si="18">C231*52</f>
         <v>25974</v>
@@ -11145,7 +11146,7 @@
       <c r="F231" t="s">
         <v>9</v>
       </c>
-      <c r="G231" s="9"/>
+      <c r="G231" s="11"/>
       <c r="H231">
         <v>269</v>
       </c>
@@ -11170,7 +11171,7 @@
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A232" s="9"/>
+      <c r="A232" s="11"/>
       <c r="B232" s="2">
         <f t="shared" si="18"/>
         <v>36374</v>
@@ -11188,7 +11189,7 @@
       <c r="F232" t="s">
         <v>10</v>
       </c>
-      <c r="G232" s="9"/>
+      <c r="G232" s="11"/>
       <c r="H232">
         <v>186</v>
       </c>
@@ -11213,7 +11214,7 @@
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A233" s="9"/>
+      <c r="A233" s="11"/>
       <c r="B233" s="2">
         <f t="shared" si="18"/>
         <v>46774</v>
@@ -11231,7 +11232,7 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" s="9"/>
+      <c r="G233" s="11"/>
       <c r="H233">
         <v>69</v>
       </c>
@@ -11256,7 +11257,7 @@
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A234" s="9"/>
+      <c r="A234" s="11"/>
       <c r="B234" s="2">
         <f t="shared" si="18"/>
         <v>59774</v>
@@ -11274,7 +11275,7 @@
       <c r="F234" t="s">
         <v>12</v>
       </c>
-      <c r="G234" s="9"/>
+      <c r="G234" s="11"/>
       <c r="H234">
         <v>66</v>
       </c>
@@ -11299,7 +11300,7 @@
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A235" s="9"/>
+      <c r="A235" s="11"/>
       <c r="B235" s="2">
         <f t="shared" si="18"/>
         <v>75374</v>
@@ -11317,7 +11318,7 @@
       <c r="F235" t="s">
         <v>13</v>
       </c>
-      <c r="G235" s="9"/>
+      <c r="G235" s="11"/>
       <c r="H235">
         <v>18</v>
       </c>
@@ -11342,7 +11343,7 @@
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A236" s="9"/>
+      <c r="A236" s="11"/>
       <c r="B236" s="2">
         <f t="shared" si="18"/>
         <v>93574</v>
@@ -11360,7 +11361,7 @@
       <c r="F236" t="s">
         <v>14</v>
       </c>
-      <c r="G236" s="9"/>
+      <c r="G236" s="11"/>
       <c r="H236">
         <v>18</v>
       </c>
@@ -11385,7 +11386,7 @@
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A237" s="9"/>
+      <c r="A237" s="11"/>
       <c r="B237" s="2">
         <f t="shared" si="18"/>
         <v>156000</v>
@@ -11403,7 +11404,7 @@
       <c r="F237" t="s">
         <v>15</v>
       </c>
-      <c r="G237" s="9"/>
+      <c r="G237" s="11"/>
       <c r="H237">
         <v>12</v>
       </c>
@@ -11428,7 +11429,7 @@
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A238" s="9"/>
+      <c r="A238" s="11"/>
       <c r="B238" s="2">
         <f t="shared" si="18"/>
         <v>-5200</v>
@@ -11446,7 +11447,7 @@
       <c r="F238">
         <v>-100</v>
       </c>
-      <c r="G238" s="9" t="s">
+      <c r="G238" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H238">
@@ -11473,7 +11474,7 @@
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A239" s="9"/>
+      <c r="A239" s="11"/>
       <c r="B239" s="2">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11491,7 +11492,7 @@
       <c r="F239">
         <v>0</v>
       </c>
-      <c r="G239" s="9"/>
+      <c r="G239" s="11"/>
       <c r="H239">
         <v>0</v>
       </c>
@@ -11516,7 +11517,7 @@
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A240" s="9"/>
+      <c r="A240" s="11"/>
       <c r="B240" s="2">
         <f t="shared" si="18"/>
         <v>3900</v>
@@ -11534,7 +11535,7 @@
       <c r="F240" t="s">
         <v>6</v>
       </c>
-      <c r="G240" s="9"/>
+      <c r="G240" s="11"/>
       <c r="H240">
         <v>5</v>
       </c>
@@ -11559,7 +11560,7 @@
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A241" s="9"/>
+      <c r="A241" s="11"/>
       <c r="B241" s="2">
         <f t="shared" si="18"/>
         <v>10374</v>
@@ -11577,7 +11578,7 @@
       <c r="F241" t="s">
         <v>7</v>
       </c>
-      <c r="G241" s="9"/>
+      <c r="G241" s="11"/>
       <c r="H241">
         <v>3</v>
       </c>
@@ -11602,7 +11603,7 @@
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A242" s="9"/>
+      <c r="A242" s="11"/>
       <c r="B242" s="2">
         <f t="shared" si="18"/>
         <v>16874</v>
@@ -11620,7 +11621,7 @@
       <c r="F242" t="s">
         <v>8</v>
       </c>
-      <c r="G242" s="9"/>
+      <c r="G242" s="11"/>
       <c r="H242">
         <v>32</v>
       </c>
@@ -11645,7 +11646,7 @@
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A243" s="9"/>
+      <c r="A243" s="11"/>
       <c r="B243" s="2">
         <f t="shared" si="18"/>
         <v>25974</v>
@@ -11663,7 +11664,7 @@
       <c r="F243" t="s">
         <v>9</v>
       </c>
-      <c r="G243" s="9"/>
+      <c r="G243" s="11"/>
       <c r="H243">
         <v>29</v>
       </c>
@@ -11688,7 +11689,7 @@
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A244" s="9"/>
+      <c r="A244" s="11"/>
       <c r="B244" s="2">
         <f t="shared" si="18"/>
         <v>36374</v>
@@ -11706,7 +11707,7 @@
       <c r="F244" t="s">
         <v>10</v>
       </c>
-      <c r="G244" s="9"/>
+      <c r="G244" s="11"/>
       <c r="H244">
         <v>41</v>
       </c>
@@ -11731,7 +11732,7 @@
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A245" s="9"/>
+      <c r="A245" s="11"/>
       <c r="B245" s="2">
         <f t="shared" si="18"/>
         <v>46774</v>
@@ -11749,7 +11750,7 @@
       <c r="F245" t="s">
         <v>11</v>
       </c>
-      <c r="G245" s="9"/>
+      <c r="G245" s="11"/>
       <c r="H245">
         <v>15</v>
       </c>
@@ -11774,7 +11775,7 @@
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A246" s="9"/>
+      <c r="A246" s="11"/>
       <c r="B246" s="2">
         <f t="shared" si="18"/>
         <v>59774</v>
@@ -11792,7 +11793,7 @@
       <c r="F246" t="s">
         <v>12</v>
       </c>
-      <c r="G246" s="9"/>
+      <c r="G246" s="11"/>
       <c r="H246">
         <v>22</v>
       </c>
@@ -11817,7 +11818,7 @@
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A247" s="9"/>
+      <c r="A247" s="11"/>
       <c r="B247" s="2">
         <f t="shared" si="18"/>
         <v>75374</v>
@@ -11835,7 +11836,7 @@
       <c r="F247" t="s">
         <v>13</v>
       </c>
-      <c r="G247" s="9"/>
+      <c r="G247" s="11"/>
       <c r="H247">
         <v>7</v>
       </c>
@@ -11860,7 +11861,7 @@
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A248" s="9"/>
+      <c r="A248" s="11"/>
       <c r="B248" s="2">
         <f t="shared" si="18"/>
         <v>93574</v>
@@ -11878,7 +11879,7 @@
       <c r="F248" t="s">
         <v>14</v>
       </c>
-      <c r="G248" s="9"/>
+      <c r="G248" s="11"/>
       <c r="H248">
         <v>3</v>
       </c>
@@ -11903,7 +11904,7 @@
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A249" s="9"/>
+      <c r="A249" s="11"/>
       <c r="B249" s="2">
         <f t="shared" si="18"/>
         <v>156000</v>
@@ -11921,7 +11922,7 @@
       <c r="F249" t="s">
         <v>15</v>
       </c>
-      <c r="G249" s="9"/>
+      <c r="G249" s="11"/>
       <c r="H249">
         <v>0</v>
       </c>
@@ -11946,7 +11947,7 @@
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A250" s="9"/>
+      <c r="A250" s="11"/>
       <c r="B250" s="2">
         <f t="shared" si="18"/>
         <v>-5200</v>
@@ -11964,7 +11965,7 @@
       <c r="F250">
         <v>-100</v>
       </c>
-      <c r="G250" s="9" t="s">
+      <c r="G250" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H250">
@@ -11991,7 +11992,7 @@
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A251" s="9"/>
+      <c r="A251" s="11"/>
       <c r="B251" s="2">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12009,7 +12010,7 @@
       <c r="F251">
         <v>0</v>
       </c>
-      <c r="G251" s="9"/>
+      <c r="G251" s="11"/>
       <c r="H251">
         <v>18</v>
       </c>
@@ -12034,7 +12035,7 @@
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A252" s="9"/>
+      <c r="A252" s="11"/>
       <c r="B252" s="2">
         <f t="shared" si="18"/>
         <v>3900</v>
@@ -12052,7 +12053,7 @@
       <c r="F252" t="s">
         <v>6</v>
       </c>
-      <c r="G252" s="9"/>
+      <c r="G252" s="11"/>
       <c r="H252">
         <v>49</v>
       </c>
@@ -12077,7 +12078,7 @@
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A253" s="9"/>
+      <c r="A253" s="11"/>
       <c r="B253" s="2">
         <f t="shared" si="18"/>
         <v>10374</v>
@@ -12095,7 +12096,7 @@
       <c r="F253" t="s">
         <v>7</v>
       </c>
-      <c r="G253" s="9"/>
+      <c r="G253" s="11"/>
       <c r="H253">
         <v>23</v>
       </c>
@@ -12120,7 +12121,7 @@
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A254" s="9"/>
+      <c r="A254" s="11"/>
       <c r="B254" s="2">
         <f t="shared" si="18"/>
         <v>16874</v>
@@ -12138,7 +12139,7 @@
       <c r="F254" t="s">
         <v>8</v>
       </c>
-      <c r="G254" s="9"/>
+      <c r="G254" s="11"/>
       <c r="H254">
         <v>162</v>
       </c>
@@ -12163,7 +12164,7 @@
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A255" s="9"/>
+      <c r="A255" s="11"/>
       <c r="B255" s="2">
         <f t="shared" si="18"/>
         <v>25974</v>
@@ -12181,7 +12182,7 @@
       <c r="F255" t="s">
         <v>9</v>
       </c>
-      <c r="G255" s="9"/>
+      <c r="G255" s="11"/>
       <c r="H255">
         <v>186</v>
       </c>
@@ -12206,7 +12207,7 @@
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A256" s="9"/>
+      <c r="A256" s="11"/>
       <c r="B256" s="2">
         <f t="shared" si="18"/>
         <v>36374</v>
@@ -12224,7 +12225,7 @@
       <c r="F256" t="s">
         <v>10</v>
       </c>
-      <c r="G256" s="9"/>
+      <c r="G256" s="11"/>
       <c r="H256">
         <v>211</v>
       </c>
@@ -12249,7 +12250,7 @@
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A257" s="9"/>
+      <c r="A257" s="11"/>
       <c r="B257" s="2">
         <f t="shared" si="18"/>
         <v>46774</v>
@@ -12267,7 +12268,7 @@
       <c r="F257" t="s">
         <v>11</v>
       </c>
-      <c r="G257" s="9"/>
+      <c r="G257" s="11"/>
       <c r="H257">
         <v>126</v>
       </c>
@@ -12292,7 +12293,7 @@
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A258" s="9"/>
+      <c r="A258" s="11"/>
       <c r="B258" s="2">
         <f t="shared" si="18"/>
         <v>59774</v>
@@ -12310,7 +12311,7 @@
       <c r="F258" t="s">
         <v>12</v>
       </c>
-      <c r="G258" s="9"/>
+      <c r="G258" s="11"/>
       <c r="H258">
         <v>134</v>
       </c>
@@ -12335,7 +12336,7 @@
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A259" s="9"/>
+      <c r="A259" s="11"/>
       <c r="B259" s="2">
         <f t="shared" si="18"/>
         <v>75374</v>
@@ -12353,7 +12354,7 @@
       <c r="F259" t="s">
         <v>13</v>
       </c>
-      <c r="G259" s="9"/>
+      <c r="G259" s="11"/>
       <c r="H259">
         <v>78</v>
       </c>
@@ -12378,7 +12379,7 @@
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A260" s="9"/>
+      <c r="A260" s="11"/>
       <c r="B260" s="2">
         <f t="shared" si="18"/>
         <v>93574</v>
@@ -12396,7 +12397,7 @@
       <c r="F260" t="s">
         <v>14</v>
       </c>
-      <c r="G260" s="9"/>
+      <c r="G260" s="11"/>
       <c r="H260">
         <v>42</v>
       </c>
@@ -12421,7 +12422,7 @@
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A261" s="9"/>
+      <c r="A261" s="11"/>
       <c r="B261" s="2">
         <f t="shared" si="18"/>
         <v>156000</v>
@@ -12439,7 +12440,7 @@
       <c r="F261" t="s">
         <v>15</v>
       </c>
-      <c r="G261" s="9"/>
+      <c r="G261" s="11"/>
       <c r="H261">
         <v>46</v>
       </c>
@@ -12464,7 +12465,7 @@
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A262" s="9"/>
+      <c r="A262" s="11"/>
       <c r="B262" s="2">
         <f t="shared" si="18"/>
         <v>-5200</v>
@@ -12482,7 +12483,7 @@
       <c r="F262">
         <v>-100</v>
       </c>
-      <c r="G262" s="9" t="s">
+      <c r="G262" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H262">
@@ -12509,7 +12510,7 @@
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A263" s="9"/>
+      <c r="A263" s="11"/>
       <c r="B263" s="2">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12527,7 +12528,7 @@
       <c r="F263">
         <v>0</v>
       </c>
-      <c r="G263" s="9"/>
+      <c r="G263" s="11"/>
       <c r="H263">
         <v>0</v>
       </c>
@@ -12552,7 +12553,7 @@
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A264" s="9"/>
+      <c r="A264" s="11"/>
       <c r="B264" s="2">
         <f t="shared" si="18"/>
         <v>3900</v>
@@ -12570,7 +12571,7 @@
       <c r="F264" t="s">
         <v>6</v>
       </c>
-      <c r="G264" s="9"/>
+      <c r="G264" s="11"/>
       <c r="H264">
         <v>3</v>
       </c>
@@ -12595,7 +12596,7 @@
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A265" s="9"/>
+      <c r="A265" s="11"/>
       <c r="B265" s="2">
         <f t="shared" si="18"/>
         <v>10374</v>
@@ -12613,7 +12614,7 @@
       <c r="F265" t="s">
         <v>7</v>
       </c>
-      <c r="G265" s="9"/>
+      <c r="G265" s="11"/>
       <c r="H265">
         <v>0</v>
       </c>
@@ -12638,7 +12639,7 @@
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A266" s="9"/>
+      <c r="A266" s="11"/>
       <c r="B266" s="2">
         <f t="shared" si="18"/>
         <v>16874</v>
@@ -12656,7 +12657,7 @@
       <c r="F266" t="s">
         <v>8</v>
       </c>
-      <c r="G266" s="9"/>
+      <c r="G266" s="11"/>
       <c r="H266">
         <v>11</v>
       </c>
@@ -12681,7 +12682,7 @@
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A267" s="9"/>
+      <c r="A267" s="11"/>
       <c r="B267" s="2">
         <f t="shared" si="18"/>
         <v>25974</v>
@@ -12699,7 +12700,7 @@
       <c r="F267" t="s">
         <v>9</v>
       </c>
-      <c r="G267" s="9"/>
+      <c r="G267" s="11"/>
       <c r="H267">
         <v>14</v>
       </c>
@@ -12724,7 +12725,7 @@
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A268" s="9"/>
+      <c r="A268" s="11"/>
       <c r="B268" s="2">
         <f t="shared" si="18"/>
         <v>36374</v>
@@ -12742,7 +12743,7 @@
       <c r="F268" t="s">
         <v>10</v>
       </c>
-      <c r="G268" s="9"/>
+      <c r="G268" s="11"/>
       <c r="H268">
         <v>20</v>
       </c>
@@ -12767,7 +12768,7 @@
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A269" s="9"/>
+      <c r="A269" s="11"/>
       <c r="B269" s="2">
         <f t="shared" si="18"/>
         <v>46774</v>
@@ -12785,7 +12786,7 @@
       <c r="F269" t="s">
         <v>11</v>
       </c>
-      <c r="G269" s="9"/>
+      <c r="G269" s="11"/>
       <c r="H269">
         <v>3</v>
       </c>
@@ -12810,7 +12811,7 @@
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A270" s="9"/>
+      <c r="A270" s="11"/>
       <c r="B270" s="2">
         <f t="shared" si="18"/>
         <v>59774</v>
@@ -12828,7 +12829,7 @@
       <c r="F270" t="s">
         <v>12</v>
       </c>
-      <c r="G270" s="9"/>
+      <c r="G270" s="11"/>
       <c r="H270">
         <v>10</v>
       </c>
@@ -12853,7 +12854,7 @@
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A271" s="9"/>
+      <c r="A271" s="11"/>
       <c r="B271" s="2">
         <f t="shared" si="18"/>
         <v>75374</v>
@@ -12871,7 +12872,7 @@
       <c r="F271" t="s">
         <v>13</v>
       </c>
-      <c r="G271" s="9"/>
+      <c r="G271" s="11"/>
       <c r="H271">
         <v>11</v>
       </c>
@@ -12896,7 +12897,7 @@
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A272" s="9"/>
+      <c r="A272" s="11"/>
       <c r="B272" s="2">
         <f t="shared" si="18"/>
         <v>93574</v>
@@ -12914,7 +12915,7 @@
       <c r="F272" t="s">
         <v>14</v>
       </c>
-      <c r="G272" s="9"/>
+      <c r="G272" s="11"/>
       <c r="H272">
         <v>5</v>
       </c>
@@ -12939,7 +12940,7 @@
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A273" s="9"/>
+      <c r="A273" s="11"/>
       <c r="B273" s="2">
         <f t="shared" si="18"/>
         <v>156000</v>
@@ -12957,7 +12958,7 @@
       <c r="F273" t="s">
         <v>15</v>
       </c>
-      <c r="G273" s="9"/>
+      <c r="G273" s="11"/>
       <c r="H273">
         <v>13</v>
       </c>
@@ -12982,7 +12983,7 @@
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A274" s="9"/>
+      <c r="A274" s="11"/>
       <c r="B274" s="2">
         <f t="shared" si="18"/>
         <v>-5200</v>
@@ -13000,7 +13001,7 @@
       <c r="F274">
         <v>-100</v>
       </c>
-      <c r="G274" s="9" t="s">
+      <c r="G274" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H274">
@@ -13027,7 +13028,7 @@
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A275" s="9"/>
+      <c r="A275" s="11"/>
       <c r="B275" s="2">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13045,7 +13046,7 @@
       <c r="F275">
         <v>0</v>
       </c>
-      <c r="G275" s="9"/>
+      <c r="G275" s="11"/>
       <c r="H275">
         <v>0</v>
       </c>
@@ -13070,7 +13071,7 @@
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A276" s="9"/>
+      <c r="A276" s="11"/>
       <c r="B276" s="2">
         <f t="shared" si="18"/>
         <v>3900</v>
@@ -13088,7 +13089,7 @@
       <c r="F276" t="s">
         <v>6</v>
       </c>
-      <c r="G276" s="9"/>
+      <c r="G276" s="11"/>
       <c r="H276">
         <v>0</v>
       </c>
@@ -13113,7 +13114,7 @@
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A277" s="9"/>
+      <c r="A277" s="11"/>
       <c r="B277" s="2">
         <f t="shared" si="18"/>
         <v>10374</v>
@@ -13131,7 +13132,7 @@
       <c r="F277" t="s">
         <v>7</v>
       </c>
-      <c r="G277" s="9"/>
+      <c r="G277" s="11"/>
       <c r="H277">
         <v>0</v>
       </c>
@@ -13156,7 +13157,7 @@
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A278" s="9"/>
+      <c r="A278" s="11"/>
       <c r="B278" s="2">
         <f t="shared" si="18"/>
         <v>16874</v>
@@ -13174,7 +13175,7 @@
       <c r="F278" t="s">
         <v>8</v>
       </c>
-      <c r="G278" s="9"/>
+      <c r="G278" s="11"/>
       <c r="H278">
         <v>0</v>
       </c>
@@ -13199,7 +13200,7 @@
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A279" s="9"/>
+      <c r="A279" s="11"/>
       <c r="B279" s="2">
         <f t="shared" si="18"/>
         <v>25974</v>
@@ -13217,7 +13218,7 @@
       <c r="F279" t="s">
         <v>9</v>
       </c>
-      <c r="G279" s="9"/>
+      <c r="G279" s="11"/>
       <c r="H279">
         <v>0</v>
       </c>
@@ -13242,7 +13243,7 @@
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A280" s="9"/>
+      <c r="A280" s="11"/>
       <c r="B280" s="2">
         <f t="shared" si="18"/>
         <v>36374</v>
@@ -13260,7 +13261,7 @@
       <c r="F280" t="s">
         <v>10</v>
       </c>
-      <c r="G280" s="9"/>
+      <c r="G280" s="11"/>
       <c r="H280">
         <v>0</v>
       </c>
@@ -13285,7 +13286,7 @@
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A281" s="9"/>
+      <c r="A281" s="11"/>
       <c r="B281" s="2">
         <f t="shared" si="18"/>
         <v>46774</v>
@@ -13303,7 +13304,7 @@
       <c r="F281" t="s">
         <v>11</v>
       </c>
-      <c r="G281" s="9"/>
+      <c r="G281" s="11"/>
       <c r="H281">
         <v>0</v>
       </c>
@@ -13328,7 +13329,7 @@
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A282" s="9"/>
+      <c r="A282" s="11"/>
       <c r="B282" s="2">
         <f t="shared" si="18"/>
         <v>59774</v>
@@ -13346,7 +13347,7 @@
       <c r="F282" t="s">
         <v>12</v>
       </c>
-      <c r="G282" s="9"/>
+      <c r="G282" s="11"/>
       <c r="H282">
         <v>0</v>
       </c>
@@ -13371,7 +13372,7 @@
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A283" s="9"/>
+      <c r="A283" s="11"/>
       <c r="B283" s="2">
         <f t="shared" ref="B283:B333" si="21">C283*52</f>
         <v>75374</v>
@@ -13389,7 +13390,7 @@
       <c r="F283" t="s">
         <v>13</v>
       </c>
-      <c r="G283" s="9"/>
+      <c r="G283" s="11"/>
       <c r="H283">
         <v>0</v>
       </c>
@@ -13414,7 +13415,7 @@
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A284" s="9"/>
+      <c r="A284" s="11"/>
       <c r="B284" s="2">
         <f t="shared" si="21"/>
         <v>93574</v>
@@ -13432,7 +13433,7 @@
       <c r="F284" t="s">
         <v>14</v>
       </c>
-      <c r="G284" s="9"/>
+      <c r="G284" s="11"/>
       <c r="H284">
         <v>0</v>
       </c>
@@ -13457,7 +13458,7 @@
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A285" s="9"/>
+      <c r="A285" s="11"/>
       <c r="B285" s="2">
         <f t="shared" si="21"/>
         <v>156000</v>
@@ -13475,7 +13476,7 @@
       <c r="F285" t="s">
         <v>15</v>
       </c>
-      <c r="G285" s="9"/>
+      <c r="G285" s="11"/>
       <c r="H285">
         <v>0</v>
       </c>
@@ -13500,7 +13501,7 @@
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A286" s="9">
+      <c r="A286" s="11">
         <v>2011</v>
       </c>
       <c r="B286" s="2">
@@ -13520,7 +13521,7 @@
       <c r="F286">
         <v>-100</v>
       </c>
-      <c r="G286" s="9" t="s">
+      <c r="G286" s="11" t="s">
         <v>42</v>
       </c>
       <c r="H286">
@@ -13547,7 +13548,7 @@
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A287" s="9"/>
+      <c r="A287" s="11"/>
       <c r="B287" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -13565,7 +13566,7 @@
       <c r="F287">
         <v>0</v>
       </c>
-      <c r="G287" s="9"/>
+      <c r="G287" s="11"/>
       <c r="H287">
         <v>3429</v>
       </c>
@@ -13590,7 +13591,7 @@
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A288" s="9"/>
+      <c r="A288" s="11"/>
       <c r="B288" s="2">
         <f t="shared" si="21"/>
         <v>5200</v>
@@ -13608,7 +13609,7 @@
       <c r="F288" t="s">
         <v>20</v>
       </c>
-      <c r="G288" s="9"/>
+      <c r="G288" s="11"/>
       <c r="H288">
         <v>9428</v>
       </c>
@@ -13633,7 +13634,7 @@
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A289" s="9"/>
+      <c r="A289" s="11"/>
       <c r="B289" s="2">
         <f t="shared" si="21"/>
         <v>12974</v>
@@ -13651,7 +13652,7 @@
       <c r="F289" t="s">
         <v>21</v>
       </c>
-      <c r="G289" s="9"/>
+      <c r="G289" s="11"/>
       <c r="H289">
         <v>5907</v>
       </c>
@@ -13676,7 +13677,7 @@
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A290" s="9"/>
+      <c r="A290" s="11"/>
       <c r="B290" s="2">
         <f t="shared" si="21"/>
         <v>18174</v>
@@ -13694,7 +13695,7 @@
       <c r="F290" t="s">
         <v>22</v>
       </c>
-      <c r="G290" s="9"/>
+      <c r="G290" s="11"/>
       <c r="H290">
         <v>58277</v>
       </c>
@@ -13719,7 +13720,7 @@
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A291" s="9"/>
+      <c r="A291" s="11"/>
       <c r="B291" s="2">
         <f t="shared" si="21"/>
         <v>25974</v>
@@ -13737,7 +13738,7 @@
       <c r="F291" t="s">
         <v>23</v>
       </c>
-      <c r="G291" s="9"/>
+      <c r="G291" s="11"/>
       <c r="H291">
         <v>56107</v>
       </c>
@@ -13762,7 +13763,7 @@
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A292" s="9"/>
+      <c r="A292" s="11"/>
       <c r="B292" s="2">
         <f t="shared" si="21"/>
         <v>36374</v>
@@ -13780,7 +13781,7 @@
       <c r="F292" t="s">
         <v>24</v>
       </c>
-      <c r="G292" s="9"/>
+      <c r="G292" s="11"/>
       <c r="H292">
         <v>59756</v>
       </c>
@@ -13805,7 +13806,7 @@
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A293" s="9"/>
+      <c r="A293" s="11"/>
       <c r="B293" s="2">
         <f t="shared" si="21"/>
         <v>46774</v>
@@ -13823,7 +13824,7 @@
       <c r="F293" t="s">
         <v>25</v>
       </c>
-      <c r="G293" s="9"/>
+      <c r="G293" s="11"/>
       <c r="H293">
         <v>35604</v>
       </c>
@@ -13848,7 +13849,7 @@
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A294" s="9"/>
+      <c r="A294" s="11"/>
       <c r="B294" s="2">
         <f t="shared" si="21"/>
         <v>58474</v>
@@ -13866,7 +13867,7 @@
       <c r="F294" t="s">
         <v>26</v>
       </c>
-      <c r="G294" s="9"/>
+      <c r="G294" s="11"/>
       <c r="H294">
         <v>44100</v>
       </c>
@@ -13891,7 +13892,7 @@
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A295" s="9"/>
+      <c r="A295" s="11"/>
       <c r="B295" s="2">
         <f t="shared" si="21"/>
         <v>71474</v>
@@ -13909,7 +13910,7 @@
       <c r="F295" t="s">
         <v>27</v>
       </c>
-      <c r="G295" s="9"/>
+      <c r="G295" s="11"/>
       <c r="H295">
         <v>28122</v>
       </c>
@@ -13934,7 +13935,7 @@
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A296" s="9"/>
+      <c r="A296" s="11"/>
       <c r="B296" s="2">
         <f t="shared" si="21"/>
         <v>90974</v>
@@ -13952,7 +13953,7 @@
       <c r="F296" t="s">
         <v>28</v>
       </c>
-      <c r="G296" s="9"/>
+      <c r="G296" s="11"/>
       <c r="H296">
         <v>37117</v>
       </c>
@@ -13977,7 +13978,7 @@
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A297" s="9"/>
+      <c r="A297" s="11"/>
       <c r="B297" s="2">
         <f t="shared" si="21"/>
         <v>156000</v>
@@ -13995,7 +13996,7 @@
       <c r="F297" t="s">
         <v>29</v>
       </c>
-      <c r="G297" s="9"/>
+      <c r="G297" s="11"/>
       <c r="H297">
         <v>33711</v>
       </c>
@@ -14020,7 +14021,7 @@
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A298" s="9"/>
+      <c r="A298" s="11"/>
       <c r="B298" s="2">
         <f t="shared" si="21"/>
         <v>-5200</v>
@@ -14038,7 +14039,7 @@
       <c r="F298">
         <v>-100</v>
       </c>
-      <c r="G298" s="9" t="s">
+      <c r="G298" s="11" t="s">
         <v>43</v>
       </c>
       <c r="H298">
@@ -14067,7 +14068,7 @@
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A299" s="9"/>
+      <c r="A299" s="11"/>
       <c r="B299" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14085,7 +14086,7 @@
       <c r="F299">
         <v>0</v>
       </c>
-      <c r="G299" s="9"/>
+      <c r="G299" s="11"/>
       <c r="H299">
         <v>412</v>
       </c>
@@ -14112,7 +14113,7 @@
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A300" s="9"/>
+      <c r="A300" s="11"/>
       <c r="B300" s="2">
         <f t="shared" si="21"/>
         <v>5200</v>
@@ -14130,7 +14131,7 @@
       <c r="F300" t="s">
         <v>20</v>
       </c>
-      <c r="G300" s="9"/>
+      <c r="G300" s="11"/>
       <c r="H300">
         <v>823</v>
       </c>
@@ -14157,7 +14158,7 @@
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A301" s="9"/>
+      <c r="A301" s="11"/>
       <c r="B301" s="2">
         <f t="shared" si="21"/>
         <v>12974</v>
@@ -14175,7 +14176,7 @@
       <c r="F301" t="s">
         <v>21</v>
       </c>
-      <c r="G301" s="9"/>
+      <c r="G301" s="11"/>
       <c r="H301">
         <v>501</v>
       </c>
@@ -14202,7 +14203,7 @@
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A302" s="9"/>
+      <c r="A302" s="11"/>
       <c r="B302" s="2">
         <f t="shared" si="21"/>
         <v>18174</v>
@@ -14220,7 +14221,7 @@
       <c r="F302" t="s">
         <v>22</v>
       </c>
-      <c r="G302" s="9"/>
+      <c r="G302" s="11"/>
       <c r="H302">
         <v>4328</v>
       </c>
@@ -14247,7 +14248,7 @@
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A303" s="9"/>
+      <c r="A303" s="11"/>
       <c r="B303" s="2">
         <f t="shared" si="21"/>
         <v>25974</v>
@@ -14265,7 +14266,7 @@
       <c r="F303" t="s">
         <v>23</v>
       </c>
-      <c r="G303" s="9"/>
+      <c r="G303" s="11"/>
       <c r="H303">
         <v>4854</v>
       </c>
@@ -14292,7 +14293,7 @@
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A304" s="9"/>
+      <c r="A304" s="11"/>
       <c r="B304" s="2">
         <f t="shared" si="21"/>
         <v>36374</v>
@@ -14310,7 +14311,7 @@
       <c r="F304" t="s">
         <v>24</v>
       </c>
-      <c r="G304" s="9"/>
+      <c r="G304" s="11"/>
       <c r="H304">
         <v>5223</v>
       </c>
@@ -14337,7 +14338,7 @@
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A305" s="9"/>
+      <c r="A305" s="11"/>
       <c r="B305" s="2">
         <f t="shared" si="21"/>
         <v>46774</v>
@@ -14355,7 +14356,7 @@
       <c r="F305" t="s">
         <v>25</v>
       </c>
-      <c r="G305" s="9"/>
+      <c r="G305" s="11"/>
       <c r="H305">
         <v>3519</v>
       </c>
@@ -14382,7 +14383,7 @@
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A306" s="9"/>
+      <c r="A306" s="11"/>
       <c r="B306" s="2">
         <f t="shared" si="21"/>
         <v>58474</v>
@@ -14400,7 +14401,7 @@
       <c r="F306" t="s">
         <v>26</v>
       </c>
-      <c r="G306" s="9"/>
+      <c r="G306" s="11"/>
       <c r="H306">
         <v>5281</v>
       </c>
@@ -14427,7 +14428,7 @@
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A307" s="9"/>
+      <c r="A307" s="11"/>
       <c r="B307" s="2">
         <f t="shared" si="21"/>
         <v>71474</v>
@@ -14445,7 +14446,7 @@
       <c r="F307" t="s">
         <v>27</v>
       </c>
-      <c r="G307" s="9"/>
+      <c r="G307" s="11"/>
       <c r="H307">
         <v>3862</v>
       </c>
@@ -14472,7 +14473,7 @@
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A308" s="9"/>
+      <c r="A308" s="11"/>
       <c r="B308" s="2">
         <f t="shared" si="21"/>
         <v>90974</v>
@@ -14490,7 +14491,7 @@
       <c r="F308" t="s">
         <v>28</v>
       </c>
-      <c r="G308" s="9"/>
+      <c r="G308" s="11"/>
       <c r="H308">
         <v>6536</v>
       </c>
@@ -14517,7 +14518,7 @@
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A309" s="9"/>
+      <c r="A309" s="11"/>
       <c r="B309" s="2">
         <f t="shared" si="21"/>
         <v>156000</v>
@@ -14535,7 +14536,7 @@
       <c r="F309" t="s">
         <v>29</v>
       </c>
-      <c r="G309" s="9"/>
+      <c r="G309" s="11"/>
       <c r="H309">
         <v>8632</v>
       </c>
@@ -14562,7 +14563,7 @@
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A310" s="9"/>
+      <c r="A310" s="11"/>
       <c r="B310" s="2">
         <f t="shared" si="21"/>
         <v>-5200</v>
@@ -14580,7 +14581,7 @@
       <c r="F310">
         <v>-100</v>
       </c>
-      <c r="G310" s="9" t="s">
+      <c r="G310" s="11" t="s">
         <v>44</v>
       </c>
       <c r="H310">
@@ -14609,7 +14610,7 @@
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A311" s="9"/>
+      <c r="A311" s="11"/>
       <c r="B311" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -14627,7 +14628,7 @@
       <c r="F311">
         <v>0</v>
       </c>
-      <c r="G311" s="9"/>
+      <c r="G311" s="11"/>
       <c r="H311">
         <v>529</v>
       </c>
@@ -14654,7 +14655,7 @@
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A312" s="9"/>
+      <c r="A312" s="11"/>
       <c r="B312" s="2">
         <f t="shared" si="21"/>
         <v>5200</v>
@@ -14672,7 +14673,7 @@
       <c r="F312" t="s">
         <v>20</v>
       </c>
-      <c r="G312" s="9"/>
+      <c r="G312" s="11"/>
       <c r="H312">
         <v>867</v>
       </c>
@@ -14699,7 +14700,7 @@
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A313" s="9"/>
+      <c r="A313" s="11"/>
       <c r="B313" s="2">
         <f t="shared" si="21"/>
         <v>12974</v>
@@ -14717,7 +14718,7 @@
       <c r="F313" t="s">
         <v>21</v>
       </c>
-      <c r="G313" s="9"/>
+      <c r="G313" s="11"/>
       <c r="H313">
         <v>627</v>
       </c>
@@ -14744,7 +14745,7 @@
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A314" s="9"/>
+      <c r="A314" s="11"/>
       <c r="B314" s="2">
         <f t="shared" si="21"/>
         <v>18174</v>
@@ -14762,7 +14763,7 @@
       <c r="F314" t="s">
         <v>22</v>
       </c>
-      <c r="G314" s="9"/>
+      <c r="G314" s="11"/>
       <c r="H314">
         <v>4031</v>
       </c>
@@ -14789,7 +14790,7 @@
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A315" s="9"/>
+      <c r="A315" s="11"/>
       <c r="B315" s="2">
         <f t="shared" si="21"/>
         <v>25974</v>
@@ -14807,7 +14808,7 @@
       <c r="F315" t="s">
         <v>23</v>
       </c>
-      <c r="G315" s="9"/>
+      <c r="G315" s="11"/>
       <c r="H315">
         <v>5145</v>
       </c>
@@ -14834,7 +14835,7 @@
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A316" s="9"/>
+      <c r="A316" s="11"/>
       <c r="B316" s="2">
         <f t="shared" si="21"/>
         <v>36374</v>
@@ -14852,7 +14853,7 @@
       <c r="F316" t="s">
         <v>24</v>
       </c>
-      <c r="G316" s="9"/>
+      <c r="G316" s="11"/>
       <c r="H316">
         <v>5484</v>
       </c>
@@ -14879,7 +14880,7 @@
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A317" s="9"/>
+      <c r="A317" s="11"/>
       <c r="B317" s="2">
         <f t="shared" si="21"/>
         <v>46774</v>
@@ -14897,7 +14898,7 @@
       <c r="F317" t="s">
         <v>25</v>
       </c>
-      <c r="G317" s="9"/>
+      <c r="G317" s="11"/>
       <c r="H317">
         <v>3819</v>
       </c>
@@ -14924,7 +14925,7 @@
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A318" s="9"/>
+      <c r="A318" s="11"/>
       <c r="B318" s="2">
         <f t="shared" si="21"/>
         <v>58474</v>
@@ -14942,7 +14943,7 @@
       <c r="F318" t="s">
         <v>26</v>
       </c>
-      <c r="G318" s="9"/>
+      <c r="G318" s="11"/>
       <c r="H318">
         <v>5541</v>
       </c>
@@ -14969,7 +14970,7 @@
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A319" s="9"/>
+      <c r="A319" s="11"/>
       <c r="B319" s="2">
         <f t="shared" si="21"/>
         <v>71474</v>
@@ -14987,7 +14988,7 @@
       <c r="F319" t="s">
         <v>27</v>
       </c>
-      <c r="G319" s="9"/>
+      <c r="G319" s="11"/>
       <c r="H319">
         <v>3979</v>
       </c>
@@ -15014,7 +15015,7 @@
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A320" s="9"/>
+      <c r="A320" s="11"/>
       <c r="B320" s="2">
         <f t="shared" si="21"/>
         <v>90974</v>
@@ -15032,7 +15033,7 @@
       <c r="F320" t="s">
         <v>28</v>
       </c>
-      <c r="G320" s="9"/>
+      <c r="G320" s="11"/>
       <c r="H320">
         <v>5588</v>
       </c>
@@ -15059,7 +15060,7 @@
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A321" s="9"/>
+      <c r="A321" s="11"/>
       <c r="B321" s="2">
         <f t="shared" si="21"/>
         <v>156000</v>
@@ -15077,7 +15078,7 @@
       <c r="F321" t="s">
         <v>29</v>
       </c>
-      <c r="G321" s="9"/>
+      <c r="G321" s="11"/>
       <c r="H321">
         <v>5698</v>
       </c>
@@ -15104,7 +15105,7 @@
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A322" s="9"/>
+      <c r="A322" s="11"/>
       <c r="B322" s="2">
         <f t="shared" si="21"/>
         <v>-5200</v>
@@ -15122,7 +15123,7 @@
       <c r="F322">
         <v>-100</v>
       </c>
-      <c r="G322" s="9" t="s">
+      <c r="G322" s="11" t="s">
         <v>45</v>
       </c>
       <c r="H322">
@@ -15149,7 +15150,7 @@
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A323" s="9"/>
+      <c r="A323" s="11"/>
       <c r="B323" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -15167,7 +15168,7 @@
       <c r="F323">
         <v>0</v>
       </c>
-      <c r="G323" s="9"/>
+      <c r="G323" s="11"/>
       <c r="H323">
         <v>302</v>
       </c>
@@ -15192,7 +15193,7 @@
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A324" s="9"/>
+      <c r="A324" s="11"/>
       <c r="B324" s="2">
         <f t="shared" si="21"/>
         <v>5200</v>
@@ -15210,7 +15211,7 @@
       <c r="F324" t="s">
         <v>20</v>
       </c>
-      <c r="G324" s="9"/>
+      <c r="G324" s="11"/>
       <c r="H324">
         <v>256</v>
       </c>
@@ -15235,7 +15236,7 @@
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A325" s="9"/>
+      <c r="A325" s="11"/>
       <c r="B325" s="2">
         <f t="shared" si="21"/>
         <v>12974</v>
@@ -15253,7 +15254,7 @@
       <c r="F325" t="s">
         <v>21</v>
       </c>
-      <c r="G325" s="9"/>
+      <c r="G325" s="11"/>
       <c r="H325">
         <v>139</v>
       </c>
@@ -15278,7 +15279,7 @@
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A326" s="9"/>
+      <c r="A326" s="11"/>
       <c r="B326" s="2">
         <f t="shared" si="21"/>
         <v>18174</v>
@@ -15296,7 +15297,7 @@
       <c r="F326" t="s">
         <v>22</v>
       </c>
-      <c r="G326" s="9"/>
+      <c r="G326" s="11"/>
       <c r="H326">
         <v>629</v>
       </c>
@@ -15321,7 +15322,7 @@
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A327" s="9"/>
+      <c r="A327" s="11"/>
       <c r="B327" s="2">
         <f t="shared" si="21"/>
         <v>25974</v>
@@ -15339,7 +15340,7 @@
       <c r="F327" t="s">
         <v>23</v>
       </c>
-      <c r="G327" s="9"/>
+      <c r="G327" s="11"/>
       <c r="H327">
         <v>809</v>
       </c>
@@ -15364,7 +15365,7 @@
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A328" s="9"/>
+      <c r="A328" s="11"/>
       <c r="B328" s="2">
         <f t="shared" si="21"/>
         <v>36374</v>
@@ -15382,7 +15383,7 @@
       <c r="F328" t="s">
         <v>24</v>
       </c>
-      <c r="G328" s="9"/>
+      <c r="G328" s="11"/>
       <c r="H328">
         <v>956</v>
       </c>
@@ -15407,7 +15408,7 @@
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A329" s="9"/>
+      <c r="A329" s="11"/>
       <c r="B329" s="2">
         <f t="shared" si="21"/>
         <v>46774</v>
@@ -15425,7 +15426,7 @@
       <c r="F329" t="s">
         <v>25</v>
       </c>
-      <c r="G329" s="9"/>
+      <c r="G329" s="11"/>
       <c r="H329">
         <v>894</v>
       </c>
@@ -15450,7 +15451,7 @@
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A330" s="9"/>
+      <c r="A330" s="11"/>
       <c r="B330" s="2">
         <f t="shared" si="21"/>
         <v>58474</v>
@@ -15468,7 +15469,7 @@
       <c r="F330" t="s">
         <v>26</v>
       </c>
-      <c r="G330" s="9"/>
+      <c r="G330" s="11"/>
       <c r="H330">
         <v>1498</v>
       </c>
@@ -15493,7 +15494,7 @@
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A331" s="9"/>
+      <c r="A331" s="11"/>
       <c r="B331" s="2">
         <f t="shared" si="21"/>
         <v>71474</v>
@@ -15511,7 +15512,7 @@
       <c r="F331" t="s">
         <v>27</v>
       </c>
-      <c r="G331" s="9"/>
+      <c r="G331" s="11"/>
       <c r="H331">
         <v>1054</v>
       </c>
@@ -15536,7 +15537,7 @@
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A332" s="9"/>
+      <c r="A332" s="11"/>
       <c r="B332" s="2">
         <f t="shared" si="21"/>
         <v>90974</v>
@@ -15554,7 +15555,7 @@
       <c r="F332" t="s">
         <v>28</v>
       </c>
-      <c r="G332" s="9"/>
+      <c r="G332" s="11"/>
       <c r="H332">
         <v>2270</v>
       </c>
@@ -15579,7 +15580,7 @@
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A333" s="9"/>
+      <c r="A333" s="11"/>
       <c r="B333" s="2">
         <f t="shared" si="21"/>
         <v>156000</v>
@@ -15597,7 +15598,7 @@
       <c r="F333" t="s">
         <v>29</v>
       </c>
-      <c r="G333" s="9"/>
+      <c r="G333" s="11"/>
       <c r="H333">
         <v>3481</v>
       </c>
@@ -15622,7 +15623,7 @@
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A334" s="9"/>
+      <c r="A334" s="11"/>
       <c r="B334" s="2">
         <f t="shared" ref="B334:B383" si="28">C334*52</f>
         <v>-5200</v>
@@ -15640,7 +15641,7 @@
       <c r="F334">
         <v>-100</v>
       </c>
-      <c r="G334" s="9" t="s">
+      <c r="G334" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H334">
@@ -15667,7 +15668,7 @@
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A335" s="9"/>
+      <c r="A335" s="11"/>
       <c r="B335" s="2">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -15685,7 +15686,7 @@
       <c r="F335">
         <v>0</v>
       </c>
-      <c r="G335" s="9"/>
+      <c r="G335" s="11"/>
       <c r="H335">
         <v>16</v>
       </c>
@@ -15710,7 +15711,7 @@
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A336" s="9"/>
+      <c r="A336" s="11"/>
       <c r="B336" s="2">
         <f t="shared" si="28"/>
         <v>5200</v>
@@ -15728,7 +15729,7 @@
       <c r="F336" t="s">
         <v>20</v>
       </c>
-      <c r="G336" s="9"/>
+      <c r="G336" s="11"/>
       <c r="H336">
         <v>56</v>
       </c>
@@ -15753,7 +15754,7 @@
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A337" s="9"/>
+      <c r="A337" s="11"/>
       <c r="B337" s="2">
         <f t="shared" si="28"/>
         <v>12974</v>
@@ -15771,7 +15772,7 @@
       <c r="F337" t="s">
         <v>21</v>
       </c>
-      <c r="G337" s="9"/>
+      <c r="G337" s="11"/>
       <c r="H337">
         <v>32</v>
       </c>
@@ -15796,7 +15797,7 @@
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A338" s="9"/>
+      <c r="A338" s="11"/>
       <c r="B338" s="2">
         <f t="shared" si="28"/>
         <v>18174</v>
@@ -15814,7 +15815,7 @@
       <c r="F338" t="s">
         <v>22</v>
       </c>
-      <c r="G338" s="9"/>
+      <c r="G338" s="11"/>
       <c r="H338">
         <v>440</v>
       </c>
@@ -15839,7 +15840,7 @@
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A339" s="9"/>
+      <c r="A339" s="11"/>
       <c r="B339" s="2">
         <f t="shared" si="28"/>
         <v>25974</v>
@@ -15857,7 +15858,7 @@
       <c r="F339" t="s">
         <v>23</v>
       </c>
-      <c r="G339" s="9"/>
+      <c r="G339" s="11"/>
       <c r="H339">
         <v>251</v>
       </c>
@@ -15882,7 +15883,7 @@
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A340" s="9"/>
+      <c r="A340" s="11"/>
       <c r="B340" s="2">
         <f t="shared" si="28"/>
         <v>36374</v>
@@ -15900,7 +15901,7 @@
       <c r="F340" t="s">
         <v>24</v>
       </c>
-      <c r="G340" s="9"/>
+      <c r="G340" s="11"/>
       <c r="H340">
         <v>201</v>
       </c>
@@ -15925,7 +15926,7 @@
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A341" s="9"/>
+      <c r="A341" s="11"/>
       <c r="B341" s="2">
         <f t="shared" si="28"/>
         <v>46774</v>
@@ -15943,7 +15944,7 @@
       <c r="F341" t="s">
         <v>25</v>
       </c>
-      <c r="G341" s="9"/>
+      <c r="G341" s="11"/>
       <c r="H341">
         <v>103</v>
       </c>
@@ -15968,7 +15969,7 @@
       </c>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A342" s="9"/>
+      <c r="A342" s="11"/>
       <c r="B342" s="2">
         <f t="shared" si="28"/>
         <v>58474</v>
@@ -15986,7 +15987,7 @@
       <c r="F342" t="s">
         <v>26</v>
       </c>
-      <c r="G342" s="9"/>
+      <c r="G342" s="11"/>
       <c r="H342">
         <v>52</v>
       </c>
@@ -16011,7 +16012,7 @@
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A343" s="9"/>
+      <c r="A343" s="11"/>
       <c r="B343" s="2">
         <f t="shared" si="28"/>
         <v>71474</v>
@@ -16029,7 +16030,7 @@
       <c r="F343" t="s">
         <v>27</v>
       </c>
-      <c r="G343" s="9"/>
+      <c r="G343" s="11"/>
       <c r="H343">
         <v>26</v>
       </c>
@@ -16054,7 +16055,7 @@
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A344" s="9"/>
+      <c r="A344" s="11"/>
       <c r="B344" s="2">
         <f t="shared" si="28"/>
         <v>90974</v>
@@ -16072,7 +16073,7 @@
       <c r="F344" t="s">
         <v>28</v>
       </c>
-      <c r="G344" s="9"/>
+      <c r="G344" s="11"/>
       <c r="H344">
         <v>25</v>
       </c>
@@ -16097,7 +16098,7 @@
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A345" s="9"/>
+      <c r="A345" s="11"/>
       <c r="B345" s="2">
         <f t="shared" si="28"/>
         <v>156000</v>
@@ -16115,7 +16116,7 @@
       <c r="F345" t="s">
         <v>29</v>
       </c>
-      <c r="G345" s="9"/>
+      <c r="G345" s="11"/>
       <c r="H345">
         <v>19</v>
       </c>
@@ -16140,7 +16141,7 @@
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A346" s="9"/>
+      <c r="A346" s="11"/>
       <c r="B346" s="2">
         <f t="shared" si="28"/>
         <v>-5200</v>
@@ -16158,7 +16159,7 @@
       <c r="F346">
         <v>-100</v>
       </c>
-      <c r="G346" s="9" t="s">
+      <c r="G346" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H346">
@@ -16185,7 +16186,7 @@
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A347" s="9"/>
+      <c r="A347" s="11"/>
       <c r="B347" s="2">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -16203,7 +16204,7 @@
       <c r="F347">
         <v>0</v>
       </c>
-      <c r="G347" s="9"/>
+      <c r="G347" s="11"/>
       <c r="H347">
         <v>0</v>
       </c>
@@ -16228,7 +16229,7 @@
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A348" s="9"/>
+      <c r="A348" s="11"/>
       <c r="B348" s="2">
         <f t="shared" si="28"/>
         <v>5200</v>
@@ -16246,7 +16247,7 @@
       <c r="F348" t="s">
         <v>20</v>
       </c>
-      <c r="G348" s="9"/>
+      <c r="G348" s="11"/>
       <c r="H348">
         <v>3</v>
       </c>
@@ -16271,7 +16272,7 @@
       </c>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A349" s="9"/>
+      <c r="A349" s="11"/>
       <c r="B349" s="2">
         <f t="shared" si="28"/>
         <v>12974</v>
@@ -16289,7 +16290,7 @@
       <c r="F349" t="s">
         <v>21</v>
       </c>
-      <c r="G349" s="9"/>
+      <c r="G349" s="11"/>
       <c r="H349">
         <v>0</v>
       </c>
@@ -16314,7 +16315,7 @@
       </c>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A350" s="9"/>
+      <c r="A350" s="11"/>
       <c r="B350" s="2">
         <f t="shared" si="28"/>
         <v>18174</v>
@@ -16332,7 +16333,7 @@
       <c r="F350" t="s">
         <v>22</v>
       </c>
-      <c r="G350" s="9"/>
+      <c r="G350" s="11"/>
       <c r="H350">
         <v>15</v>
       </c>
@@ -16357,7 +16358,7 @@
       </c>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A351" s="9"/>
+      <c r="A351" s="11"/>
       <c r="B351" s="2">
         <f t="shared" si="28"/>
         <v>25974</v>
@@ -16375,7 +16376,7 @@
       <c r="F351" t="s">
         <v>23</v>
       </c>
-      <c r="G351" s="9"/>
+      <c r="G351" s="11"/>
       <c r="H351">
         <v>16</v>
       </c>
@@ -16400,7 +16401,7 @@
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A352" s="9"/>
+      <c r="A352" s="11"/>
       <c r="B352" s="2">
         <f t="shared" si="28"/>
         <v>36374</v>
@@ -16418,7 +16419,7 @@
       <c r="F352" t="s">
         <v>24</v>
       </c>
-      <c r="G352" s="9"/>
+      <c r="G352" s="11"/>
       <c r="H352">
         <v>10</v>
       </c>
@@ -16443,7 +16444,7 @@
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A353" s="9"/>
+      <c r="A353" s="11"/>
       <c r="B353" s="2">
         <f t="shared" si="28"/>
         <v>46774</v>
@@ -16461,7 +16462,7 @@
       <c r="F353" t="s">
         <v>25</v>
       </c>
-      <c r="G353" s="9"/>
+      <c r="G353" s="11"/>
       <c r="H353">
         <v>12</v>
       </c>
@@ -16486,7 +16487,7 @@
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A354" s="9"/>
+      <c r="A354" s="11"/>
       <c r="B354" s="2">
         <f t="shared" si="28"/>
         <v>58474</v>
@@ -16504,7 +16505,7 @@
       <c r="F354" t="s">
         <v>26</v>
       </c>
-      <c r="G354" s="9"/>
+      <c r="G354" s="11"/>
       <c r="H354">
         <v>6</v>
       </c>
@@ -16529,7 +16530,7 @@
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A355" s="9"/>
+      <c r="A355" s="11"/>
       <c r="B355" s="2">
         <f t="shared" si="28"/>
         <v>71474</v>
@@ -16547,7 +16548,7 @@
       <c r="F355" t="s">
         <v>27</v>
       </c>
-      <c r="G355" s="9"/>
+      <c r="G355" s="11"/>
       <c r="H355">
         <v>3</v>
       </c>
@@ -16572,7 +16573,7 @@
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A356" s="9"/>
+      <c r="A356" s="11"/>
       <c r="B356" s="2">
         <f t="shared" si="28"/>
         <v>90974</v>
@@ -16590,7 +16591,7 @@
       <c r="F356" t="s">
         <v>28</v>
       </c>
-      <c r="G356" s="9"/>
+      <c r="G356" s="11"/>
       <c r="H356">
         <v>6</v>
       </c>
@@ -16615,7 +16616,7 @@
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A357" s="9"/>
+      <c r="A357" s="11"/>
       <c r="B357" s="2">
         <f t="shared" si="28"/>
         <v>156000</v>
@@ -16633,7 +16634,7 @@
       <c r="F357" t="s">
         <v>29</v>
       </c>
-      <c r="G357" s="9"/>
+      <c r="G357" s="11"/>
       <c r="H357">
         <v>3</v>
       </c>
@@ -16658,7 +16659,7 @@
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A358" s="9"/>
+      <c r="A358" s="11"/>
       <c r="B358" s="2">
         <f t="shared" si="28"/>
         <v>-5200</v>
@@ -16676,7 +16677,7 @@
       <c r="F358">
         <v>-100</v>
       </c>
-      <c r="G358" s="9" t="s">
+      <c r="G358" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H358">
@@ -16703,7 +16704,7 @@
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A359" s="9"/>
+      <c r="A359" s="11"/>
       <c r="B359" s="2">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -16721,7 +16722,7 @@
       <c r="F359">
         <v>0</v>
       </c>
-      <c r="G359" s="9"/>
+      <c r="G359" s="11"/>
       <c r="H359">
         <v>19</v>
       </c>
@@ -16746,7 +16747,7 @@
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A360" s="9"/>
+      <c r="A360" s="11"/>
       <c r="B360" s="2">
         <f t="shared" si="28"/>
         <v>5200</v>
@@ -16764,7 +16765,7 @@
       <c r="F360" t="s">
         <v>20</v>
       </c>
-      <c r="G360" s="9"/>
+      <c r="G360" s="11"/>
       <c r="H360">
         <v>54</v>
       </c>
@@ -16789,7 +16790,7 @@
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A361" s="9"/>
+      <c r="A361" s="11"/>
       <c r="B361" s="2">
         <f t="shared" si="28"/>
         <v>12974</v>
@@ -16807,7 +16808,7 @@
       <c r="F361" t="s">
         <v>21</v>
       </c>
-      <c r="G361" s="9"/>
+      <c r="G361" s="11"/>
       <c r="H361">
         <v>29</v>
       </c>
@@ -16832,7 +16833,7 @@
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A362" s="9"/>
+      <c r="A362" s="11"/>
       <c r="B362" s="2">
         <f t="shared" si="28"/>
         <v>18174</v>
@@ -16850,7 +16851,7 @@
       <c r="F362" t="s">
         <v>22</v>
       </c>
-      <c r="G362" s="9"/>
+      <c r="G362" s="11"/>
       <c r="H362">
         <v>78</v>
       </c>
@@ -16875,7 +16876,7 @@
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A363" s="9"/>
+      <c r="A363" s="11"/>
       <c r="B363" s="2">
         <f t="shared" si="28"/>
         <v>25974</v>
@@ -16893,7 +16894,7 @@
       <c r="F363" t="s">
         <v>23</v>
       </c>
-      <c r="G363" s="9"/>
+      <c r="G363" s="11"/>
       <c r="H363">
         <v>141</v>
       </c>
@@ -16918,7 +16919,7 @@
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A364" s="9"/>
+      <c r="A364" s="11"/>
       <c r="B364" s="2">
         <f t="shared" si="28"/>
         <v>36374</v>
@@ -16936,7 +16937,7 @@
       <c r="F364" t="s">
         <v>24</v>
       </c>
-      <c r="G364" s="9"/>
+      <c r="G364" s="11"/>
       <c r="H364">
         <v>170</v>
       </c>
@@ -16961,7 +16962,7 @@
       </c>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A365" s="9"/>
+      <c r="A365" s="11"/>
       <c r="B365" s="2">
         <f t="shared" si="28"/>
         <v>46774</v>
@@ -16979,7 +16980,7 @@
       <c r="F365" t="s">
         <v>25</v>
       </c>
-      <c r="G365" s="9"/>
+      <c r="G365" s="11"/>
       <c r="H365">
         <v>109</v>
       </c>
@@ -17004,7 +17005,7 @@
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A366" s="9"/>
+      <c r="A366" s="11"/>
       <c r="B366" s="2">
         <f t="shared" si="28"/>
         <v>58474</v>
@@ -17022,7 +17023,7 @@
       <c r="F366" t="s">
         <v>26</v>
       </c>
-      <c r="G366" s="9"/>
+      <c r="G366" s="11"/>
       <c r="H366">
         <v>126</v>
       </c>
@@ -17047,7 +17048,7 @@
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A367" s="9"/>
+      <c r="A367" s="11"/>
       <c r="B367" s="2">
         <f t="shared" si="28"/>
         <v>71474</v>
@@ -17065,7 +17066,7 @@
       <c r="F367" t="s">
         <v>27</v>
       </c>
-      <c r="G367" s="9"/>
+      <c r="G367" s="11"/>
       <c r="H367">
         <v>76</v>
       </c>
@@ -17090,7 +17091,7 @@
       </c>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A368" s="9"/>
+      <c r="A368" s="11"/>
       <c r="B368" s="2">
         <f t="shared" si="28"/>
         <v>90974</v>
@@ -17108,7 +17109,7 @@
       <c r="F368" t="s">
         <v>28</v>
       </c>
-      <c r="G368" s="9"/>
+      <c r="G368" s="11"/>
       <c r="H368">
         <v>92</v>
       </c>
@@ -17133,7 +17134,7 @@
       </c>
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A369" s="9"/>
+      <c r="A369" s="11"/>
       <c r="B369" s="2">
         <f t="shared" si="28"/>
         <v>156000</v>
@@ -17151,7 +17152,7 @@
       <c r="F369" t="s">
         <v>29</v>
       </c>
-      <c r="G369" s="9"/>
+      <c r="G369" s="11"/>
       <c r="H369">
         <v>103</v>
       </c>
@@ -17176,7 +17177,7 @@
       </c>
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A370" s="9"/>
+      <c r="A370" s="11"/>
       <c r="B370" s="2">
         <f t="shared" si="28"/>
         <v>-5200</v>
@@ -17194,7 +17195,7 @@
       <c r="F370">
         <v>-100</v>
       </c>
-      <c r="G370" s="9" t="s">
+      <c r="G370" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H370">
@@ -17221,7 +17222,7 @@
       </c>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A371" s="9"/>
+      <c r="A371" s="11"/>
       <c r="B371" s="2">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -17239,7 +17240,7 @@
       <c r="F371">
         <v>0</v>
       </c>
-      <c r="G371" s="9"/>
+      <c r="G371" s="11"/>
       <c r="H371">
         <v>3</v>
       </c>
@@ -17264,7 +17265,7 @@
       </c>
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A372" s="9"/>
+      <c r="A372" s="11"/>
       <c r="B372" s="2">
         <f t="shared" si="28"/>
         <v>5200</v>
@@ -17282,7 +17283,7 @@
       <c r="F372" t="s">
         <v>20</v>
       </c>
-      <c r="G372" s="9"/>
+      <c r="G372" s="11"/>
       <c r="H372">
         <v>9</v>
       </c>
@@ -17307,7 +17308,7 @@
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A373" s="9"/>
+      <c r="A373" s="11"/>
       <c r="B373" s="2">
         <f t="shared" si="28"/>
         <v>12974</v>
@@ -17325,7 +17326,7 @@
       <c r="F373" t="s">
         <v>21</v>
       </c>
-      <c r="G373" s="9"/>
+      <c r="G373" s="11"/>
       <c r="H373">
         <v>4</v>
       </c>
@@ -17350,7 +17351,7 @@
       </c>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A374" s="9"/>
+      <c r="A374" s="11"/>
       <c r="B374" s="2">
         <f t="shared" si="28"/>
         <v>18174</v>
@@ -17368,7 +17369,7 @@
       <c r="F374" t="s">
         <v>22</v>
       </c>
-      <c r="G374" s="9"/>
+      <c r="G374" s="11"/>
       <c r="H374">
         <v>18</v>
       </c>
@@ -17393,7 +17394,7 @@
       </c>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A375" s="9"/>
+      <c r="A375" s="11"/>
       <c r="B375" s="2">
         <f t="shared" si="28"/>
         <v>25974</v>
@@ -17411,7 +17412,7 @@
       <c r="F375" t="s">
         <v>23</v>
       </c>
-      <c r="G375" s="9"/>
+      <c r="G375" s="11"/>
       <c r="H375">
         <v>17</v>
       </c>
@@ -17436,7 +17437,7 @@
       </c>
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A376" s="9"/>
+      <c r="A376" s="11"/>
       <c r="B376" s="2">
         <f t="shared" si="28"/>
         <v>36374</v>
@@ -17454,7 +17455,7 @@
       <c r="F376" t="s">
         <v>24</v>
       </c>
-      <c r="G376" s="9"/>
+      <c r="G376" s="11"/>
       <c r="H376">
         <v>24</v>
       </c>
@@ -17479,7 +17480,7 @@
       </c>
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A377" s="9"/>
+      <c r="A377" s="11"/>
       <c r="B377" s="2">
         <f t="shared" si="28"/>
         <v>46774</v>
@@ -17497,7 +17498,7 @@
       <c r="F377" t="s">
         <v>25</v>
       </c>
-      <c r="G377" s="9"/>
+      <c r="G377" s="11"/>
       <c r="H377">
         <v>23</v>
       </c>
@@ -17522,7 +17523,7 @@
       </c>
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A378" s="9"/>
+      <c r="A378" s="11"/>
       <c r="B378" s="2">
         <f t="shared" si="28"/>
         <v>58474</v>
@@ -17540,7 +17541,7 @@
       <c r="F378" t="s">
         <v>26</v>
       </c>
-      <c r="G378" s="9"/>
+      <c r="G378" s="11"/>
       <c r="H378">
         <v>31</v>
       </c>
@@ -17565,7 +17566,7 @@
       </c>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A379" s="9"/>
+      <c r="A379" s="11"/>
       <c r="B379" s="2">
         <f t="shared" si="28"/>
         <v>71474</v>
@@ -17583,7 +17584,7 @@
       <c r="F379" t="s">
         <v>27</v>
       </c>
-      <c r="G379" s="9"/>
+      <c r="G379" s="11"/>
       <c r="H379">
         <v>18</v>
       </c>
@@ -17608,7 +17609,7 @@
       </c>
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A380" s="9"/>
+      <c r="A380" s="11"/>
       <c r="B380" s="2">
         <f t="shared" si="28"/>
         <v>90974</v>
@@ -17626,7 +17627,7 @@
       <c r="F380" t="s">
         <v>28</v>
       </c>
-      <c r="G380" s="9"/>
+      <c r="G380" s="11"/>
       <c r="H380">
         <v>23</v>
       </c>
@@ -17651,7 +17652,7 @@
       </c>
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A381" s="9"/>
+      <c r="A381" s="11"/>
       <c r="B381" s="2">
         <f t="shared" si="28"/>
         <v>156000</v>
@@ -17669,7 +17670,7 @@
       <c r="F381" t="s">
         <v>29</v>
       </c>
-      <c r="G381" s="9"/>
+      <c r="G381" s="11"/>
       <c r="H381">
         <v>27</v>
       </c>
@@ -17694,7 +17695,7 @@
       </c>
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A382" s="9"/>
+      <c r="A382" s="11"/>
       <c r="B382" s="2">
         <f t="shared" si="28"/>
         <v>-5200</v>
@@ -17712,7 +17713,7 @@
       <c r="F382">
         <v>-100</v>
       </c>
-      <c r="G382" s="9" t="s">
+      <c r="G382" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H382">
@@ -17739,7 +17740,7 @@
       </c>
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A383" s="9"/>
+      <c r="A383" s="11"/>
       <c r="B383" s="2">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -17757,7 +17758,7 @@
       <c r="F383">
         <v>0</v>
       </c>
-      <c r="G383" s="9"/>
+      <c r="G383" s="11"/>
       <c r="H383">
         <v>0</v>
       </c>
@@ -17782,7 +17783,7 @@
       </c>
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A384" s="9"/>
+      <c r="A384" s="11"/>
       <c r="B384" s="2">
         <f t="shared" ref="B384:B438" si="31">C384*52</f>
         <v>5200</v>
@@ -17800,7 +17801,7 @@
       <c r="F384" t="s">
         <v>20</v>
       </c>
-      <c r="G384" s="9"/>
+      <c r="G384" s="11"/>
       <c r="H384">
         <v>0</v>
       </c>
@@ -17820,12 +17821,12 @@
         <v>0</v>
       </c>
       <c r="N384">
-        <f t="shared" ref="N384:P438" si="33">SUM(H384:M384)</f>
+        <f t="shared" ref="N384:N438" si="33">SUM(H384:M384)</f>
         <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A385" s="9"/>
+      <c r="A385" s="11"/>
       <c r="B385" s="2">
         <f t="shared" si="31"/>
         <v>12974</v>
@@ -17843,7 +17844,7 @@
       <c r="F385" t="s">
         <v>21</v>
       </c>
-      <c r="G385" s="9"/>
+      <c r="G385" s="11"/>
       <c r="H385">
         <v>0</v>
       </c>
@@ -17868,7 +17869,7 @@
       </c>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A386" s="9"/>
+      <c r="A386" s="11"/>
       <c r="B386" s="2">
         <f t="shared" si="31"/>
         <v>18174</v>
@@ -17886,7 +17887,7 @@
       <c r="F386" t="s">
         <v>22</v>
       </c>
-      <c r="G386" s="9"/>
+      <c r="G386" s="11"/>
       <c r="H386">
         <v>0</v>
       </c>
@@ -17911,7 +17912,7 @@
       </c>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A387" s="9"/>
+      <c r="A387" s="11"/>
       <c r="B387" s="2">
         <f t="shared" si="31"/>
         <v>25974</v>
@@ -17929,7 +17930,7 @@
       <c r="F387" t="s">
         <v>23</v>
       </c>
-      <c r="G387" s="9"/>
+      <c r="G387" s="11"/>
       <c r="H387">
         <v>0</v>
       </c>
@@ -17954,7 +17955,7 @@
       </c>
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A388" s="9"/>
+      <c r="A388" s="11"/>
       <c r="B388" s="2">
         <f t="shared" si="31"/>
         <v>36374</v>
@@ -17972,7 +17973,7 @@
       <c r="F388" t="s">
         <v>24</v>
       </c>
-      <c r="G388" s="9"/>
+      <c r="G388" s="11"/>
       <c r="H388">
         <v>0</v>
       </c>
@@ -17997,7 +17998,7 @@
       </c>
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A389" s="9"/>
+      <c r="A389" s="11"/>
       <c r="B389" s="2">
         <f t="shared" si="31"/>
         <v>46774</v>
@@ -18015,7 +18016,7 @@
       <c r="F389" t="s">
         <v>25</v>
       </c>
-      <c r="G389" s="9"/>
+      <c r="G389" s="11"/>
       <c r="H389">
         <v>0</v>
       </c>
@@ -18040,7 +18041,7 @@
       </c>
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A390" s="9"/>
+      <c r="A390" s="11"/>
       <c r="B390" s="2">
         <f t="shared" si="31"/>
         <v>58474</v>
@@ -18058,7 +18059,7 @@
       <c r="F390" t="s">
         <v>26</v>
       </c>
-      <c r="G390" s="9"/>
+      <c r="G390" s="11"/>
       <c r="H390">
         <v>0</v>
       </c>
@@ -18083,7 +18084,7 @@
       </c>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A391" s="9"/>
+      <c r="A391" s="11"/>
       <c r="B391" s="2">
         <f t="shared" si="31"/>
         <v>71474</v>
@@ -18101,7 +18102,7 @@
       <c r="F391" t="s">
         <v>27</v>
       </c>
-      <c r="G391" s="9"/>
+      <c r="G391" s="11"/>
       <c r="H391">
         <v>0</v>
       </c>
@@ -18126,7 +18127,7 @@
       </c>
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A392" s="9"/>
+      <c r="A392" s="11"/>
       <c r="B392" s="2">
         <f t="shared" si="31"/>
         <v>90974</v>
@@ -18144,7 +18145,7 @@
       <c r="F392" t="s">
         <v>28</v>
       </c>
-      <c r="G392" s="9"/>
+      <c r="G392" s="11"/>
       <c r="H392">
         <v>0</v>
       </c>
@@ -18169,7 +18170,7 @@
       </c>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A393" s="9"/>
+      <c r="A393" s="11"/>
       <c r="B393" s="2">
         <f t="shared" si="31"/>
         <v>156000</v>
@@ -18187,7 +18188,7 @@
       <c r="F393" t="s">
         <v>29</v>
       </c>
-      <c r="G393" s="9"/>
+      <c r="G393" s="11"/>
       <c r="H393">
         <v>0</v>
       </c>
@@ -18212,7 +18213,7 @@
       </c>
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A394" s="9">
+      <c r="A394" s="11">
         <v>2016</v>
       </c>
       <c r="B394" s="2">
@@ -18232,7 +18233,7 @@
       <c r="F394">
         <v>0</v>
       </c>
-      <c r="G394" s="9" t="s">
+      <c r="G394" s="11" t="s">
         <v>42</v>
       </c>
       <c r="H394">
@@ -18259,7 +18260,7 @@
       </c>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A395" s="9"/>
+      <c r="A395" s="11"/>
       <c r="B395" s="2">
         <f t="shared" si="31"/>
         <v>3900</v>
@@ -18277,7 +18278,7 @@
       <c r="F395" t="s">
         <v>30</v>
       </c>
-      <c r="G395" s="9"/>
+      <c r="G395" s="11"/>
       <c r="H395">
         <v>4011</v>
       </c>
@@ -18302,7 +18303,7 @@
       </c>
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A396" s="9"/>
+      <c r="A396" s="11"/>
       <c r="B396" s="2">
         <f t="shared" si="31"/>
         <v>11674</v>
@@ -18320,7 +18321,7 @@
       <c r="F396" t="s">
         <v>31</v>
       </c>
-      <c r="G396" s="9"/>
+      <c r="G396" s="11"/>
       <c r="H396">
         <v>7424</v>
       </c>
@@ -18345,7 +18346,7 @@
       </c>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A397" s="9"/>
+      <c r="A397" s="11"/>
       <c r="B397" s="2">
         <f t="shared" si="31"/>
         <v>18174</v>
@@ -18363,7 +18364,7 @@
       <c r="F397" t="s">
         <v>22</v>
       </c>
-      <c r="G397" s="9"/>
+      <c r="G397" s="11"/>
       <c r="H397">
         <v>25266</v>
       </c>
@@ -18388,7 +18389,7 @@
       </c>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A398" s="9"/>
+      <c r="A398" s="11"/>
       <c r="B398" s="2">
         <f t="shared" si="31"/>
         <v>23374</v>
@@ -18406,7 +18407,7 @@
       <c r="F398" t="s">
         <v>32</v>
       </c>
-      <c r="G398" s="9"/>
+      <c r="G398" s="11"/>
       <c r="H398">
         <v>48767</v>
       </c>
@@ -18431,7 +18432,7 @@
       </c>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A399" s="9"/>
+      <c r="A399" s="11"/>
       <c r="B399" s="2">
         <f t="shared" si="31"/>
         <v>29874</v>
@@ -18449,7 +18450,7 @@
       <c r="F399" t="s">
         <v>33</v>
       </c>
-      <c r="G399" s="9"/>
+      <c r="G399" s="11"/>
       <c r="H399">
         <v>41407</v>
       </c>
@@ -18474,7 +18475,7 @@
       </c>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A400" s="9"/>
+      <c r="A400" s="11"/>
       <c r="B400" s="2">
         <f t="shared" si="31"/>
         <v>37674</v>
@@ -18492,7 +18493,7 @@
       <c r="F400" t="s">
         <v>34</v>
       </c>
-      <c r="G400" s="9"/>
+      <c r="G400" s="11"/>
       <c r="H400">
         <v>38004</v>
       </c>
@@ -18517,7 +18518,7 @@
       </c>
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A401" s="9"/>
+      <c r="A401" s="11"/>
       <c r="B401" s="2">
         <f t="shared" si="31"/>
         <v>46774</v>
@@ -18535,7 +18536,7 @@
       <c r="F401" t="s">
         <v>25</v>
       </c>
-      <c r="G401" s="9"/>
+      <c r="G401" s="11"/>
       <c r="H401">
         <v>40910</v>
       </c>
@@ -18560,7 +18561,7 @@
       </c>
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A402" s="9"/>
+      <c r="A402" s="11"/>
       <c r="B402" s="2">
         <f t="shared" si="31"/>
         <v>58474</v>
@@ -18578,7 +18579,7 @@
       <c r="F402" t="s">
         <v>26</v>
       </c>
-      <c r="G402" s="9"/>
+      <c r="G402" s="11"/>
       <c r="H402">
         <v>43756</v>
       </c>
@@ -18603,7 +18604,7 @@
       </c>
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A403" s="9"/>
+      <c r="A403" s="11"/>
       <c r="B403" s="2">
         <f t="shared" si="31"/>
         <v>71474</v>
@@ -18621,7 +18622,7 @@
       <c r="F403" t="s">
         <v>27</v>
       </c>
-      <c r="G403" s="9"/>
+      <c r="G403" s="11"/>
       <c r="H403">
         <v>32029</v>
       </c>
@@ -18646,7 +18647,7 @@
       </c>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A404" s="9"/>
+      <c r="A404" s="11"/>
       <c r="B404" s="2">
         <f t="shared" si="31"/>
         <v>84474</v>
@@ -18664,7 +18665,7 @@
       <c r="F404" t="s">
         <v>35</v>
       </c>
-      <c r="G404" s="9"/>
+      <c r="G404" s="11"/>
       <c r="H404">
         <v>26763</v>
       </c>
@@ -18689,7 +18690,7 @@
       </c>
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A405" s="9"/>
+      <c r="A405" s="11"/>
       <c r="B405" s="2">
         <f t="shared" si="31"/>
         <v>97474</v>
@@ -18707,7 +18708,7 @@
       <c r="F405" t="s">
         <v>36</v>
       </c>
-      <c r="G405" s="9"/>
+      <c r="G405" s="11"/>
       <c r="H405">
         <v>22196</v>
       </c>
@@ -18732,7 +18733,7 @@
       </c>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A406" s="9"/>
+      <c r="A406" s="11"/>
       <c r="B406" s="2">
         <f t="shared" si="31"/>
         <v>116974</v>
@@ -18750,7 +18751,7 @@
       <c r="F406" t="s">
         <v>37</v>
       </c>
-      <c r="G406" s="9"/>
+      <c r="G406" s="11"/>
       <c r="H406">
         <v>20638</v>
       </c>
@@ -18775,7 +18776,7 @@
       </c>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A407" s="9"/>
+      <c r="A407" s="11"/>
       <c r="B407" s="2">
         <f t="shared" si="31"/>
         <v>142974</v>
@@ -18793,7 +18794,7 @@
       <c r="F407" t="s">
         <v>38</v>
       </c>
-      <c r="G407" s="9"/>
+      <c r="G407" s="11"/>
       <c r="H407">
         <v>9368</v>
       </c>
@@ -18818,7 +18819,7 @@
       </c>
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A408" s="9"/>
+      <c r="A408" s="11"/>
       <c r="B408" s="2">
         <f t="shared" si="31"/>
         <v>208000</v>
@@ -18836,7 +18837,7 @@
       <c r="F408" t="s">
         <v>39</v>
       </c>
-      <c r="G408" s="9"/>
+      <c r="G408" s="11"/>
       <c r="H408">
         <v>15131</v>
       </c>
@@ -18861,7 +18862,7 @@
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A409" s="9"/>
+      <c r="A409" s="11"/>
       <c r="B409" s="2">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -18879,7 +18880,7 @@
       <c r="F409">
         <v>0</v>
       </c>
-      <c r="G409" s="9" t="s">
+      <c r="G409" s="11" t="s">
         <v>43</v>
       </c>
       <c r="H409">
@@ -18908,7 +18909,7 @@
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A410" s="9"/>
+      <c r="A410" s="11"/>
       <c r="B410" s="2">
         <f t="shared" si="31"/>
         <v>3900</v>
@@ -18926,7 +18927,7 @@
       <c r="F410" t="s">
         <v>30</v>
       </c>
-      <c r="G410" s="9"/>
+      <c r="G410" s="11"/>
       <c r="H410">
         <v>499</v>
       </c>
@@ -18953,7 +18954,7 @@
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A411" s="9"/>
+      <c r="A411" s="11"/>
       <c r="B411" s="2">
         <f t="shared" si="31"/>
         <v>11674</v>
@@ -18971,7 +18972,7 @@
       <c r="F411" t="s">
         <v>31</v>
       </c>
-      <c r="G411" s="9"/>
+      <c r="G411" s="11"/>
       <c r="H411">
         <v>1129</v>
       </c>
@@ -18998,7 +18999,7 @@
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A412" s="9"/>
+      <c r="A412" s="11"/>
       <c r="B412" s="2">
         <f t="shared" si="31"/>
         <v>18174</v>
@@ -19016,7 +19017,7 @@
       <c r="F412" t="s">
         <v>22</v>
       </c>
-      <c r="G412" s="9"/>
+      <c r="G412" s="11"/>
       <c r="H412">
         <v>3205</v>
       </c>
@@ -19043,7 +19044,7 @@
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A413" s="9"/>
+      <c r="A413" s="11"/>
       <c r="B413" s="2">
         <f t="shared" si="31"/>
         <v>23374</v>
@@ -19061,7 +19062,7 @@
       <c r="F413" t="s">
         <v>32</v>
       </c>
-      <c r="G413" s="9"/>
+      <c r="G413" s="11"/>
       <c r="H413">
         <v>5934</v>
       </c>
@@ -19088,7 +19089,7 @@
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A414" s="9"/>
+      <c r="A414" s="11"/>
       <c r="B414" s="2">
         <f t="shared" si="31"/>
         <v>29874</v>
@@ -19106,7 +19107,7 @@
       <c r="F414" t="s">
         <v>33</v>
       </c>
-      <c r="G414" s="9"/>
+      <c r="G414" s="11"/>
       <c r="H414">
         <v>5291</v>
       </c>
@@ -19133,7 +19134,7 @@
       </c>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A415" s="9"/>
+      <c r="A415" s="11"/>
       <c r="B415" s="2">
         <f t="shared" si="31"/>
         <v>37674</v>
@@ -19151,7 +19152,7 @@
       <c r="F415" t="s">
         <v>34</v>
       </c>
-      <c r="G415" s="9"/>
+      <c r="G415" s="11"/>
       <c r="H415">
         <v>5173</v>
       </c>
@@ -19178,7 +19179,7 @@
       </c>
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A416" s="9"/>
+      <c r="A416" s="11"/>
       <c r="B416" s="2">
         <f t="shared" si="31"/>
         <v>46774</v>
@@ -19196,7 +19197,7 @@
       <c r="F416" t="s">
         <v>25</v>
       </c>
-      <c r="G416" s="9"/>
+      <c r="G416" s="11"/>
       <c r="H416">
         <v>6213</v>
       </c>
@@ -19223,7 +19224,7 @@
       </c>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A417" s="9"/>
+      <c r="A417" s="11"/>
       <c r="B417" s="2">
         <f t="shared" si="31"/>
         <v>58474</v>
@@ -19241,7 +19242,7 @@
       <c r="F417" t="s">
         <v>26</v>
       </c>
-      <c r="G417" s="9"/>
+      <c r="G417" s="11"/>
       <c r="H417">
         <v>7380</v>
       </c>
@@ -19268,7 +19269,7 @@
       </c>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A418" s="9"/>
+      <c r="A418" s="11"/>
       <c r="B418" s="2">
         <f t="shared" si="31"/>
         <v>71474</v>
@@ -19286,7 +19287,7 @@
       <c r="F418" t="s">
         <v>27</v>
       </c>
-      <c r="G418" s="9"/>
+      <c r="G418" s="11"/>
       <c r="H418">
         <v>6127</v>
       </c>
@@ -19313,7 +19314,7 @@
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A419" s="9"/>
+      <c r="A419" s="11"/>
       <c r="B419" s="2">
         <f t="shared" si="31"/>
         <v>84474</v>
@@ -19331,7 +19332,7 @@
       <c r="F419" t="s">
         <v>35</v>
       </c>
-      <c r="G419" s="9"/>
+      <c r="G419" s="11"/>
       <c r="H419">
         <v>5519</v>
       </c>
@@ -19358,7 +19359,7 @@
       </c>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A420" s="9"/>
+      <c r="A420" s="11"/>
       <c r="B420" s="2">
         <f t="shared" si="31"/>
         <v>97474</v>
@@ -19376,7 +19377,7 @@
       <c r="F420" t="s">
         <v>36</v>
       </c>
-      <c r="G420" s="9"/>
+      <c r="G420" s="11"/>
       <c r="H420">
         <v>5608</v>
       </c>
@@ -19403,7 +19404,7 @@
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A421" s="9"/>
+      <c r="A421" s="11"/>
       <c r="B421" s="2">
         <f t="shared" si="31"/>
         <v>116974</v>
@@ -19421,7 +19422,7 @@
       <c r="F421" t="s">
         <v>37</v>
       </c>
-      <c r="G421" s="9"/>
+      <c r="G421" s="11"/>
       <c r="H421">
         <v>5971</v>
       </c>
@@ -19448,7 +19449,7 @@
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A422" s="9"/>
+      <c r="A422" s="11"/>
       <c r="B422" s="2">
         <f t="shared" si="31"/>
         <v>142974</v>
@@ -19466,7 +19467,7 @@
       <c r="F422" t="s">
         <v>38</v>
       </c>
-      <c r="G422" s="9"/>
+      <c r="G422" s="11"/>
       <c r="H422">
         <v>3078</v>
       </c>
@@ -19493,7 +19494,7 @@
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A423" s="9"/>
+      <c r="A423" s="11"/>
       <c r="B423" s="2">
         <f t="shared" si="31"/>
         <v>208000</v>
@@ -19511,7 +19512,7 @@
       <c r="F423" t="s">
         <v>39</v>
       </c>
-      <c r="G423" s="9"/>
+      <c r="G423" s="11"/>
       <c r="H423">
         <v>5412</v>
       </c>
@@ -19538,7 +19539,7 @@
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A424" s="9"/>
+      <c r="A424" s="11"/>
       <c r="B424" s="2">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -19556,7 +19557,7 @@
       <c r="F424">
         <v>0</v>
       </c>
-      <c r="G424" s="9" t="s">
+      <c r="G424" s="11" t="s">
         <v>44</v>
       </c>
       <c r="H424">
@@ -19585,7 +19586,7 @@
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A425" s="9"/>
+      <c r="A425" s="11"/>
       <c r="B425" s="2">
         <f t="shared" si="31"/>
         <v>3900</v>
@@ -19603,7 +19604,7 @@
       <c r="F425" t="s">
         <v>30</v>
       </c>
-      <c r="G425" s="9"/>
+      <c r="G425" s="11"/>
       <c r="H425">
         <v>216</v>
       </c>
@@ -19630,7 +19631,7 @@
       </c>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A426" s="9"/>
+      <c r="A426" s="11"/>
       <c r="B426" s="2">
         <f t="shared" si="31"/>
         <v>11674</v>
@@ -19648,7 +19649,7 @@
       <c r="F426" t="s">
         <v>31</v>
       </c>
-      <c r="G426" s="9"/>
+      <c r="G426" s="11"/>
       <c r="H426">
         <v>656</v>
       </c>
@@ -19675,7 +19676,7 @@
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A427" s="9"/>
+      <c r="A427" s="11"/>
       <c r="B427" s="2">
         <f t="shared" si="31"/>
         <v>18174</v>
@@ -19693,7 +19694,7 @@
       <c r="F427" t="s">
         <v>22</v>
       </c>
-      <c r="G427" s="9"/>
+      <c r="G427" s="11"/>
       <c r="H427">
         <v>1344</v>
       </c>
@@ -19720,7 +19721,7 @@
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A428" s="9"/>
+      <c r="A428" s="11"/>
       <c r="B428" s="2">
         <f t="shared" si="31"/>
         <v>23374</v>
@@ -19738,7 +19739,7 @@
       <c r="F428" t="s">
         <v>32</v>
       </c>
-      <c r="G428" s="9"/>
+      <c r="G428" s="11"/>
       <c r="H428">
         <v>2093</v>
       </c>
@@ -19765,7 +19766,7 @@
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A429" s="9"/>
+      <c r="A429" s="11"/>
       <c r="B429" s="2">
         <f t="shared" si="31"/>
         <v>29874</v>
@@ -19783,7 +19784,7 @@
       <c r="F429" t="s">
         <v>33</v>
       </c>
-      <c r="G429" s="9"/>
+      <c r="G429" s="11"/>
       <c r="H429">
         <v>2416</v>
       </c>
@@ -19810,7 +19811,7 @@
       </c>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A430" s="9"/>
+      <c r="A430" s="11"/>
       <c r="B430" s="2">
         <f t="shared" si="31"/>
         <v>37674</v>
@@ -19828,7 +19829,7 @@
       <c r="F430" t="s">
         <v>34</v>
       </c>
-      <c r="G430" s="9"/>
+      <c r="G430" s="11"/>
       <c r="H430">
         <v>2575</v>
       </c>
@@ -19855,7 +19856,7 @@
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A431" s="9"/>
+      <c r="A431" s="11"/>
       <c r="B431" s="2">
         <f t="shared" si="31"/>
         <v>46774</v>
@@ -19873,7 +19874,7 @@
       <c r="F431" t="s">
         <v>25</v>
       </c>
-      <c r="G431" s="9"/>
+      <c r="G431" s="11"/>
       <c r="H431">
         <v>3195</v>
       </c>
@@ -19900,7 +19901,7 @@
       </c>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A432" s="9"/>
+      <c r="A432" s="11"/>
       <c r="B432" s="2">
         <f t="shared" si="31"/>
         <v>58474</v>
@@ -19918,7 +19919,7 @@
       <c r="F432" t="s">
         <v>26</v>
       </c>
-      <c r="G432" s="9"/>
+      <c r="G432" s="11"/>
       <c r="H432">
         <v>4217</v>
       </c>
@@ -19945,7 +19946,7 @@
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A433" s="9"/>
+      <c r="A433" s="11"/>
       <c r="B433" s="2">
         <f t="shared" si="31"/>
         <v>71474</v>
@@ -19963,7 +19964,7 @@
       <c r="F433" t="s">
         <v>27</v>
       </c>
-      <c r="G433" s="9"/>
+      <c r="G433" s="11"/>
       <c r="H433">
         <v>3355</v>
       </c>
@@ -19990,7 +19991,7 @@
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A434" s="9"/>
+      <c r="A434" s="11"/>
       <c r="B434" s="2">
         <f t="shared" si="31"/>
         <v>84474</v>
@@ -20008,7 +20009,7 @@
       <c r="F434" t="s">
         <v>35</v>
       </c>
-      <c r="G434" s="9"/>
+      <c r="G434" s="11"/>
       <c r="H434">
         <v>3175</v>
       </c>
@@ -20035,7 +20036,7 @@
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A435" s="9"/>
+      <c r="A435" s="11"/>
       <c r="B435" s="2">
         <f t="shared" si="31"/>
         <v>97474</v>
@@ -20053,7 +20054,7 @@
       <c r="F435" t="s">
         <v>36</v>
       </c>
-      <c r="G435" s="9"/>
+      <c r="G435" s="11"/>
       <c r="H435">
         <v>3102</v>
       </c>
@@ -20080,7 +20081,7 @@
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A436" s="9"/>
+      <c r="A436" s="11"/>
       <c r="B436" s="2">
         <f t="shared" si="31"/>
         <v>116974</v>
@@ -20098,7 +20099,7 @@
       <c r="F436" t="s">
         <v>37</v>
       </c>
-      <c r="G436" s="9"/>
+      <c r="G436" s="11"/>
       <c r="H436">
         <v>3196</v>
       </c>
@@ -20125,7 +20126,7 @@
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A437" s="9"/>
+      <c r="A437" s="11"/>
       <c r="B437" s="2">
         <f t="shared" si="31"/>
         <v>142974</v>
@@ -20143,7 +20144,7 @@
       <c r="F437" t="s">
         <v>38</v>
       </c>
-      <c r="G437" s="9"/>
+      <c r="G437" s="11"/>
       <c r="H437">
         <v>1400</v>
       </c>
@@ -20170,7 +20171,7 @@
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A438" s="9"/>
+      <c r="A438" s="11"/>
       <c r="B438" s="2">
         <f t="shared" si="31"/>
         <v>208000</v>
@@ -20188,7 +20189,7 @@
       <c r="F438" t="s">
         <v>39</v>
       </c>
-      <c r="G438" s="9"/>
+      <c r="G438" s="11"/>
       <c r="H438">
         <v>1904</v>
       </c>
@@ -20215,7 +20216,7 @@
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A439" s="9"/>
+      <c r="A439" s="11"/>
       <c r="B439" s="2">
         <f t="shared" ref="B439:B490" si="38">C439*52</f>
         <v>0</v>
@@ -20233,7 +20234,7 @@
       <c r="F439">
         <v>0</v>
       </c>
-      <c r="G439" s="9" t="s">
+      <c r="G439" s="11" t="s">
         <v>45</v>
       </c>
       <c r="H439">
@@ -20260,7 +20261,7 @@
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A440" s="9"/>
+      <c r="A440" s="11"/>
       <c r="B440" s="2">
         <f t="shared" si="38"/>
         <v>3900</v>
@@ -20278,7 +20279,7 @@
       <c r="F440" t="s">
         <v>30</v>
       </c>
-      <c r="G440" s="9"/>
+      <c r="G440" s="11"/>
       <c r="H440">
         <v>230</v>
       </c>
@@ -20303,7 +20304,7 @@
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A441" s="9"/>
+      <c r="A441" s="11"/>
       <c r="B441" s="2">
         <f t="shared" si="38"/>
         <v>11674</v>
@@ -20321,7 +20322,7 @@
       <c r="F441" t="s">
         <v>31</v>
       </c>
-      <c r="G441" s="9"/>
+      <c r="G441" s="11"/>
       <c r="H441">
         <v>483</v>
       </c>
@@ -20346,7 +20347,7 @@
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A442" s="9"/>
+      <c r="A442" s="11"/>
       <c r="B442" s="2">
         <f t="shared" si="38"/>
         <v>18174</v>
@@ -20364,7 +20365,7 @@
       <c r="F442" t="s">
         <v>22</v>
       </c>
-      <c r="G442" s="9"/>
+      <c r="G442" s="11"/>
       <c r="H442">
         <v>723</v>
       </c>
@@ -20389,7 +20390,7 @@
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A443" s="9"/>
+      <c r="A443" s="11"/>
       <c r="B443" s="2">
         <f t="shared" si="38"/>
         <v>23374</v>
@@ -20407,7 +20408,7 @@
       <c r="F443" t="s">
         <v>32</v>
       </c>
-      <c r="G443" s="9"/>
+      <c r="G443" s="11"/>
       <c r="H443">
         <v>747</v>
       </c>
@@ -20432,7 +20433,7 @@
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A444" s="9"/>
+      <c r="A444" s="11"/>
       <c r="B444" s="2">
         <f t="shared" si="38"/>
         <v>29874</v>
@@ -20450,7 +20451,7 @@
       <c r="F444" t="s">
         <v>33</v>
       </c>
-      <c r="G444" s="9"/>
+      <c r="G444" s="11"/>
       <c r="H444">
         <v>1173</v>
       </c>
@@ -20475,7 +20476,7 @@
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A445" s="9"/>
+      <c r="A445" s="11"/>
       <c r="B445" s="2">
         <f t="shared" si="38"/>
         <v>37674</v>
@@ -20493,7 +20494,7 @@
       <c r="F445" t="s">
         <v>34</v>
       </c>
-      <c r="G445" s="9"/>
+      <c r="G445" s="11"/>
       <c r="H445">
         <v>1283</v>
       </c>
@@ -20518,7 +20519,7 @@
       </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A446" s="9"/>
+      <c r="A446" s="11"/>
       <c r="B446" s="2">
         <f t="shared" si="38"/>
         <v>46774</v>
@@ -20536,7 +20537,7 @@
       <c r="F446" t="s">
         <v>25</v>
       </c>
-      <c r="G446" s="9"/>
+      <c r="G446" s="11"/>
       <c r="H446">
         <v>1682</v>
       </c>
@@ -20561,7 +20562,7 @@
       </c>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A447" s="9"/>
+      <c r="A447" s="11"/>
       <c r="B447" s="2">
         <f t="shared" si="38"/>
         <v>58474</v>
@@ -20579,7 +20580,7 @@
       <c r="F447" t="s">
         <v>26</v>
       </c>
-      <c r="G447" s="9"/>
+      <c r="G447" s="11"/>
       <c r="H447">
         <v>2566</v>
       </c>
@@ -20604,7 +20605,7 @@
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A448" s="9"/>
+      <c r="A448" s="11"/>
       <c r="B448" s="2">
         <f t="shared" si="38"/>
         <v>71474</v>
@@ -20622,7 +20623,7 @@
       <c r="F448" t="s">
         <v>27</v>
       </c>
-      <c r="G448" s="9"/>
+      <c r="G448" s="11"/>
       <c r="H448">
         <v>2153</v>
       </c>
@@ -20647,7 +20648,7 @@
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A449" s="9"/>
+      <c r="A449" s="11"/>
       <c r="B449" s="2">
         <f t="shared" si="38"/>
         <v>84474</v>
@@ -20665,7 +20666,7 @@
       <c r="F449" t="s">
         <v>35</v>
       </c>
-      <c r="G449" s="9"/>
+      <c r="G449" s="11"/>
       <c r="H449">
         <v>2341</v>
       </c>
@@ -20690,7 +20691,7 @@
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A450" s="9"/>
+      <c r="A450" s="11"/>
       <c r="B450" s="2">
         <f t="shared" si="38"/>
         <v>97474</v>
@@ -20708,7 +20709,7 @@
       <c r="F450" t="s">
         <v>36</v>
       </c>
-      <c r="G450" s="9"/>
+      <c r="G450" s="11"/>
       <c r="H450">
         <v>2427</v>
       </c>
@@ -20733,7 +20734,7 @@
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A451" s="9"/>
+      <c r="A451" s="11"/>
       <c r="B451" s="2">
         <f t="shared" si="38"/>
         <v>116974</v>
@@ -20751,7 +20752,7 @@
       <c r="F451" t="s">
         <v>37</v>
       </c>
-      <c r="G451" s="9"/>
+      <c r="G451" s="11"/>
       <c r="H451">
         <v>2757</v>
       </c>
@@ -20776,7 +20777,7 @@
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A452" s="9"/>
+      <c r="A452" s="11"/>
       <c r="B452" s="2">
         <f t="shared" si="38"/>
         <v>142974</v>
@@ -20794,7 +20795,7 @@
       <c r="F452" t="s">
         <v>38</v>
       </c>
-      <c r="G452" s="9"/>
+      <c r="G452" s="11"/>
       <c r="H452">
         <v>1531</v>
       </c>
@@ -20819,7 +20820,7 @@
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A453" s="9"/>
+      <c r="A453" s="11"/>
       <c r="B453" s="2">
         <f t="shared" si="38"/>
         <v>208000</v>
@@ -20837,7 +20838,7 @@
       <c r="F453" t="s">
         <v>39</v>
       </c>
-      <c r="G453" s="9"/>
+      <c r="G453" s="11"/>
       <c r="H453">
         <v>2485</v>
       </c>
@@ -20862,7 +20863,7 @@
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A454" s="9"/>
+      <c r="A454" s="11"/>
       <c r="B454" s="2">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -20880,7 +20881,7 @@
       <c r="F454">
         <v>0</v>
       </c>
-      <c r="G454" s="9" t="s">
+      <c r="G454" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H454">
@@ -20907,7 +20908,7 @@
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A455" s="9"/>
+      <c r="A455" s="11"/>
       <c r="B455" s="2">
         <f t="shared" si="38"/>
         <v>3900</v>
@@ -20925,7 +20926,7 @@
       <c r="F455" t="s">
         <v>30</v>
       </c>
-      <c r="G455" s="9"/>
+      <c r="G455" s="11"/>
       <c r="H455">
         <v>7</v>
       </c>
@@ -20950,7 +20951,7 @@
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A456" s="9"/>
+      <c r="A456" s="11"/>
       <c r="B456" s="2">
         <f t="shared" si="38"/>
         <v>11674</v>
@@ -20968,7 +20969,7 @@
       <c r="F456" t="s">
         <v>31</v>
       </c>
-      <c r="G456" s="9"/>
+      <c r="G456" s="11"/>
       <c r="H456">
         <v>13</v>
       </c>
@@ -20993,7 +20994,7 @@
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A457" s="9"/>
+      <c r="A457" s="11"/>
       <c r="B457" s="2">
         <f t="shared" si="38"/>
         <v>18174</v>
@@ -21011,7 +21012,7 @@
       <c r="F457" t="s">
         <v>22</v>
       </c>
-      <c r="G457" s="9"/>
+      <c r="G457" s="11"/>
       <c r="H457">
         <v>43</v>
       </c>
@@ -21036,7 +21037,7 @@
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A458" s="9"/>
+      <c r="A458" s="11"/>
       <c r="B458" s="2">
         <f t="shared" si="38"/>
         <v>23374</v>
@@ -21054,7 +21055,7 @@
       <c r="F458" t="s">
         <v>32</v>
       </c>
-      <c r="G458" s="9"/>
+      <c r="G458" s="11"/>
       <c r="H458">
         <v>94</v>
       </c>
@@ -21079,7 +21080,7 @@
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A459" s="9"/>
+      <c r="A459" s="11"/>
       <c r="B459" s="2">
         <f t="shared" si="38"/>
         <v>29874</v>
@@ -21097,7 +21098,7 @@
       <c r="F459" t="s">
         <v>33</v>
       </c>
-      <c r="G459" s="9"/>
+      <c r="G459" s="11"/>
       <c r="H459">
         <v>48</v>
       </c>
@@ -21122,7 +21123,7 @@
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A460" s="9"/>
+      <c r="A460" s="11"/>
       <c r="B460" s="2">
         <f t="shared" si="38"/>
         <v>37674</v>
@@ -21140,7 +21141,7 @@
       <c r="F460" t="s">
         <v>34</v>
       </c>
-      <c r="G460" s="9"/>
+      <c r="G460" s="11"/>
       <c r="H460">
         <v>46</v>
       </c>
@@ -21165,7 +21166,7 @@
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A461" s="9"/>
+      <c r="A461" s="11"/>
       <c r="B461" s="2">
         <f t="shared" si="38"/>
         <v>46774</v>
@@ -21183,7 +21184,7 @@
       <c r="F461" t="s">
         <v>25</v>
       </c>
-      <c r="G461" s="9"/>
+      <c r="G461" s="11"/>
       <c r="H461">
         <v>35</v>
       </c>
@@ -21208,7 +21209,7 @@
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A462" s="9"/>
+      <c r="A462" s="11"/>
       <c r="B462" s="2">
         <f t="shared" si="38"/>
         <v>58474</v>
@@ -21226,7 +21227,7 @@
       <c r="F462" t="s">
         <v>26</v>
       </c>
-      <c r="G462" s="9"/>
+      <c r="G462" s="11"/>
       <c r="H462">
         <v>22</v>
       </c>
@@ -21251,7 +21252,7 @@
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A463" s="9"/>
+      <c r="A463" s="11"/>
       <c r="B463" s="2">
         <f t="shared" si="38"/>
         <v>71474</v>
@@ -21269,7 +21270,7 @@
       <c r="F463" t="s">
         <v>27</v>
       </c>
-      <c r="G463" s="9"/>
+      <c r="G463" s="11"/>
       <c r="H463">
         <v>11</v>
       </c>
@@ -21294,7 +21295,7 @@
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A464" s="9"/>
+      <c r="A464" s="11"/>
       <c r="B464" s="2">
         <f t="shared" si="38"/>
         <v>84474</v>
@@ -21312,7 +21313,7 @@
       <c r="F464" t="s">
         <v>35</v>
       </c>
-      <c r="G464" s="9"/>
+      <c r="G464" s="11"/>
       <c r="H464">
         <v>10</v>
       </c>
@@ -21337,7 +21338,7 @@
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A465" s="9"/>
+      <c r="A465" s="11"/>
       <c r="B465" s="2">
         <f t="shared" si="38"/>
         <v>97474</v>
@@ -21355,7 +21356,7 @@
       <c r="F465" t="s">
         <v>36</v>
       </c>
-      <c r="G465" s="9"/>
+      <c r="G465" s="11"/>
       <c r="H465">
         <v>10</v>
       </c>
@@ -21380,7 +21381,7 @@
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A466" s="9"/>
+      <c r="A466" s="11"/>
       <c r="B466" s="2">
         <f t="shared" si="38"/>
         <v>116974</v>
@@ -21398,7 +21399,7 @@
       <c r="F466" t="s">
         <v>37</v>
       </c>
-      <c r="G466" s="9"/>
+      <c r="G466" s="11"/>
       <c r="H466">
         <v>7</v>
       </c>
@@ -21423,7 +21424,7 @@
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A467" s="9"/>
+      <c r="A467" s="11"/>
       <c r="B467" s="2">
         <f t="shared" si="38"/>
         <v>142974</v>
@@ -21441,7 +21442,7 @@
       <c r="F467" t="s">
         <v>38</v>
       </c>
-      <c r="G467" s="9"/>
+      <c r="G467" s="11"/>
       <c r="H467">
         <v>4</v>
       </c>
@@ -21466,7 +21467,7 @@
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A468" s="9"/>
+      <c r="A468" s="11"/>
       <c r="B468" s="2">
         <f t="shared" si="38"/>
         <v>208000</v>
@@ -21484,7 +21485,7 @@
       <c r="F468" t="s">
         <v>39</v>
       </c>
-      <c r="G468" s="9"/>
+      <c r="G468" s="11"/>
       <c r="H468">
         <v>4</v>
       </c>
@@ -21509,7 +21510,7 @@
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A469" s="9"/>
+      <c r="A469" s="11"/>
       <c r="B469" s="2">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -21527,7 +21528,7 @@
       <c r="F469">
         <v>0</v>
       </c>
-      <c r="G469" s="9" t="s">
+      <c r="G469" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H469">
@@ -21554,7 +21555,7 @@
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A470" s="9"/>
+      <c r="A470" s="11"/>
       <c r="B470" s="2">
         <f t="shared" si="38"/>
         <v>3900</v>
@@ -21572,7 +21573,7 @@
       <c r="F470" t="s">
         <v>30</v>
       </c>
-      <c r="G470" s="9"/>
+      <c r="G470" s="11"/>
       <c r="H470">
         <v>4</v>
       </c>
@@ -21597,7 +21598,7 @@
       </c>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A471" s="9"/>
+      <c r="A471" s="11"/>
       <c r="B471" s="2">
         <f t="shared" si="38"/>
         <v>11674</v>
@@ -21615,7 +21616,7 @@
       <c r="F471" t="s">
         <v>31</v>
       </c>
-      <c r="G471" s="9"/>
+      <c r="G471" s="11"/>
       <c r="H471">
         <v>9</v>
       </c>
@@ -21640,7 +21641,7 @@
       </c>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A472" s="9"/>
+      <c r="A472" s="11"/>
       <c r="B472" s="2">
         <f t="shared" si="38"/>
         <v>18174</v>
@@ -21658,7 +21659,7 @@
       <c r="F472" t="s">
         <v>22</v>
       </c>
-      <c r="G472" s="9"/>
+      <c r="G472" s="11"/>
       <c r="H472">
         <v>77</v>
       </c>
@@ -21683,7 +21684,7 @@
       </c>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A473" s="9"/>
+      <c r="A473" s="11"/>
       <c r="B473" s="2">
         <f t="shared" si="38"/>
         <v>23374</v>
@@ -21701,7 +21702,7 @@
       <c r="F473" t="s">
         <v>32</v>
       </c>
-      <c r="G473" s="9"/>
+      <c r="G473" s="11"/>
       <c r="H473">
         <v>167</v>
       </c>
@@ -21726,7 +21727,7 @@
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A474" s="9"/>
+      <c r="A474" s="11"/>
       <c r="B474" s="2">
         <f t="shared" si="38"/>
         <v>29874</v>
@@ -21744,7 +21745,7 @@
       <c r="F474" t="s">
         <v>33</v>
       </c>
-      <c r="G474" s="9"/>
+      <c r="G474" s="11"/>
       <c r="H474">
         <v>64</v>
       </c>
@@ -21769,7 +21770,7 @@
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A475" s="9"/>
+      <c r="A475" s="11"/>
       <c r="B475" s="2">
         <f t="shared" si="38"/>
         <v>37674</v>
@@ -21787,7 +21788,7 @@
       <c r="F475" t="s">
         <v>34</v>
       </c>
-      <c r="G475" s="9"/>
+      <c r="G475" s="11"/>
       <c r="H475">
         <v>56</v>
       </c>
@@ -21812,7 +21813,7 @@
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A476" s="9"/>
+      <c r="A476" s="11"/>
       <c r="B476" s="2">
         <f t="shared" si="38"/>
         <v>46774</v>
@@ -21830,7 +21831,7 @@
       <c r="F476" t="s">
         <v>25</v>
       </c>
-      <c r="G476" s="9"/>
+      <c r="G476" s="11"/>
       <c r="H476">
         <v>49</v>
       </c>
@@ -21855,7 +21856,7 @@
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A477" s="9"/>
+      <c r="A477" s="11"/>
       <c r="B477" s="2">
         <f t="shared" si="38"/>
         <v>58474</v>
@@ -21873,7 +21874,7 @@
       <c r="F477" t="s">
         <v>26</v>
       </c>
-      <c r="G477" s="9"/>
+      <c r="G477" s="11"/>
       <c r="H477">
         <v>34</v>
       </c>
@@ -21898,7 +21899,7 @@
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A478" s="9"/>
+      <c r="A478" s="11"/>
       <c r="B478" s="2">
         <f t="shared" si="38"/>
         <v>71474</v>
@@ -21916,7 +21917,7 @@
       <c r="F478" t="s">
         <v>27</v>
       </c>
-      <c r="G478" s="9"/>
+      <c r="G478" s="11"/>
       <c r="H478">
         <v>8</v>
       </c>
@@ -21941,7 +21942,7 @@
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A479" s="9"/>
+      <c r="A479" s="11"/>
       <c r="B479" s="2">
         <f t="shared" si="38"/>
         <v>84474</v>
@@ -21959,7 +21960,7 @@
       <c r="F479" t="s">
         <v>35</v>
       </c>
-      <c r="G479" s="9"/>
+      <c r="G479" s="11"/>
       <c r="H479">
         <v>9</v>
       </c>
@@ -21984,7 +21985,7 @@
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A480" s="9"/>
+      <c r="A480" s="11"/>
       <c r="B480" s="2">
         <f t="shared" si="38"/>
         <v>97474</v>
@@ -22002,7 +22003,7 @@
       <c r="F480" t="s">
         <v>36</v>
       </c>
-      <c r="G480" s="9"/>
+      <c r="G480" s="11"/>
       <c r="H480">
         <v>8</v>
       </c>
@@ -22027,7 +22028,7 @@
       </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A481" s="9"/>
+      <c r="A481" s="11"/>
       <c r="B481" s="2">
         <f t="shared" si="38"/>
         <v>116974</v>
@@ -22045,7 +22046,7 @@
       <c r="F481" t="s">
         <v>37</v>
       </c>
-      <c r="G481" s="9"/>
+      <c r="G481" s="11"/>
       <c r="H481">
         <v>5</v>
       </c>
@@ -22070,7 +22071,7 @@
       </c>
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A482" s="9"/>
+      <c r="A482" s="11"/>
       <c r="B482" s="2">
         <f t="shared" si="38"/>
         <v>142974</v>
@@ -22088,7 +22089,7 @@
       <c r="F482" t="s">
         <v>38</v>
       </c>
-      <c r="G482" s="9"/>
+      <c r="G482" s="11"/>
       <c r="H482">
         <v>7</v>
       </c>
@@ -22113,7 +22114,7 @@
       </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A483" s="9"/>
+      <c r="A483" s="11"/>
       <c r="B483" s="2">
         <f t="shared" si="38"/>
         <v>208000</v>
@@ -22131,7 +22132,7 @@
       <c r="F483" t="s">
         <v>39</v>
       </c>
-      <c r="G483" s="9"/>
+      <c r="G483" s="11"/>
       <c r="H483">
         <v>4</v>
       </c>
@@ -22156,7 +22157,7 @@
       </c>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A484" s="9"/>
+      <c r="A484" s="11"/>
       <c r="B484" s="2">
         <f t="shared" si="38"/>
         <v>0</v>
@@ -22174,7 +22175,7 @@
       <c r="F484">
         <v>0</v>
       </c>
-      <c r="G484" s="9" t="s">
+      <c r="G484" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H484">
@@ -22201,7 +22202,7 @@
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A485" s="9"/>
+      <c r="A485" s="11"/>
       <c r="B485" s="2">
         <f t="shared" si="38"/>
         <v>3900</v>
@@ -22219,7 +22220,7 @@
       <c r="F485" t="s">
         <v>30</v>
       </c>
-      <c r="G485" s="9"/>
+      <c r="G485" s="11"/>
       <c r="H485">
         <v>0</v>
       </c>
@@ -22244,7 +22245,7 @@
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A486" s="9"/>
+      <c r="A486" s="11"/>
       <c r="B486" s="2">
         <f t="shared" si="38"/>
         <v>11674</v>
@@ -22262,7 +22263,7 @@
       <c r="F486" t="s">
         <v>31</v>
       </c>
-      <c r="G486" s="9"/>
+      <c r="G486" s="11"/>
       <c r="H486">
         <v>0</v>
       </c>
@@ -22287,7 +22288,7 @@
       </c>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A487" s="9"/>
+      <c r="A487" s="11"/>
       <c r="B487" s="2">
         <f t="shared" si="38"/>
         <v>18174</v>
@@ -22305,7 +22306,7 @@
       <c r="F487" t="s">
         <v>22</v>
       </c>
-      <c r="G487" s="9"/>
+      <c r="G487" s="11"/>
       <c r="H487">
         <v>3</v>
       </c>
@@ -22330,7 +22331,7 @@
       </c>
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A488" s="9"/>
+      <c r="A488" s="11"/>
       <c r="B488" s="2">
         <f t="shared" si="38"/>
         <v>23374</v>
@@ -22348,7 +22349,7 @@
       <c r="F488" t="s">
         <v>32</v>
       </c>
-      <c r="G488" s="9"/>
+      <c r="G488" s="11"/>
       <c r="H488">
         <v>7</v>
       </c>
@@ -22373,7 +22374,7 @@
       </c>
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A489" s="9"/>
+      <c r="A489" s="11"/>
       <c r="B489" s="2">
         <f t="shared" si="38"/>
         <v>29874</v>
@@ -22391,7 +22392,7 @@
       <c r="F489" t="s">
         <v>33</v>
       </c>
-      <c r="G489" s="9"/>
+      <c r="G489" s="11"/>
       <c r="H489">
         <v>0</v>
       </c>
@@ -22416,7 +22417,7 @@
       </c>
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A490" s="9"/>
+      <c r="A490" s="11"/>
       <c r="B490" s="2">
         <f t="shared" si="38"/>
         <v>37674</v>
@@ -22434,7 +22435,7 @@
       <c r="F490" t="s">
         <v>34</v>
       </c>
-      <c r="G490" s="9"/>
+      <c r="G490" s="11"/>
       <c r="H490">
         <v>9</v>
       </c>
@@ -22459,7 +22460,7 @@
       </c>
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A491" s="9"/>
+      <c r="A491" s="11"/>
       <c r="B491" s="2">
         <f t="shared" ref="B491:B543" si="41">C491*52</f>
         <v>46774</v>
@@ -22477,7 +22478,7 @@
       <c r="F491" t="s">
         <v>25</v>
       </c>
-      <c r="G491" s="9"/>
+      <c r="G491" s="11"/>
       <c r="H491">
         <v>3</v>
       </c>
@@ -22502,7 +22503,7 @@
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A492" s="9"/>
+      <c r="A492" s="11"/>
       <c r="B492" s="2">
         <f t="shared" si="41"/>
         <v>58474</v>
@@ -22520,7 +22521,7 @@
       <c r="F492" t="s">
         <v>26</v>
       </c>
-      <c r="G492" s="9"/>
+      <c r="G492" s="11"/>
       <c r="H492">
         <v>10</v>
       </c>
@@ -22545,7 +22546,7 @@
       </c>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A493" s="9"/>
+      <c r="A493" s="11"/>
       <c r="B493" s="2">
         <f t="shared" si="41"/>
         <v>71474</v>
@@ -22563,7 +22564,7 @@
       <c r="F493" t="s">
         <v>27</v>
       </c>
-      <c r="G493" s="9"/>
+      <c r="G493" s="11"/>
       <c r="H493">
         <v>0</v>
       </c>
@@ -22588,7 +22589,7 @@
       </c>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A494" s="9"/>
+      <c r="A494" s="11"/>
       <c r="B494" s="2">
         <f t="shared" si="41"/>
         <v>84474</v>
@@ -22606,7 +22607,7 @@
       <c r="F494" t="s">
         <v>35</v>
       </c>
-      <c r="G494" s="9"/>
+      <c r="G494" s="11"/>
       <c r="H494">
         <v>0</v>
       </c>
@@ -22631,7 +22632,7 @@
       </c>
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A495" s="9"/>
+      <c r="A495" s="11"/>
       <c r="B495" s="2">
         <f t="shared" si="41"/>
         <v>97474</v>
@@ -22649,7 +22650,7 @@
       <c r="F495" t="s">
         <v>36</v>
       </c>
-      <c r="G495" s="9"/>
+      <c r="G495" s="11"/>
       <c r="H495">
         <v>4</v>
       </c>
@@ -22674,7 +22675,7 @@
       </c>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A496" s="9"/>
+      <c r="A496" s="11"/>
       <c r="B496" s="2">
         <f t="shared" si="41"/>
         <v>116974</v>
@@ -22692,7 +22693,7 @@
       <c r="F496" t="s">
         <v>37</v>
       </c>
-      <c r="G496" s="9"/>
+      <c r="G496" s="11"/>
       <c r="H496">
         <v>0</v>
       </c>
@@ -22717,7 +22718,7 @@
       </c>
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A497" s="9"/>
+      <c r="A497" s="11"/>
       <c r="B497" s="2">
         <f t="shared" si="41"/>
         <v>142974</v>
@@ -22735,7 +22736,7 @@
       <c r="F497" t="s">
         <v>38</v>
       </c>
-      <c r="G497" s="9"/>
+      <c r="G497" s="11"/>
       <c r="H497">
         <v>0</v>
       </c>
@@ -22760,7 +22761,7 @@
       </c>
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A498" s="9"/>
+      <c r="A498" s="11"/>
       <c r="B498" s="2">
         <f t="shared" si="41"/>
         <v>208000</v>
@@ -22778,7 +22779,7 @@
       <c r="F498" t="s">
         <v>39</v>
       </c>
-      <c r="G498" s="9"/>
+      <c r="G498" s="11"/>
       <c r="H498">
         <v>4</v>
       </c>
@@ -22803,7 +22804,7 @@
       </c>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A499" s="9"/>
+      <c r="A499" s="11"/>
       <c r="B499" s="2">
         <f t="shared" si="41"/>
         <v>0</v>
@@ -22821,7 +22822,7 @@
       <c r="F499">
         <v>0</v>
       </c>
-      <c r="G499" s="9" t="s">
+      <c r="G499" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H499">
@@ -22848,7 +22849,7 @@
       </c>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A500" s="9"/>
+      <c r="A500" s="11"/>
       <c r="B500" s="2">
         <f t="shared" si="41"/>
         <v>3900</v>
@@ -22866,7 +22867,7 @@
       <c r="F500" t="s">
         <v>30</v>
       </c>
-      <c r="G500" s="9"/>
+      <c r="G500" s="11"/>
       <c r="H500">
         <v>9</v>
       </c>
@@ -22891,7 +22892,7 @@
       </c>
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A501" s="9"/>
+      <c r="A501" s="11"/>
       <c r="B501" s="2">
         <f t="shared" si="41"/>
         <v>11674</v>
@@ -22909,7 +22910,7 @@
       <c r="F501" t="s">
         <v>31</v>
       </c>
-      <c r="G501" s="9"/>
+      <c r="G501" s="11"/>
       <c r="H501">
         <v>27</v>
       </c>
@@ -22934,7 +22935,7 @@
       </c>
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A502" s="9"/>
+      <c r="A502" s="11"/>
       <c r="B502" s="2">
         <f t="shared" si="41"/>
         <v>18174</v>
@@ -22952,7 +22953,7 @@
       <c r="F502" t="s">
         <v>22</v>
       </c>
-      <c r="G502" s="9"/>
+      <c r="G502" s="11"/>
       <c r="H502">
         <v>59</v>
       </c>
@@ -22977,7 +22978,7 @@
       </c>
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A503" s="9"/>
+      <c r="A503" s="11"/>
       <c r="B503" s="2">
         <f t="shared" si="41"/>
         <v>23374</v>
@@ -22995,7 +22996,7 @@
       <c r="F503" t="s">
         <v>32</v>
       </c>
-      <c r="G503" s="9"/>
+      <c r="G503" s="11"/>
       <c r="H503">
         <v>100</v>
       </c>
@@ -23020,7 +23021,7 @@
       </c>
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A504" s="9"/>
+      <c r="A504" s="11"/>
       <c r="B504" s="2">
         <f t="shared" si="41"/>
         <v>29874</v>
@@ -23038,7 +23039,7 @@
       <c r="F504" t="s">
         <v>33</v>
       </c>
-      <c r="G504" s="9"/>
+      <c r="G504" s="11"/>
       <c r="H504">
         <v>133</v>
       </c>
@@ -23063,7 +23064,7 @@
       </c>
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A505" s="9"/>
+      <c r="A505" s="11"/>
       <c r="B505" s="2">
         <f t="shared" si="41"/>
         <v>37674</v>
@@ -23081,7 +23082,7 @@
       <c r="F505" t="s">
         <v>34</v>
       </c>
-      <c r="G505" s="9"/>
+      <c r="G505" s="11"/>
       <c r="H505">
         <v>107</v>
       </c>
@@ -23106,7 +23107,7 @@
       </c>
     </row>
     <row r="506" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A506" s="9"/>
+      <c r="A506" s="11"/>
       <c r="B506" s="2">
         <f t="shared" si="41"/>
         <v>46774</v>
@@ -23124,7 +23125,7 @@
       <c r="F506" t="s">
         <v>25</v>
       </c>
-      <c r="G506" s="9"/>
+      <c r="G506" s="11"/>
       <c r="H506">
         <v>119</v>
       </c>
@@ -23149,7 +23150,7 @@
       </c>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A507" s="9"/>
+      <c r="A507" s="11"/>
       <c r="B507" s="2">
         <f t="shared" si="41"/>
         <v>58474</v>
@@ -23167,7 +23168,7 @@
       <c r="F507" t="s">
         <v>26</v>
       </c>
-      <c r="G507" s="9"/>
+      <c r="G507" s="11"/>
       <c r="H507">
         <v>150</v>
       </c>
@@ -23192,7 +23193,7 @@
       </c>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A508" s="9"/>
+      <c r="A508" s="11"/>
       <c r="B508" s="2">
         <f t="shared" si="41"/>
         <v>71474</v>
@@ -23210,7 +23211,7 @@
       <c r="F508" t="s">
         <v>27</v>
       </c>
-      <c r="G508" s="9"/>
+      <c r="G508" s="11"/>
       <c r="H508">
         <v>115</v>
       </c>
@@ -23235,7 +23236,7 @@
       </c>
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A509" s="9"/>
+      <c r="A509" s="11"/>
       <c r="B509" s="2">
         <f t="shared" si="41"/>
         <v>84474</v>
@@ -23253,7 +23254,7 @@
       <c r="F509" t="s">
         <v>35</v>
       </c>
-      <c r="G509" s="9"/>
+      <c r="G509" s="11"/>
       <c r="H509">
         <v>112</v>
       </c>
@@ -23278,7 +23279,7 @@
       </c>
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A510" s="9"/>
+      <c r="A510" s="11"/>
       <c r="B510" s="2">
         <f t="shared" si="41"/>
         <v>97474</v>
@@ -23296,7 +23297,7 @@
       <c r="F510" t="s">
         <v>36</v>
       </c>
-      <c r="G510" s="9"/>
+      <c r="G510" s="11"/>
       <c r="H510">
         <v>96</v>
       </c>
@@ -23321,7 +23322,7 @@
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A511" s="9"/>
+      <c r="A511" s="11"/>
       <c r="B511" s="2">
         <f t="shared" si="41"/>
         <v>116974</v>
@@ -23339,7 +23340,7 @@
       <c r="F511" t="s">
         <v>37</v>
       </c>
-      <c r="G511" s="9"/>
+      <c r="G511" s="11"/>
       <c r="H511">
         <v>78</v>
       </c>
@@ -23364,7 +23365,7 @@
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A512" s="9"/>
+      <c r="A512" s="11"/>
       <c r="B512" s="2">
         <f t="shared" si="41"/>
         <v>142974</v>
@@ -23382,7 +23383,7 @@
       <c r="F512" t="s">
         <v>38</v>
       </c>
-      <c r="G512" s="9"/>
+      <c r="G512" s="11"/>
       <c r="H512">
         <v>31</v>
       </c>
@@ -23407,7 +23408,7 @@
       </c>
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A513" s="9"/>
+      <c r="A513" s="11"/>
       <c r="B513" s="2">
         <f t="shared" si="41"/>
         <v>208000</v>
@@ -23425,7 +23426,7 @@
       <c r="F513" t="s">
         <v>39</v>
       </c>
-      <c r="G513" s="9"/>
+      <c r="G513" s="11"/>
       <c r="H513">
         <v>60</v>
       </c>
@@ -23450,7 +23451,7 @@
       </c>
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A514" s="9"/>
+      <c r="A514" s="11"/>
       <c r="B514" s="2">
         <f t="shared" si="41"/>
         <v>0</v>
@@ -23468,7 +23469,7 @@
       <c r="F514">
         <v>0</v>
       </c>
-      <c r="G514" s="9" t="s">
+      <c r="G514" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H514">
@@ -23495,7 +23496,7 @@
       </c>
     </row>
     <row r="515" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A515" s="9"/>
+      <c r="A515" s="11"/>
       <c r="B515" s="2">
         <f t="shared" si="41"/>
         <v>3900</v>
@@ -23513,7 +23514,7 @@
       <c r="F515" t="s">
         <v>30</v>
       </c>
-      <c r="G515" s="9"/>
+      <c r="G515" s="11"/>
       <c r="H515">
         <v>20</v>
       </c>
@@ -23538,7 +23539,7 @@
       </c>
     </row>
     <row r="516" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A516" s="9"/>
+      <c r="A516" s="11"/>
       <c r="B516" s="2">
         <f t="shared" si="41"/>
         <v>11674</v>
@@ -23556,7 +23557,7 @@
       <c r="F516" t="s">
         <v>31</v>
       </c>
-      <c r="G516" s="9"/>
+      <c r="G516" s="11"/>
       <c r="H516">
         <v>37</v>
       </c>
@@ -23581,7 +23582,7 @@
       </c>
     </row>
     <row r="517" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A517" s="9"/>
+      <c r="A517" s="11"/>
       <c r="B517" s="2">
         <f t="shared" si="41"/>
         <v>18174</v>
@@ -23599,7 +23600,7 @@
       <c r="F517" t="s">
         <v>22</v>
       </c>
-      <c r="G517" s="9"/>
+      <c r="G517" s="11"/>
       <c r="H517">
         <v>95</v>
       </c>
@@ -23624,7 +23625,7 @@
       </c>
     </row>
     <row r="518" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A518" s="9"/>
+      <c r="A518" s="11"/>
       <c r="B518" s="2">
         <f t="shared" si="41"/>
         <v>23374</v>
@@ -23642,7 +23643,7 @@
       <c r="F518" t="s">
         <v>32</v>
       </c>
-      <c r="G518" s="9"/>
+      <c r="G518" s="11"/>
       <c r="H518">
         <v>166</v>
       </c>
@@ -23667,7 +23668,7 @@
       </c>
     </row>
     <row r="519" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A519" s="9"/>
+      <c r="A519" s="11"/>
       <c r="B519" s="2">
         <f t="shared" si="41"/>
         <v>29874</v>
@@ -23685,7 +23686,7 @@
       <c r="F519" t="s">
         <v>33</v>
       </c>
-      <c r="G519" s="9"/>
+      <c r="G519" s="11"/>
       <c r="H519">
         <v>158</v>
       </c>
@@ -23710,7 +23711,7 @@
       </c>
     </row>
     <row r="520" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A520" s="9"/>
+      <c r="A520" s="11"/>
       <c r="B520" s="2">
         <f t="shared" si="41"/>
         <v>37674</v>
@@ -23728,7 +23729,7 @@
       <c r="F520" t="s">
         <v>34</v>
       </c>
-      <c r="G520" s="9"/>
+      <c r="G520" s="11"/>
       <c r="H520">
         <v>180</v>
       </c>
@@ -23753,7 +23754,7 @@
       </c>
     </row>
     <row r="521" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A521" s="9"/>
+      <c r="A521" s="11"/>
       <c r="B521" s="2">
         <f t="shared" si="41"/>
         <v>46774</v>
@@ -23771,7 +23772,7 @@
       <c r="F521" t="s">
         <v>25</v>
       </c>
-      <c r="G521" s="9"/>
+      <c r="G521" s="11"/>
       <c r="H521">
         <v>198</v>
       </c>
@@ -23796,7 +23797,7 @@
       </c>
     </row>
     <row r="522" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A522" s="9"/>
+      <c r="A522" s="11"/>
       <c r="B522" s="2">
         <f t="shared" si="41"/>
         <v>58474</v>
@@ -23814,7 +23815,7 @@
       <c r="F522" t="s">
         <v>26</v>
       </c>
-      <c r="G522" s="9"/>
+      <c r="G522" s="11"/>
       <c r="H522">
         <v>221</v>
       </c>
@@ -23839,7 +23840,7 @@
       </c>
     </row>
     <row r="523" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A523" s="9"/>
+      <c r="A523" s="11"/>
       <c r="B523" s="2">
         <f t="shared" si="41"/>
         <v>71474</v>
@@ -23857,7 +23858,7 @@
       <c r="F523" t="s">
         <v>27</v>
       </c>
-      <c r="G523" s="9"/>
+      <c r="G523" s="11"/>
       <c r="H523">
         <v>158</v>
       </c>
@@ -23882,7 +23883,7 @@
       </c>
     </row>
     <row r="524" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A524" s="9"/>
+      <c r="A524" s="11"/>
       <c r="B524" s="2">
         <f t="shared" si="41"/>
         <v>84474</v>
@@ -23900,7 +23901,7 @@
       <c r="F524" t="s">
         <v>35</v>
       </c>
-      <c r="G524" s="9"/>
+      <c r="G524" s="11"/>
       <c r="H524">
         <v>120</v>
       </c>
@@ -23925,7 +23926,7 @@
       </c>
     </row>
     <row r="525" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A525" s="9"/>
+      <c r="A525" s="11"/>
       <c r="B525" s="2">
         <f t="shared" si="41"/>
         <v>97474</v>
@@ -23943,7 +23944,7 @@
       <c r="F525" t="s">
         <v>36</v>
       </c>
-      <c r="G525" s="9"/>
+      <c r="G525" s="11"/>
       <c r="H525">
         <v>111</v>
       </c>
@@ -23968,7 +23969,7 @@
       </c>
     </row>
     <row r="526" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A526" s="9"/>
+      <c r="A526" s="11"/>
       <c r="B526" s="2">
         <f t="shared" si="41"/>
         <v>116974</v>
@@ -23986,7 +23987,7 @@
       <c r="F526" t="s">
         <v>37</v>
       </c>
-      <c r="G526" s="9"/>
+      <c r="G526" s="11"/>
       <c r="H526">
         <v>119</v>
       </c>
@@ -24011,7 +24012,7 @@
       </c>
     </row>
     <row r="527" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A527" s="9"/>
+      <c r="A527" s="11"/>
       <c r="B527" s="2">
         <f t="shared" si="41"/>
         <v>142974</v>
@@ -24029,7 +24030,7 @@
       <c r="F527" t="s">
         <v>38</v>
       </c>
-      <c r="G527" s="9"/>
+      <c r="G527" s="11"/>
       <c r="H527">
         <v>50</v>
       </c>
@@ -24054,7 +24055,7 @@
       </c>
     </row>
     <row r="528" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A528" s="9"/>
+      <c r="A528" s="11"/>
       <c r="B528" s="2">
         <f t="shared" si="41"/>
         <v>208000</v>
@@ -24072,7 +24073,7 @@
       <c r="F528" t="s">
         <v>39</v>
       </c>
-      <c r="G528" s="9"/>
+      <c r="G528" s="11"/>
       <c r="H528">
         <v>98</v>
       </c>
@@ -24097,7 +24098,7 @@
       </c>
     </row>
     <row r="529" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A529" s="9"/>
+      <c r="A529" s="11"/>
       <c r="B529" s="2">
         <f t="shared" si="41"/>
         <v>0</v>
@@ -24115,7 +24116,7 @@
       <c r="F529">
         <v>0</v>
       </c>
-      <c r="G529" s="9" t="s">
+      <c r="G529" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H529">
@@ -24142,7 +24143,7 @@
       </c>
     </row>
     <row r="530" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A530" s="9"/>
+      <c r="A530" s="11"/>
       <c r="B530" s="2">
         <f t="shared" si="41"/>
         <v>3900</v>
@@ -24160,7 +24161,7 @@
       <c r="F530" t="s">
         <v>30</v>
       </c>
-      <c r="G530" s="9"/>
+      <c r="G530" s="11"/>
       <c r="H530">
         <v>0</v>
       </c>
@@ -24185,7 +24186,7 @@
       </c>
     </row>
     <row r="531" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A531" s="9"/>
+      <c r="A531" s="11"/>
       <c r="B531" s="2">
         <f t="shared" si="41"/>
         <v>11674</v>
@@ -24203,7 +24204,7 @@
       <c r="F531" t="s">
         <v>31</v>
       </c>
-      <c r="G531" s="9"/>
+      <c r="G531" s="11"/>
       <c r="H531">
         <v>0</v>
       </c>
@@ -24228,7 +24229,7 @@
       </c>
     </row>
     <row r="532" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A532" s="9"/>
+      <c r="A532" s="11"/>
       <c r="B532" s="2">
         <f t="shared" si="41"/>
         <v>18174</v>
@@ -24246,7 +24247,7 @@
       <c r="F532" t="s">
         <v>22</v>
       </c>
-      <c r="G532" s="9"/>
+      <c r="G532" s="11"/>
       <c r="H532">
         <v>0</v>
       </c>
@@ -24271,7 +24272,7 @@
       </c>
     </row>
     <row r="533" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A533" s="9"/>
+      <c r="A533" s="11"/>
       <c r="B533" s="2">
         <f t="shared" si="41"/>
         <v>23374</v>
@@ -24289,7 +24290,7 @@
       <c r="F533" t="s">
         <v>32</v>
       </c>
-      <c r="G533" s="9"/>
+      <c r="G533" s="11"/>
       <c r="H533">
         <v>0</v>
       </c>
@@ -24314,7 +24315,7 @@
       </c>
     </row>
     <row r="534" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A534" s="9"/>
+      <c r="A534" s="11"/>
       <c r="B534" s="2">
         <f t="shared" si="41"/>
         <v>29874</v>
@@ -24332,7 +24333,7 @@
       <c r="F534" t="s">
         <v>33</v>
       </c>
-      <c r="G534" s="9"/>
+      <c r="G534" s="11"/>
       <c r="H534">
         <v>0</v>
       </c>
@@ -24357,7 +24358,7 @@
       </c>
     </row>
     <row r="535" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A535" s="9"/>
+      <c r="A535" s="11"/>
       <c r="B535" s="2">
         <f t="shared" si="41"/>
         <v>37674</v>
@@ -24375,7 +24376,7 @@
       <c r="F535" t="s">
         <v>34</v>
       </c>
-      <c r="G535" s="9"/>
+      <c r="G535" s="11"/>
       <c r="H535">
         <v>0</v>
       </c>
@@ -24400,7 +24401,7 @@
       </c>
     </row>
     <row r="536" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A536" s="9"/>
+      <c r="A536" s="11"/>
       <c r="B536" s="2">
         <f t="shared" si="41"/>
         <v>46774</v>
@@ -24418,7 +24419,7 @@
       <c r="F536" t="s">
         <v>25</v>
       </c>
-      <c r="G536" s="9"/>
+      <c r="G536" s="11"/>
       <c r="H536">
         <v>0</v>
       </c>
@@ -24443,7 +24444,7 @@
       </c>
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A537" s="9"/>
+      <c r="A537" s="11"/>
       <c r="B537" s="2">
         <f t="shared" si="41"/>
         <v>58474</v>
@@ -24461,7 +24462,7 @@
       <c r="F537" t="s">
         <v>26</v>
       </c>
-      <c r="G537" s="9"/>
+      <c r="G537" s="11"/>
       <c r="H537">
         <v>0</v>
       </c>
@@ -24486,7 +24487,7 @@
       </c>
     </row>
     <row r="538" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A538" s="9"/>
+      <c r="A538" s="11"/>
       <c r="B538" s="2">
         <f t="shared" si="41"/>
         <v>71474</v>
@@ -24504,7 +24505,7 @@
       <c r="F538" t="s">
         <v>27</v>
       </c>
-      <c r="G538" s="9"/>
+      <c r="G538" s="11"/>
       <c r="H538">
         <v>0</v>
       </c>
@@ -24529,7 +24530,7 @@
       </c>
     </row>
     <row r="539" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A539" s="9"/>
+      <c r="A539" s="11"/>
       <c r="B539" s="2">
         <f t="shared" si="41"/>
         <v>84474</v>
@@ -24547,7 +24548,7 @@
       <c r="F539" t="s">
         <v>35</v>
       </c>
-      <c r="G539" s="9"/>
+      <c r="G539" s="11"/>
       <c r="H539">
         <v>0</v>
       </c>
@@ -24572,7 +24573,7 @@
       </c>
     </row>
     <row r="540" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A540" s="9"/>
+      <c r="A540" s="11"/>
       <c r="B540" s="2">
         <f t="shared" si="41"/>
         <v>97474</v>
@@ -24590,7 +24591,7 @@
       <c r="F540" t="s">
         <v>36</v>
       </c>
-      <c r="G540" s="9"/>
+      <c r="G540" s="11"/>
       <c r="H540">
         <v>0</v>
       </c>
@@ -24615,7 +24616,7 @@
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A541" s="9"/>
+      <c r="A541" s="11"/>
       <c r="B541" s="2">
         <f t="shared" si="41"/>
         <v>116974</v>
@@ -24633,7 +24634,7 @@
       <c r="F541" t="s">
         <v>37</v>
       </c>
-      <c r="G541" s="9"/>
+      <c r="G541" s="11"/>
       <c r="H541">
         <v>0</v>
       </c>
@@ -24658,7 +24659,7 @@
       </c>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A542" s="9"/>
+      <c r="A542" s="11"/>
       <c r="B542" s="2">
         <f t="shared" si="41"/>
         <v>142974</v>
@@ -24676,7 +24677,7 @@
       <c r="F542" t="s">
         <v>38</v>
       </c>
-      <c r="G542" s="9"/>
+      <c r="G542" s="11"/>
       <c r="H542">
         <v>0</v>
       </c>
@@ -24701,7 +24702,7 @@
       </c>
     </row>
     <row r="543" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A543" s="9"/>
+      <c r="A543" s="11"/>
       <c r="B543" s="2">
         <f t="shared" si="41"/>
         <v>208000</v>
@@ -24719,7 +24720,7 @@
       <c r="F543" t="s">
         <v>39</v>
       </c>
-      <c r="G543" s="9"/>
+      <c r="G543" s="11"/>
       <c r="H543">
         <v>0</v>
       </c>
@@ -24745,6 +24746,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="G469:G483"/>
+    <mergeCell ref="G274:G285"/>
+    <mergeCell ref="A394:A543"/>
+    <mergeCell ref="A286:A393"/>
+    <mergeCell ref="A178:A285"/>
+    <mergeCell ref="G178:G189"/>
+    <mergeCell ref="G190:G201"/>
+    <mergeCell ref="G214:G225"/>
+    <mergeCell ref="G238:G249"/>
+    <mergeCell ref="G262:G273"/>
+    <mergeCell ref="G529:G543"/>
+    <mergeCell ref="G382:G393"/>
+    <mergeCell ref="G409:G423"/>
+    <mergeCell ref="G424:G438"/>
+    <mergeCell ref="G439:G453"/>
+    <mergeCell ref="G454:G468"/>
+    <mergeCell ref="G394:G408"/>
+    <mergeCell ref="G74:G86"/>
+    <mergeCell ref="G47:G55"/>
+    <mergeCell ref="G484:G498"/>
+    <mergeCell ref="G514:G528"/>
+    <mergeCell ref="G499:G513"/>
+    <mergeCell ref="G202:G213"/>
+    <mergeCell ref="G226:G237"/>
+    <mergeCell ref="G250:G261"/>
+    <mergeCell ref="G346:G357"/>
+    <mergeCell ref="G370:G381"/>
+    <mergeCell ref="G286:G297"/>
+    <mergeCell ref="G298:G309"/>
+    <mergeCell ref="G310:G321"/>
+    <mergeCell ref="G322:G333"/>
+    <mergeCell ref="G334:G345"/>
+    <mergeCell ref="G358:G369"/>
     <mergeCell ref="G56:G64"/>
     <mergeCell ref="G65:G73"/>
     <mergeCell ref="A2:A73"/>
@@ -24761,45 +24795,27 @@
     <mergeCell ref="G139:G151"/>
     <mergeCell ref="G126:G138"/>
     <mergeCell ref="G113:G125"/>
-    <mergeCell ref="G74:G86"/>
-    <mergeCell ref="G47:G55"/>
-    <mergeCell ref="G484:G498"/>
-    <mergeCell ref="G514:G528"/>
-    <mergeCell ref="G499:G513"/>
-    <mergeCell ref="G202:G213"/>
-    <mergeCell ref="G226:G237"/>
-    <mergeCell ref="G250:G261"/>
-    <mergeCell ref="G346:G357"/>
-    <mergeCell ref="G370:G381"/>
-    <mergeCell ref="G286:G297"/>
-    <mergeCell ref="G298:G309"/>
-    <mergeCell ref="G310:G321"/>
-    <mergeCell ref="G322:G333"/>
-    <mergeCell ref="G334:G345"/>
-    <mergeCell ref="G358:G369"/>
-    <mergeCell ref="G274:G285"/>
-    <mergeCell ref="A394:A543"/>
-    <mergeCell ref="A286:A393"/>
-    <mergeCell ref="A178:A285"/>
-    <mergeCell ref="G178:G189"/>
-    <mergeCell ref="G190:G201"/>
-    <mergeCell ref="G214:G225"/>
-    <mergeCell ref="G238:G249"/>
-    <mergeCell ref="G262:G273"/>
-    <mergeCell ref="G529:G543"/>
-    <mergeCell ref="G382:G393"/>
-    <mergeCell ref="G409:G423"/>
-    <mergeCell ref="G424:G438"/>
-    <mergeCell ref="G439:G453"/>
-    <mergeCell ref="G454:G468"/>
-    <mergeCell ref="G394:G408"/>
-    <mergeCell ref="G469:G483"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A2BA1EC2862E44280BC2677B0CE4D11" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7f5c4509027cb3dc108d52878593ed3d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0ab957aa-cb00-4a9d-839e-c47ec2782d7d" xmlns:ns4="123c427a-d46a-4a80-989c-7585c2346655" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0553d47f289b4e065f519ec6e95f36b" ns3:_="" ns4:_="">
     <xsd:import namespace="0ab957aa-cb00-4a9d-839e-c47ec2782d7d"/>
@@ -25022,22 +25038,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6A118F0-F02B-4662-AD55-361AE3F51BA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{057A406B-54E5-4133-85EB-ADAD305724AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2CC4E69-0221-4EDB-A221-6172DBE3F62D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25054,21 +25072,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{057A406B-54E5-4133-85EB-ADAD305724AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6A118F0-F02B-4662-AD55-361AE3F51BA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>